--- a/Documentos/Tornillos.xlsx
+++ b/Documentos/Tornillos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. EUE\Micro-Satellite-Design-Analysis\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. EUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D2BF8B-2371-4675-AAF4-567393F5D2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08997B78-EAF9-4A87-ACD6-B5C5DD7D602B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5BA9392F-C683-4373-9077-1D6BAC03E8AC}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="76">
   <si>
     <t>FORCES CBUSH</t>
   </si>
@@ -331,15 +331,6 @@
     <t>ESTATICO Z</t>
   </si>
   <si>
-    <t>SENO X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENO Y </t>
-  </si>
-  <si>
-    <t>SENO Z</t>
-  </si>
-  <si>
     <t>RANDOM X</t>
   </si>
   <si>
@@ -347,6 +338,15 @@
   </si>
   <si>
     <t>RANDOM Z</t>
+  </si>
+  <si>
+    <t>SINE X</t>
+  </si>
+  <si>
+    <t>SINE Y</t>
+  </si>
+  <si>
+    <t>SINE Z</t>
   </si>
 </sst>
 </file>
@@ -903,6 +903,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -917,15 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,7 +1092,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>132557</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>11366</xdr:rowOff>
+      <xdr:rowOff>17081</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1488,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193B3275-13AE-426A-BEAE-42C8E90F0CB9}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
@@ -2268,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6416B13E-8A02-4DD4-A2E9-C9FE51FBF3E8}">
-  <dimension ref="A1:AM15"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE33" sqref="AE33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3296,8 +3296,675 @@
         <v>-7.3325389999999997</v>
       </c>
     </row>
+    <row r="18" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
+      <c r="P19" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="61"/>
+      <c r="AE19" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="61"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>195.53479999999999</v>
+      </c>
+      <c r="D22" s="3">
+        <v>465.87520000000001</v>
+      </c>
+      <c r="E22" s="3">
+        <v>356.5598</v>
+      </c>
+      <c r="F22" s="3">
+        <v>275.63299999999998</v>
+      </c>
+      <c r="G22" s="3">
+        <v>177.27180000000001</v>
+      </c>
+      <c r="H22" s="3">
+        <v>193.9177</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>389.44279999999998</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>398.78019999999998</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>398.78109999999998</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>401.24579999999997</v>
+      </c>
+      <c r="AK22" s="3">
+        <v>361.43060000000003</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>361.43060000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>195.53550000000001</v>
+      </c>
+      <c r="D23" s="3">
+        <v>465.87490000000003</v>
+      </c>
+      <c r="E23" s="3">
+        <v>356.55860000000001</v>
+      </c>
+      <c r="F23" s="3">
+        <v>275.64049999999997</v>
+      </c>
+      <c r="G23" s="3">
+        <v>177.2724</v>
+      </c>
+      <c r="H23" s="3">
+        <v>193.91839999999999</v>
+      </c>
+      <c r="AF23">
+        <v>2</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>389.43470000000002</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>398.80880000000002</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>398.80709999999999</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>397.00889999999998</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>361.42169999999999</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>361.42160000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>146.33519999999999</v>
+      </c>
+      <c r="D24" s="3">
+        <v>188.44720000000001</v>
+      </c>
+      <c r="E24" s="3">
+        <v>161.7287</v>
+      </c>
+      <c r="F24" s="3">
+        <v>196.40870000000001</v>
+      </c>
+      <c r="G24" s="3">
+        <v>120.69540000000001</v>
+      </c>
+      <c r="H24" s="3">
+        <v>127.259</v>
+      </c>
+      <c r="AF24">
+        <v>3</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>341.28429999999997</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>315.71050000000002</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>341.84219999999999</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>386.40480000000002</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>418.60449999999997</v>
+      </c>
+      <c r="AL24" s="3">
+        <v>304.9665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>125.6237</v>
+      </c>
+      <c r="D25" s="3">
+        <v>549.72230000000002</v>
+      </c>
+      <c r="E25" s="3">
+        <v>458.91489999999999</v>
+      </c>
+      <c r="F25" s="3">
+        <v>234.76769999999999</v>
+      </c>
+      <c r="G25" s="3">
+        <v>120.38549999999999</v>
+      </c>
+      <c r="H25" s="3">
+        <v>473.10969999999998</v>
+      </c>
+      <c r="AF25">
+        <v>4</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>341.26979999999998</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>341.8023</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>315.70190000000002</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>386.42720000000003</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>304.95350000000002</v>
+      </c>
+      <c r="AL25" s="3">
+        <v>418.6046</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>146.3365</v>
+      </c>
+      <c r="D26" s="3">
+        <v>188.45089999999999</v>
+      </c>
+      <c r="E26" s="3">
+        <v>161.7294</v>
+      </c>
+      <c r="F26" s="3">
+        <v>196.40350000000001</v>
+      </c>
+      <c r="G26" s="3">
+        <v>120.6957</v>
+      </c>
+      <c r="H26" s="3">
+        <v>127.2599</v>
+      </c>
+      <c r="AF26">
+        <v>5</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>341.28129999999999</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>315.70949999999999</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>341.82150000000001</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>386.46080000000001</v>
+      </c>
+      <c r="AK26" s="3">
+        <v>418.60480000000001</v>
+      </c>
+      <c r="AL26" s="3">
+        <v>304.96370000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
+        <v>125.6237</v>
+      </c>
+      <c r="D27" s="3">
+        <v>549.70299999999997</v>
+      </c>
+      <c r="E27" s="3">
+        <v>458.91539999999998</v>
+      </c>
+      <c r="F27" s="3">
+        <v>234.7784</v>
+      </c>
+      <c r="G27" s="3">
+        <v>120.38549999999999</v>
+      </c>
+      <c r="H27" s="3">
+        <v>473.1069</v>
+      </c>
+      <c r="AF27">
+        <v>6</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>341.27289999999999</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>341.8297</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>315.70280000000002</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>386.39260000000002</v>
+      </c>
+      <c r="AK27" s="3">
+        <v>304.95650000000001</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>418.60399999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
+        <v>125.62390000000001</v>
+      </c>
+      <c r="D28" s="3">
+        <v>549.68150000000003</v>
+      </c>
+      <c r="E28" s="3">
+        <v>458.91340000000002</v>
+      </c>
+      <c r="F28" s="3">
+        <v>234.76480000000001</v>
+      </c>
+      <c r="G28" s="3">
+        <v>120.3857</v>
+      </c>
+      <c r="H28" s="3">
+        <v>473.10829999999999</v>
+      </c>
+      <c r="AF28">
+        <v>7</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>341.2842</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>341.84429999999998</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>315.71030000000002</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>386.41019999999997</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>304.96640000000002</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>418.6044</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3">
+        <v>146.3365</v>
+      </c>
+      <c r="D29" s="3">
+        <v>188.44929999999999</v>
+      </c>
+      <c r="E29" s="3">
+        <v>161.72909999999999</v>
+      </c>
+      <c r="F29" s="3">
+        <v>196.40270000000001</v>
+      </c>
+      <c r="G29" s="3">
+        <v>120.6953</v>
+      </c>
+      <c r="H29" s="3">
+        <v>127.2598</v>
+      </c>
+      <c r="AF29">
+        <v>8</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>341.2697</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>315.70159999999998</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>341.80509999999998</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>386.43099999999998</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>418.6046</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>304.95350000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3">
+        <v>125.62390000000001</v>
+      </c>
+      <c r="D30" s="3">
+        <v>549.68529999999998</v>
+      </c>
+      <c r="E30" s="3">
+        <v>458.91340000000002</v>
+      </c>
+      <c r="F30" s="3">
+        <v>234.78569999999999</v>
+      </c>
+      <c r="G30" s="3">
+        <v>120.3857</v>
+      </c>
+      <c r="H30" s="3">
+        <v>473.10919999999999</v>
+      </c>
+      <c r="AF30">
+        <v>9</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>341.28100000000001</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>341.81970000000001</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>315.70940000000002</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>386.45400000000001</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>304.96339999999998</v>
+      </c>
+      <c r="AL30" s="3">
+        <v>418.60489999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3">
+        <v>146.33510000000001</v>
+      </c>
+      <c r="D31" s="3">
+        <v>188.4452</v>
+      </c>
+      <c r="E31" s="3">
+        <v>161.72880000000001</v>
+      </c>
+      <c r="F31" s="3">
+        <v>196.40649999999999</v>
+      </c>
+      <c r="G31" s="3">
+        <v>120.6957</v>
+      </c>
+      <c r="H31" s="3">
+        <v>127.259</v>
+      </c>
+      <c r="AF31">
+        <v>10</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>341.27260000000001</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>315.70229999999998</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>341.82769999999999</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>386.38920000000002</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>418.60410000000002</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>304.95620000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3">
+        <v>195.53460000000001</v>
+      </c>
+      <c r="D32" s="3">
+        <v>465.87509999999997</v>
+      </c>
+      <c r="E32" s="3">
+        <v>356.55840000000001</v>
+      </c>
+      <c r="F32" s="3">
+        <v>275.61959999999999</v>
+      </c>
+      <c r="G32" s="3">
+        <v>177.2714</v>
+      </c>
+      <c r="H32" s="3">
+        <v>193.91749999999999</v>
+      </c>
+      <c r="AF32">
+        <v>11</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>389.43860000000001</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>398.79969999999997</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>398.79129999999998</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>303.45780000000002</v>
+      </c>
+      <c r="AK32" s="3">
+        <v>361.42599999999999</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>361.42590000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3">
+        <v>195.53479999999999</v>
+      </c>
+      <c r="D33" s="3">
+        <v>465.87450000000001</v>
+      </c>
+      <c r="E33" s="3">
+        <v>356.55930000000001</v>
+      </c>
+      <c r="F33" s="3">
+        <v>275.65219999999999</v>
+      </c>
+      <c r="G33" s="3">
+        <v>177.27260000000001</v>
+      </c>
+      <c r="H33" s="3">
+        <v>193.9179</v>
+      </c>
+      <c r="AF33">
+        <v>12</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>389.43860000000001</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>398.79199999999997</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>398.79750000000001</v>
+      </c>
+      <c r="AJ33" s="3">
+        <v>310.34840000000003</v>
+      </c>
+      <c r="AK33" s="3">
+        <v>361.42619999999999</v>
+      </c>
+      <c r="AL33" s="3">
+        <v>361.42619999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AL19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:W19"/>
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
@@ -3315,7 +3982,7 @@
   <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3324,30 +3991,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
       <c r="F1" s="40"/>
       <c r="G1" s="41"/>
       <c r="H1" s="41"/>
       <c r="I1" s="41"/>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="66"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="57" t="s">
         <v>59</v>
       </c>
       <c r="M1" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="67"/>
+      <c r="O1" s="70"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -3409,7 +4076,7 @@
       <c r="F3" s="44">
         <v>1</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="71" t="s">
         <v>67</v>
       </c>
       <c r="H3" s="35">
@@ -3897,7 +4564,7 @@
       <c r="F14" s="48">
         <v>12</v>
       </c>
-      <c r="G14" s="69"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="33">
         <f>ABS('Forces Input'!AG15)</f>
         <v>291.95359999999999</v>
@@ -3935,7 +4602,7 @@
       <c r="F15" s="44">
         <v>1</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="71" t="s">
         <v>68</v>
       </c>
       <c r="H15" s="35">
@@ -4356,7 +5023,7 @@
       <c r="F26" s="48">
         <v>12</v>
       </c>
-      <c r="G26" s="69"/>
+      <c r="G26" s="72"/>
       <c r="H26" s="33">
         <f>ABS('Forces Input'!R15)</f>
         <v>291.95400000000001</v>
@@ -4903,20 +5570,20 @@
       <c r="G43" s="41"/>
       <c r="H43" s="41"/>
       <c r="I43" s="41"/>
-      <c r="J43" s="65" t="s">
+      <c r="J43" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="K43" s="66"/>
+      <c r="K43" s="69"/>
       <c r="L43" s="57" t="s">
         <v>59</v>
       </c>
       <c r="M43" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="N43" s="65" t="s">
+      <c r="N43" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="O43" s="67"/>
+      <c r="O43" s="70"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
@@ -4960,34 +5627,40 @@
       <c r="F45" s="44">
         <v>1</v>
       </c>
-      <c r="G45" s="68" t="s">
+      <c r="G45" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
+      <c r="H45" s="35">
+        <f>ABS('Forces Input'!AG22)</f>
+        <v>389.44279999999998</v>
+      </c>
+      <c r="I45" s="35" cm="1">
+        <f t="array" ref="I45">MAX(ABS('Forces Input'!AH22:AI22))</f>
+        <v>398.78109999999998</v>
+      </c>
       <c r="J45" s="36">
         <f xml:space="preserve"> (   ($D$2*$B$4*1000000) / ($D$7 + ($D$3*H45*$D$4) ) ) -1</f>
-        <v>0.58289376072382715</v>
+        <v>0.5818283549037726</v>
       </c>
       <c r="K45" s="36">
         <f xml:space="preserve"> (   ($D$2*$B$5*1000000) / ($D$7 + ($D$3*H45*$D$5) ) ) -1</f>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L45" s="35" t="e">
+        <v>0.83109774047015472</v>
+      </c>
+      <c r="L45" s="35">
         <f xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H45*$D$5) ) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M45" s="35" t="e">
+        <v>24.245682631054759</v>
+      </c>
+      <c r="M45" s="35">
         <f xml:space="preserve"> (( ($D$8 - (1-$D$3)*H45)*$D$6) / (I45*$D$5) ) -1</f>
-        <v>#DIV/0!</v>
+        <v>3.6093157468381252</v>
       </c>
       <c r="N45" s="35">
         <f>1/(SQRT(      (((I45*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H45*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
-        <v>1.5828937607238271</v>
+        <v>1.5810470244260859</v>
       </c>
       <c r="O45" s="45">
         <f>1/(SQRT(      (((I45*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H45*$D$5))/($D$2*$B$5*1000000))^2)     )    )</f>
-        <v>1.8328243545223257</v>
+        <v>1.8294360266256342</v>
       </c>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
@@ -4998,31 +5671,37 @@
         <v>2</v>
       </c>
       <c r="G46" s="63"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
+      <c r="H46" s="26">
+        <f>ABS('Forces Input'!AG23)</f>
+        <v>389.43470000000002</v>
+      </c>
+      <c r="I46" s="26" cm="1">
+        <f t="array" ref="I46">MAX(ABS('Forces Input'!AH23:AI23))</f>
+        <v>398.80880000000002</v>
+      </c>
       <c r="J46" s="27">
         <f t="shared" ref="J46:J80" si="6" xml:space="preserve"> (   ($D$2*$B$4*1000000) / ($D$7 + ($D$3*H46*$D$4) ) ) -1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58182837704817691</v>
       </c>
       <c r="K46" s="27">
         <f t="shared" ref="K46:K80" si="7" xml:space="preserve"> (   ($D$2*$B$5*1000000) / ($D$7 + ($D$3*H46*$D$5) ) ) -1</f>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L46" s="26" t="e">
+        <v>0.83109777634807802</v>
+      </c>
+      <c r="L46" s="26">
         <f xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H46*$D$5) ) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46" s="28" t="e">
+        <v>24.246207725581037</v>
+      </c>
+      <c r="M46" s="28">
         <f t="shared" ref="M46:M80" si="8" xml:space="preserve"> (( ($D$8 - (1-$D$3)*H46)*$D$6) / (I46*$D$5) ) -1</f>
-        <v>#DIV/0!</v>
+        <v>3.6089983895612576</v>
       </c>
       <c r="N46" s="26">
         <f t="shared" ref="N46:N55" si="9">1/(SQRT(      (((I46*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H46*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
-        <v>1.5828937607238271</v>
+        <v>1.581046938069306</v>
       </c>
       <c r="O46" s="47">
         <f t="shared" ref="O46:O80" si="10">1/(SQRT(      (((I46*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H46*$D$5))/($D$2*$B$5*1000000))^2)     )    )</f>
-        <v>1.8328243545223257</v>
+        <v>1.829435831861314</v>
       </c>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
@@ -5033,31 +5712,37 @@
         <v>3</v>
       </c>
       <c r="G47" s="63"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
+      <c r="H47" s="26">
+        <f>ABS('Forces Input'!AG24)</f>
+        <v>341.28429999999997</v>
+      </c>
+      <c r="I47" s="26" cm="1">
+        <f t="array" ref="I47">MAX(ABS('Forces Input'!AH24:AI24))</f>
+        <v>341.84219999999999</v>
+      </c>
       <c r="J47" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58196002527958157</v>
       </c>
       <c r="K47" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L47" s="28" t="e">
+        <v>0.83131107729093334</v>
+      </c>
+      <c r="L47" s="28">
         <f t="shared" ref="L47" si="11" xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H47*$D$5) ) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="28" t="e">
+        <v>27.808091470218034</v>
+      </c>
+      <c r="M47" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>4.3964266484026009</v>
       </c>
       <c r="N47" s="26">
         <f t="shared" si="9"/>
-        <v>1.5828937607238271</v>
+        <v>1.5813856301988436</v>
       </c>
       <c r="O47" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8300891456946202</v>
       </c>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
@@ -5068,31 +5753,37 @@
         <v>4</v>
       </c>
       <c r="G48" s="63"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
+      <c r="H48" s="26">
+        <f>ABS('Forces Input'!AG25)</f>
+        <v>341.26979999999998</v>
+      </c>
+      <c r="I48" s="26" cm="1">
+        <f t="array" ref="I48">MAX(ABS('Forces Input'!AH25:AI25))</f>
+        <v>341.8023</v>
+      </c>
       <c r="J48" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58196006492739882</v>
       </c>
       <c r="K48" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L48" s="28" t="e">
+        <v>0.83131114153181307</v>
+      </c>
+      <c r="L48" s="28">
         <f xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H48*$D$5) ) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M48" s="28" t="e">
+        <v>27.809315479275732</v>
+      </c>
+      <c r="M48" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>4.3970624256854247</v>
       </c>
       <c r="N48" s="26">
         <f t="shared" si="9"/>
-        <v>1.5828937607238271</v>
+        <v>1.5813858038100626</v>
       </c>
       <c r="O48" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8300894947540132</v>
       </c>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
@@ -5103,31 +5794,37 @@
         <v>5</v>
       </c>
       <c r="G49" s="63"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
+      <c r="H49" s="26">
+        <f>ABS('Forces Input'!AG26)</f>
+        <v>341.28129999999999</v>
+      </c>
+      <c r="I49" s="26" cm="1">
+        <f t="array" ref="I49">MAX(ABS('Forces Input'!AH26:AI26))</f>
+        <v>341.82150000000001</v>
+      </c>
       <c r="J49" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58196003348257808</v>
       </c>
       <c r="K49" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L49" s="28" t="e">
+        <v>0.83131109058214947</v>
+      </c>
+      <c r="L49" s="28">
         <f t="shared" ref="L49:L80" si="12" xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H49*$D$5) ) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M49" s="28" t="e">
+        <v>27.80834470493793</v>
+      </c>
+      <c r="M49" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>4.3967546509341444</v>
       </c>
       <c r="N49" s="26">
         <f t="shared" si="9"/>
-        <v>1.5828937607238271</v>
+        <v>1.5813857079170592</v>
       </c>
       <c r="O49" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8300893067930286</v>
       </c>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
@@ -5138,31 +5835,37 @@
         <v>6</v>
       </c>
       <c r="G50" s="63"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
+      <c r="H50" s="26">
+        <f>ABS('Forces Input'!AG27)</f>
+        <v>341.27289999999999</v>
+      </c>
+      <c r="I50" s="26" cm="1">
+        <f t="array" ref="I50">MAX(ABS('Forces Input'!AH27:AI27))</f>
+        <v>341.8297</v>
+      </c>
       <c r="J50" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58196005645096882</v>
       </c>
       <c r="K50" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L50" s="28" t="e">
+        <v>0.83131112779755578</v>
+      </c>
+      <c r="L50" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M50" s="28" t="e">
+        <v>27.809053785839232</v>
+      </c>
+      <c r="M50" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>4.3966285677174506</v>
       </c>
       <c r="N50" s="26">
         <f t="shared" si="9"/>
-        <v>1.5828937607238271</v>
+        <v>1.5813857033199765</v>
       </c>
       <c r="O50" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8300892853728874</v>
       </c>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
@@ -5173,31 +5876,37 @@
         <v>7</v>
       </c>
       <c r="G51" s="63"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
+      <c r="H51" s="26">
+        <f>ABS('Forces Input'!AG28)</f>
+        <v>341.2842</v>
+      </c>
+      <c r="I51" s="26" cm="1">
+        <f t="array" ref="I51">MAX(ABS('Forces Input'!AH28:AI28))</f>
+        <v>341.84429999999998</v>
+      </c>
       <c r="J51" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58196002555301485</v>
       </c>
       <c r="K51" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L51" s="28" t="e">
+        <v>0.83131107773397384</v>
+      </c>
+      <c r="L51" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M51" s="28" t="e">
+        <v>27.808099911303636</v>
+      </c>
+      <c r="M51" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>4.3963935375591419</v>
       </c>
       <c r="N51" s="26">
         <f t="shared" si="9"/>
-        <v>1.5828937607238271</v>
+        <v>1.5813856234185697</v>
       </c>
       <c r="O51" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8300891311386465</v>
       </c>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
@@ -5208,31 +5917,37 @@
         <v>8</v>
       </c>
       <c r="G52" s="63"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
+      <c r="H52" s="26">
+        <f>ABS('Forces Input'!AG29)</f>
+        <v>341.2697</v>
+      </c>
+      <c r="I52" s="26" cm="1">
+        <f t="array" ref="I52">MAX(ABS('Forces Input'!AH29:AI29))</f>
+        <v>341.80509999999998</v>
+      </c>
       <c r="J52" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58196006520083232</v>
       </c>
       <c r="K52" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L52" s="28" t="e">
+        <v>0.83131114197485378</v>
+      </c>
+      <c r="L52" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M52" s="28" t="e">
+        <v>27.809323921078647</v>
+      </c>
+      <c r="M52" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>4.39701825422065</v>
       </c>
       <c r="N52" s="26">
         <f t="shared" si="9"/>
-        <v>1.5828937607238271</v>
+        <v>1.5813857946797378</v>
       </c>
       <c r="O52" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8300894752009664</v>
       </c>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
@@ -5243,31 +5958,37 @@
         <v>9</v>
       </c>
       <c r="G53" s="63"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
+      <c r="H53" s="26">
+        <f>ABS('Forces Input'!AG30)</f>
+        <v>341.28100000000001</v>
+      </c>
+      <c r="I53" s="26" cm="1">
+        <f t="array" ref="I53">MAX(ABS('Forces Input'!AH30:AI30))</f>
+        <v>341.81970000000001</v>
+      </c>
       <c r="J53" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58196003430287768</v>
       </c>
       <c r="K53" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L53" s="28" t="e">
+        <v>0.83131109191127117</v>
+      </c>
+      <c r="L53" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M53" s="28" t="e">
+        <v>27.808370028654782</v>
+      </c>
+      <c r="M53" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>4.396783190503232</v>
       </c>
       <c r="N53" s="26">
         <f t="shared" si="9"/>
-        <v>1.5828937607238271</v>
+        <v>1.5813857147818458</v>
       </c>
       <c r="O53" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8300893209741815</v>
       </c>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
@@ -5278,31 +5999,37 @@
         <v>10</v>
       </c>
       <c r="G54" s="63"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
+      <c r="H54" s="26">
+        <f>ABS('Forces Input'!AG31)</f>
+        <v>341.27260000000001</v>
+      </c>
+      <c r="I54" s="26" cm="1">
+        <f t="array" ref="I54">MAX(ABS('Forces Input'!AH31:AI31))</f>
+        <v>341.82769999999999</v>
+      </c>
       <c r="J54" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58196005727126843</v>
       </c>
       <c r="K54" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L54" s="28" t="e">
+        <v>0.83131112912667726</v>
+      </c>
+      <c r="L54" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M54" s="28" t="e">
+        <v>27.80907911080272</v>
+      </c>
+      <c r="M54" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>4.3966602634685756</v>
       </c>
       <c r="N54" s="26">
         <f t="shared" si="9"/>
-        <v>1.5828937607238271</v>
+        <v>1.5813857108566307</v>
       </c>
       <c r="O54" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8300893009826769</v>
       </c>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
@@ -5313,31 +6040,37 @@
         <v>11</v>
       </c>
       <c r="G55" s="63"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
+      <c r="H55" s="26">
+        <f>ABS('Forces Input'!AG32)</f>
+        <v>389.43860000000001</v>
+      </c>
+      <c r="I55" s="26" cm="1">
+        <f t="array" ref="I55">MAX(ABS('Forces Input'!AH32:AI32))</f>
+        <v>398.79969999999997</v>
+      </c>
       <c r="J55" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58182836638605617</v>
       </c>
       <c r="K55" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L55" s="28" t="e">
+        <v>0.83109775907352224</v>
+      </c>
+      <c r="L55" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M55" s="28" t="e">
+        <v>24.245954899563969</v>
+      </c>
+      <c r="M55" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.6091022159029427</v>
       </c>
       <c r="N55" s="26">
         <f t="shared" si="9"/>
-        <v>1.5828937607238271</v>
+        <v>1.5810469630578257</v>
       </c>
       <c r="O55" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8294358903740029</v>
       </c>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
@@ -5347,32 +6080,38 @@
       <c r="F56" s="48">
         <v>12</v>
       </c>
-      <c r="G56" s="69"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="33">
+        <f>ABS('Forces Input'!AG33)</f>
+        <v>389.43860000000001</v>
+      </c>
+      <c r="I56" s="33" cm="1">
+        <f t="array" ref="I56">MAX(ABS('Forces Input'!AH33:AI33))</f>
+        <v>398.79750000000001</v>
+      </c>
       <c r="J56" s="15">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58182836638605617</v>
       </c>
       <c r="K56" s="15">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L56" s="32" t="e">
+        <v>0.83109775907352224</v>
+      </c>
+      <c r="L56" s="32">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M56" s="32" t="e">
+        <v>24.245954899563969</v>
+      </c>
+      <c r="M56" s="32">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.6091276424035472</v>
       </c>
       <c r="N56" s="33">
         <f>1/(SQRT(      (((I56*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H56*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
-        <v>1.5828937607238271</v>
+        <v>1.5810469716727218</v>
       </c>
       <c r="O56" s="49">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8294359086845748</v>
       </c>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
@@ -5382,7 +6121,7 @@
       <c r="F57" s="44">
         <v>1</v>
       </c>
-      <c r="G57" s="68" t="s">
+      <c r="G57" s="71" t="s">
         <v>71</v>
       </c>
       <c r="H57" s="35"/>
@@ -5753,7 +6492,7 @@
       <c r="F68" s="48">
         <v>12</v>
       </c>
-      <c r="G68" s="69"/>
+      <c r="G68" s="72"/>
       <c r="H68" s="33"/>
       <c r="I68" s="31"/>
       <c r="J68" s="15">
@@ -5788,31 +6527,37 @@
       <c r="G69" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="H69" s="29"/>
-      <c r="I69" s="30"/>
+      <c r="H69" s="29">
+        <f>ABS('Forces Input'!C22)</f>
+        <v>195.53479999999999</v>
+      </c>
+      <c r="I69" s="29" cm="1">
+        <f t="array" ref="I69">MAX(ABS('Forces Input'!D22:E22))</f>
+        <v>465.87520000000001</v>
+      </c>
       <c r="J69" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58235865324907188</v>
       </c>
       <c r="K69" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L69" s="28" t="e">
+        <v>0.83195703442346391</v>
+      </c>
+      <c r="L69" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M69" s="28" t="e">
+        <v>49.28132757825886</v>
+      </c>
+      <c r="M69" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.002695363908618</v>
       </c>
       <c r="N69" s="26">
         <f t="shared" si="13"/>
-        <v>1.5828937607238271</v>
+        <v>1.5812915071369567</v>
       </c>
       <c r="O69" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8296870584053333</v>
       </c>
     </row>
     <row r="70" spans="6:15" x14ac:dyDescent="0.3">
@@ -5820,31 +6565,37 @@
         <v>2</v>
       </c>
       <c r="G70" s="63"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="30"/>
+      <c r="H70" s="29">
+        <f>ABS('Forces Input'!C23)</f>
+        <v>195.53550000000001</v>
+      </c>
+      <c r="I70" s="29" cm="1">
+        <f t="array" ref="I70">MAX(ABS('Forces Input'!D23:E23))</f>
+        <v>465.87490000000003</v>
+      </c>
       <c r="J70" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58235865133407483</v>
       </c>
       <c r="K70" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L70" s="28" t="e">
+        <v>0.83195703131999199</v>
+      </c>
+      <c r="L70" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M70" s="28" t="e">
+        <v>49.281147575500775</v>
+      </c>
+      <c r="M70" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.0026977349498765</v>
       </c>
       <c r="N70" s="26">
         <f t="shared" si="13"/>
-        <v>1.5828937607238271</v>
+        <v>1.5812915065988167</v>
       </c>
       <c r="O70" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8296870582314502</v>
       </c>
     </row>
     <row r="71" spans="6:15" x14ac:dyDescent="0.3">
@@ -5852,31 +6603,37 @@
         <v>3</v>
       </c>
       <c r="G71" s="63"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="30"/>
+      <c r="H71" s="29">
+        <f>ABS('Forces Input'!C24)</f>
+        <v>146.33519999999999</v>
+      </c>
+      <c r="I71" s="29" cm="1">
+        <f t="array" ref="I71">MAX(ABS('Forces Input'!D24:E24))</f>
+        <v>188.44720000000001</v>
+      </c>
       <c r="J71" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58249326055426165</v>
       </c>
       <c r="K71" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L71" s="28" t="e">
+        <v>0.83217518836871962</v>
+      </c>
+      <c r="L71" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M71" s="28" t="e">
+        <v>66.186496015649922</v>
+      </c>
+      <c r="M71" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>8.9312589093542218</v>
       </c>
       <c r="N71" s="26">
         <f t="shared" si="13"/>
-        <v>1.5828937607238271</v>
+        <v>1.5823184601419031</v>
       </c>
       <c r="O71" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.831803060615836</v>
       </c>
     </row>
     <row r="72" spans="6:15" x14ac:dyDescent="0.3">
@@ -5884,31 +6641,37 @@
         <v>4</v>
       </c>
       <c r="G72" s="63"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="30"/>
+      <c r="H72" s="29">
+        <f>ABS('Forces Input'!C25)</f>
+        <v>125.6237</v>
+      </c>
+      <c r="I72" s="29" cm="1">
+        <f t="array" ref="I72">MAX(ABS('Forces Input'!D25:E25))</f>
+        <v>549.72230000000002</v>
+      </c>
       <c r="J72" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58254993288924783</v>
       </c>
       <c r="K72" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L72" s="28" t="e">
+        <v>0.83226703992904549</v>
+      </c>
+      <c r="L72" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M72" s="28" t="e">
+        <v>77.263491138609453</v>
+      </c>
+      <c r="M72" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.4096566317211439</v>
       </c>
       <c r="N72" s="26">
         <f t="shared" si="13"/>
-        <v>1.5828937607238271</v>
+        <v>1.5810641462124391</v>
       </c>
       <c r="O72" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8291071464711481</v>
       </c>
     </row>
     <row r="73" spans="6:15" x14ac:dyDescent="0.3">
@@ -5916,31 +6679,37 @@
         <v>5</v>
       </c>
       <c r="G73" s="63"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="30"/>
+      <c r="H73" s="29">
+        <f>ABS('Forces Input'!C26)</f>
+        <v>146.3365</v>
+      </c>
+      <c r="I73" s="29" cm="1">
+        <f t="array" ref="I73">MAX(ABS('Forces Input'!D26:E26))</f>
+        <v>188.45089999999999</v>
+      </c>
       <c r="J73" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.5824932569972332</v>
       </c>
       <c r="K73" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L73" s="28" t="e">
+        <v>0.83217518260375622</v>
+      </c>
+      <c r="L73" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M73" s="28" t="e">
+        <v>66.185899155366798</v>
+      </c>
+      <c r="M73" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>8.9310629733565321</v>
       </c>
       <c r="N73" s="26">
         <f t="shared" si="13"/>
-        <v>1.5828937607238271</v>
+        <v>1.5823184497230094</v>
       </c>
       <c r="O73" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8318030402458712</v>
       </c>
     </row>
     <row r="74" spans="6:15" x14ac:dyDescent="0.3">
@@ -5948,31 +6717,37 @@
         <v>6</v>
       </c>
       <c r="G74" s="63"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="30"/>
+      <c r="H74" s="29">
+        <f>ABS('Forces Input'!C27)</f>
+        <v>125.6237</v>
+      </c>
+      <c r="I74" s="29" cm="1">
+        <f t="array" ref="I74">MAX(ABS('Forces Input'!D27:E27))</f>
+        <v>549.70299999999997</v>
+      </c>
       <c r="J74" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58254993288924783</v>
       </c>
       <c r="K74" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L74" s="28" t="e">
+        <v>0.83226703992904549</v>
+      </c>
+      <c r="L74" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M74" s="28" t="e">
+        <v>77.263491138609453</v>
+      </c>
+      <c r="M74" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.4097763443168407</v>
       </c>
       <c r="N74" s="26">
         <f t="shared" si="13"/>
-        <v>1.5828937607238271</v>
+        <v>1.5810642503916297</v>
       </c>
       <c r="O74" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8291073677727574</v>
       </c>
     </row>
     <row r="75" spans="6:15" x14ac:dyDescent="0.3">
@@ -5980,31 +6755,37 @@
         <v>7</v>
       </c>
       <c r="G75" s="63"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="30"/>
+      <c r="H75" s="29">
+        <f>ABS('Forces Input'!C28)</f>
+        <v>125.62390000000001</v>
+      </c>
+      <c r="I75" s="29" cm="1">
+        <f t="array" ref="I75">MAX(ABS('Forces Input'!D28:E28))</f>
+        <v>549.68150000000003</v>
+      </c>
       <c r="J75" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58254993234197339</v>
       </c>
       <c r="K75" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L75" s="28" t="e">
+        <v>0.83226703904203903</v>
+      </c>
+      <c r="L75" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M75" s="28" t="e">
+        <v>77.263366538925567</v>
+      </c>
+      <c r="M75" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.4099096628034342</v>
       </c>
       <c r="N75" s="26">
         <f t="shared" si="13"/>
-        <v>1.5828937607238271</v>
+        <v>1.5810643658961512</v>
       </c>
       <c r="O75" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.829107613408977</v>
       </c>
     </row>
     <row r="76" spans="6:15" x14ac:dyDescent="0.3">
@@ -6012,31 +6793,37 @@
         <v>8</v>
       </c>
       <c r="G76" s="63"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="30"/>
+      <c r="H76" s="29">
+        <f>ABS('Forces Input'!C29)</f>
+        <v>146.3365</v>
+      </c>
+      <c r="I76" s="29" cm="1">
+        <f t="array" ref="I76">MAX(ABS('Forces Input'!D29:E29))</f>
+        <v>188.44929999999999</v>
+      </c>
       <c r="J76" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.5824932569972332</v>
       </c>
       <c r="K76" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L76" s="28" t="e">
+        <v>0.83217518260375622</v>
+      </c>
+      <c r="L76" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M76" s="28" t="e">
+        <v>66.185899155366798</v>
+      </c>
+      <c r="M76" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>8.9311472915299479</v>
       </c>
       <c r="N76" s="26">
         <f t="shared" si="13"/>
-        <v>1.5828937607238271</v>
+        <v>1.5823184526908287</v>
       </c>
       <c r="O76" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8318030465631017</v>
       </c>
     </row>
     <row r="77" spans="6:15" x14ac:dyDescent="0.3">
@@ -6044,31 +6831,37 @@
         <v>9</v>
       </c>
       <c r="G77" s="63"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="30"/>
+      <c r="H77" s="29">
+        <f>ABS('Forces Input'!C30)</f>
+        <v>125.62390000000001</v>
+      </c>
+      <c r="I77" s="29" cm="1">
+        <f t="array" ref="I77">MAX(ABS('Forces Input'!D30:E30))</f>
+        <v>549.68529999999998</v>
+      </c>
       <c r="J77" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58254993234197339</v>
       </c>
       <c r="K77" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L77" s="28" t="e">
+        <v>0.83226703904203903</v>
+      </c>
+      <c r="L77" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M77" s="28" t="e">
+        <v>77.263366538925567</v>
+      </c>
+      <c r="M77" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.4098860899396182</v>
       </c>
       <c r="N77" s="26">
         <f t="shared" si="13"/>
-        <v>1.5828937607238271</v>
+        <v>1.5810643453852715</v>
       </c>
       <c r="O77" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8291075698389339</v>
       </c>
     </row>
     <row r="78" spans="6:15" x14ac:dyDescent="0.3">
@@ -6076,31 +6869,37 @@
         <v>10</v>
       </c>
       <c r="G78" s="63"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="30"/>
+      <c r="H78" s="29">
+        <f>ABS('Forces Input'!C31)</f>
+        <v>146.33510000000001</v>
+      </c>
+      <c r="I78" s="29" cm="1">
+        <f t="array" ref="I78">MAX(ABS('Forces Input'!D31:E31))</f>
+        <v>188.4452</v>
+      </c>
       <c r="J78" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58249326082787922</v>
       </c>
       <c r="K78" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L78" s="28" t="e">
+        <v>0.83217518881217867</v>
+      </c>
+      <c r="L78" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M78" s="28" t="e">
+        <v>66.18654192841862</v>
+      </c>
+      <c r="M78" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>8.9313643843712356</v>
       </c>
       <c r="N78" s="26">
         <f t="shared" si="13"/>
-        <v>1.5828937607238271</v>
+        <v>1.5823184641251276</v>
       </c>
       <c r="O78" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8318030689553997</v>
       </c>
     </row>
     <row r="79" spans="6:15" x14ac:dyDescent="0.3">
@@ -6108,31 +6907,37 @@
         <v>11</v>
       </c>
       <c r="G79" s="63"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="30"/>
+      <c r="H79" s="29">
+        <f>ABS('Forces Input'!C32)</f>
+        <v>195.53460000000001</v>
+      </c>
+      <c r="I79" s="29" cm="1">
+        <f t="array" ref="I79">MAX(ABS('Forces Input'!D32:E32))</f>
+        <v>465.87509999999997</v>
+      </c>
       <c r="J79" s="27">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58235865379621399</v>
       </c>
       <c r="K79" s="27">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L79" s="28" t="e">
+        <v>0.83195703531017018</v>
+      </c>
+      <c r="L79" s="28">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M79" s="28" t="e">
+        <v>49.281379007855037</v>
+      </c>
+      <c r="M79" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.0026962820844361</v>
       </c>
       <c r="N79" s="26">
         <f t="shared" si="13"/>
-        <v>1.5828937607238271</v>
+        <v>1.5812915081406544</v>
       </c>
       <c r="O79" s="47">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8296870602614368</v>
       </c>
     </row>
     <row r="80" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6140,31 +6945,37 @@
         <v>12</v>
       </c>
       <c r="G80" s="64"/>
-      <c r="H80" s="51"/>
-      <c r="I80" s="52"/>
+      <c r="H80" s="51">
+        <f>ABS('Forces Input'!C33)</f>
+        <v>195.53479999999999</v>
+      </c>
+      <c r="I80" s="51" cm="1">
+        <f t="array" ref="I80">MAX(ABS('Forces Input'!D33:E33))</f>
+        <v>465.87450000000001</v>
+      </c>
       <c r="J80" s="53">
         <f t="shared" si="6"/>
-        <v>0.58289376072382715</v>
+        <v>0.58235865324907188</v>
       </c>
       <c r="K80" s="53">
         <f t="shared" si="7"/>
-        <v>0.83282435452232573</v>
-      </c>
-      <c r="L80" s="54" t="e">
+        <v>0.83195703442346391</v>
+      </c>
+      <c r="L80" s="54">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M80" s="54" t="e">
+        <v>49.28132757825886</v>
+      </c>
+      <c r="M80" s="54">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.0027013781608574</v>
       </c>
       <c r="N80" s="55">
         <f t="shared" si="13"/>
-        <v>1.5828937607238271</v>
+        <v>1.581291510340588</v>
       </c>
       <c r="O80" s="56">
         <f t="shared" si="10"/>
-        <v>1.8328243545223257</v>
+        <v>1.8296870652141519</v>
       </c>
     </row>
     <row r="84" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6173,20 +6984,20 @@
       <c r="G85" s="41"/>
       <c r="H85" s="41"/>
       <c r="I85" s="41"/>
-      <c r="J85" s="65" t="s">
+      <c r="J85" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="K85" s="66"/>
+      <c r="K85" s="69"/>
       <c r="L85" s="57" t="s">
         <v>59</v>
       </c>
       <c r="M85" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="N85" s="65" t="s">
+      <c r="N85" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="O85" s="67"/>
+      <c r="O85" s="70"/>
     </row>
     <row r="86" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F86" s="42" t="s">
@@ -6224,7 +7035,7 @@
       <c r="F87" s="44">
         <v>1</v>
       </c>
-      <c r="G87" s="68" t="s">
+      <c r="G87" s="71" t="s">
         <v>73</v>
       </c>
       <c r="H87" s="35"/>
@@ -6578,7 +7389,7 @@
       <c r="F98" s="48">
         <v>12</v>
       </c>
-      <c r="G98" s="69"/>
+      <c r="G98" s="72"/>
       <c r="H98" s="33"/>
       <c r="I98" s="33"/>
       <c r="J98" s="15">
@@ -6610,7 +7421,7 @@
       <c r="F99" s="44">
         <v>1</v>
       </c>
-      <c r="G99" s="68" t="s">
+      <c r="G99" s="71" t="s">
         <v>74</v>
       </c>
       <c r="H99" s="35"/>
@@ -6964,7 +7775,7 @@
       <c r="F110" s="48">
         <v>12</v>
       </c>
-      <c r="G110" s="69"/>
+      <c r="G110" s="72"/>
       <c r="H110" s="33"/>
       <c r="I110" s="31"/>
       <c r="J110" s="15">
@@ -7380,12 +8191,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G27:G38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="G3:G14"/>
-    <mergeCell ref="G15:G26"/>
     <mergeCell ref="G111:G122"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="N43:O43"/>
@@ -7396,6 +8201,12 @@
     <mergeCell ref="N85:O85"/>
     <mergeCell ref="G87:G98"/>
     <mergeCell ref="G99:G110"/>
+    <mergeCell ref="G27:G38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="G3:G14"/>
+    <mergeCell ref="G15:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos/Tornillos.xlsx
+++ b/Documentos/Tornillos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. EUE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. EUE\Micro-Satellite-Design-Analysis\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08997B78-EAF9-4A87-ACD6-B5C5DD7D602B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7314CC64-1E82-400E-92E6-B6C24416CE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5BA9392F-C683-4373-9077-1D6BAC03E8AC}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="76">
   <si>
     <t>FORCES CBUSH</t>
   </si>
@@ -353,6 +353,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -761,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -782,13 +787,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -882,6 +880,87 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -926,6 +1005,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1434,16 +1530,16 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="F1" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -1486,24 +1582,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193B3275-13AE-426A-BEAE-42C8E90F0CB9}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:AK46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.21875" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" customWidth="1"/>
+    <col min="26" max="26" width="5.33203125" customWidth="1"/>
+    <col min="27" max="27" width="25" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
@@ -1517,8 +1644,34 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="6"/>
+      <c r="AA2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="6"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -1550,8 +1703,70 @@
       <c r="K3" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="8"/>
+      <c r="W3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>13700000</v>
       </c>
@@ -1585,8 +1800,70 @@
         <f>H4/(A4*B4*C4*D4*F4)-1</f>
         <v>20.033158392149765</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N4" s="11"/>
+      <c r="O4" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P4" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R4" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S4" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="T4" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="U4" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="V4" s="12"/>
+      <c r="W4" s="13" t="e">
+        <f>T4/(N4*O4*P4*Q4*R4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X4" s="14" t="e">
+        <f>U4/(N4*O4*P4*Q4*S4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC4" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="AG4" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="AH4" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="13" t="e">
+        <f>AG4/(AA4*AB4*AC4*AD4*AE4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK4" s="14" t="e">
+        <f>AH4/(AA4*AB4*AC4*AD4*AF4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
@@ -1600,8 +1877,34 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="6"/>
+      <c r="AA7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="6"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>51</v>
       </c>
@@ -1633,8 +1936,70 @@
       <c r="K8" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK8" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>27400000</v>
       </c>
@@ -1668,8 +2033,70 @@
         <f>H9/(A9*B9*C9*D9*F9)-1</f>
         <v>9.5165791960748827</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N9" s="11"/>
+      <c r="O9" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R9" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S9" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="T9" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="U9" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="V9" s="12"/>
+      <c r="W9" s="13" t="e">
+        <f>T9/(N9*O9*P9*Q9*R9)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X9" s="14" t="e">
+        <f>U9/(N9*O9*P9*Q9*S9)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="AG9" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="AH9" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="13" t="e">
+        <f>AG9/(AA9*AB9*AC9*AD9*AE9)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK9" s="14" t="e">
+        <f>AH9/(AA9*AB9*AC9*AD9*AF9)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
@@ -1683,8 +2110,34 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="6"/>
+      <c r="AA12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="6"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
@@ -1716,8 +2169,70 @@
       <c r="K13" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="8"/>
+      <c r="W13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK13" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>27400000</v>
       </c>
@@ -1751,13 +2266,81 @@
         <f>H14/(A14*B14*C14*D14*F14)-1</f>
         <v>9.5165791960748827</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N14" s="11"/>
+      <c r="O14" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P14" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R14" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S14" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="T14" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="U14" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="V14" s="12"/>
+      <c r="W14" s="13" t="e">
+        <f>T14/(N14*O14*P14*Q14*R14)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" s="14" t="e">
+        <f>U14/(N14*O14*P14*Q14*S14)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="AG14" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="AH14" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="13" t="e">
+        <f>AG14/(AA14*AB14*AC14*AD14*AE14)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="14" t="e">
+        <f>AH14/(AA14*AB14*AC14*AD14*AF14)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
@@ -1771,8 +2354,34 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="6"/>
+      <c r="AA18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="6"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
@@ -1804,8 +2413,70 @@
       <c r="K19" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V19" s="8"/>
+      <c r="W19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK19" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>13700000</v>
       </c>
@@ -1839,8 +2510,70 @@
         <f>H20/(A20*B20*C20*D20*F20)-1</f>
         <v>20.033158392149765</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N20" s="11"/>
+      <c r="O20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P20" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S20" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="T20" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="U20" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="V20" s="12"/>
+      <c r="W20" s="13" t="e">
+        <f>T20/(N20*O20*P20*Q20*R20)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X20" s="14" t="e">
+        <f>U20/(N20*O20*P20*Q20*S20)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF20" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="AG20" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="AH20" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="13" t="e">
+        <f>AG20/(AA20*AB20*AC20*AD20*AE20)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK20" s="14" t="e">
+        <f>AH20/(AA20*AB20*AC20*AD20*AF20)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -1854,8 +2587,34 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="6"/>
+      <c r="AA23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="6"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>51</v>
       </c>
@@ -1887,8 +2646,70 @@
       <c r="K24" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" s="8"/>
+      <c r="W24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK24" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>27400000</v>
       </c>
@@ -1922,8 +2743,70 @@
         <f>H25/(A25*B25*C25*D25*F25)-1</f>
         <v>9.5165791960748827</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N25" s="11"/>
+      <c r="O25" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P25" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R25" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S25" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="T25" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="U25" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="V25" s="12"/>
+      <c r="W25" s="13" t="e">
+        <f>T25/(N25*O25*P25*Q25*R25)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X25" s="14" t="e">
+        <f>U25/(N25*O25*P25*Q25*S25)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC25" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="AD25" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE25" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF25" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="AG25" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="AH25" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="13" t="e">
+        <f>AG25/(AA25*AB25*AC25*AD25*AE25)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK25" s="14" t="e">
+        <f>AH25/(AA25*AB25*AC25*AD25*AF25)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -1937,8 +2820,34 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="6"/>
+      <c r="AA28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="6"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>52</v>
       </c>
@@ -1970,8 +2879,70 @@
       <c r="K29" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V29" s="8"/>
+      <c r="W29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK29" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>27400000</v>
       </c>
@@ -2005,13 +2976,81 @@
         <f>H30/(A30*B30*C30*D30*F30)-1</f>
         <v>9.5165791960748827</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N30" s="11"/>
+      <c r="O30" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P30" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R30" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S30" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="T30" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="U30" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="V30" s="12"/>
+      <c r="W30" s="13" t="e">
+        <f>T30/(N30*O30*P30*Q30*R30)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X30" s="14" t="e">
+        <f>U30/(N30*O30*P30*Q30*S30)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC30" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="AD30" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE30" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF30" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="AG30" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="AH30" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="13" t="e">
+        <f>AG30/(AA30*AB30*AC30*AD30*AE30)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK30" s="14" t="e">
+        <f>AH30/(AA30*AB30*AC30*AD30*AF30)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N33" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA33" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -2025,8 +3064,34 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="6"/>
+      <c r="AA34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="6"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
@@ -2058,8 +3123,70 @@
       <c r="K35" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V35" s="8"/>
+      <c r="W35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK35" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>9530000</v>
       </c>
@@ -2093,8 +3220,70 @@
         <f>H36/(A36*B36*C36*D36*F36)-1</f>
         <v>29.236544593121902</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N36" s="11"/>
+      <c r="O36" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P36" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R36" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S36" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="T36" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="U36" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="V36" s="12"/>
+      <c r="W36" s="13" t="e">
+        <f>T36/(N36*O36*P36*Q36*R36)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X36" s="14" t="e">
+        <f>U36/(N36*O36*P36*Q36*S36)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC36" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="AD36" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE36" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF36" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="AG36" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="AH36" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="13" t="e">
+        <f>AG36/(AA36*AB36*AC36*AD36*AE36)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK36" s="14" t="e">
+        <f>AH36/(AA36*AB36*AC36*AD36*AF36)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
@@ -2108,8 +3297,34 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="6"/>
+      <c r="AA39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="6"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -2141,8 +3356,70 @@
       <c r="K40" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T40" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V40" s="8"/>
+      <c r="W40" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X40" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG40" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK40" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>21700000</v>
       </c>
@@ -2176,8 +3453,70 @@
         <f>H41/(A41*B41*C41*D41*F41)-1</f>
         <v>12.278998616242015</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N41" s="11"/>
+      <c r="O41" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P41" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R41" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S41" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="T41" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="U41" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="V41" s="12"/>
+      <c r="W41" s="13" t="e">
+        <f>T41/(N41*O41*P41*Q41*R41)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X41" s="14" t="e">
+        <f>U41/(N41*O41*P41*Q41*S41)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC41" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="AD41" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE41" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF41" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="AG41" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="AH41" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="13" t="e">
+        <f>AG41/(AA41*AB41*AC41*AD41*AE41)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK41" s="14" t="e">
+        <f>AH41/(AA41*AB41*AC41*AD41*AF41)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
@@ -2191,8 +3530,34 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="6"/>
+      <c r="AA44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="6"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
@@ -2224,8 +3589,70 @@
       <c r="K45" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T45" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V45" s="8"/>
+      <c r="W45" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB45" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG45" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK45" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>32900000</v>
       </c>
@@ -2258,6 +3685,68 @@
       <c r="K46" s="14">
         <f>H46/(A46*B46*C46*D46*F46)-1</f>
         <v>7.7584884490106916</v>
+      </c>
+      <c r="N46" s="11"/>
+      <c r="O46" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P46" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R46" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S46" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="T46" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="U46" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="V46" s="12"/>
+      <c r="W46" s="13" t="e">
+        <f>T46/(N46*O46*P46*Q46*R46)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X46" s="14" t="e">
+        <f>U46/(N46*O46*P46*Q46*S46)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC46" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="AD46" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE46" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF46" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="AG46" s="15">
+        <v>448000000</v>
+      </c>
+      <c r="AH46" s="15">
+        <v>523000000</v>
+      </c>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="13" t="e">
+        <f>AG46/(AA46*AB46*AC46*AD46*AE46)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK46" s="14" t="e">
+        <f>AH46/(AA46*AB46*AC46*AD46*AF46)-1</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -2271,48 +3760,48 @@
   <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="P1" s="62" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="P1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="59" t="s">
+      <c r="Q1" s="80"/>
+      <c r="R1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="61"/>
-      <c r="AE1" s="62" t="s">
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="81"/>
+      <c r="AE1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="59" t="s">
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="61"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="81"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3298,42 +4787,42 @@
     </row>
     <row r="18" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="59" t="s">
+      <c r="B19" s="80"/>
+      <c r="C19" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
-      <c r="P19" s="62" t="s">
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
+      <c r="P19" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="59" t="s">
+      <c r="Q19" s="80"/>
+      <c r="R19" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="61"/>
-      <c r="AE19" s="62" t="s">
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="81"/>
+      <c r="AE19" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="59" t="s">
+      <c r="AF19" s="80"/>
+      <c r="AG19" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="60"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="61"/>
+      <c r="AH19" s="80"/>
+      <c r="AI19" s="80"/>
+      <c r="AJ19" s="80"/>
+      <c r="AK19" s="80"/>
+      <c r="AL19" s="81"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -3981,8 +5470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9C43A2-57CD-49BE-9D02-459CD6B79BFF}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3991,416 +5480,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="68" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="57" t="s">
+      <c r="K1" s="89"/>
+      <c r="L1" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="70"/>
+      <c r="O1" s="90"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="69">
         <v>3.6609999999999997E-5</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="73">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="37">
         <v>1</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="55">
         <f>ABS('Forces Input'!AG4)</f>
         <v>291.95319999999998</v>
       </c>
-      <c r="I3" s="35" cm="1">
-        <f t="array" ref="I3">MAX(ABS('Forces Input'!AH4:AI4))</f>
-        <v>221.09309999999999</v>
-      </c>
-      <c r="J3" s="36">
+      <c r="I3" s="55">
+        <f>SQRT( (('Forces Input'!AH4)^2) + (('Forces Input'!AI4)^2) )</f>
+        <v>234.67895855734938</v>
+      </c>
+      <c r="J3" s="59">
         <f xml:space="preserve"> (   ($D$2*$B$4*1000000) / ($D$7 + ($D$3*H3*$D$4) ) ) -1</f>
         <v>0.58209492439578003</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="59">
         <f xml:space="preserve"> (   ($D$2*$B$5*1000000) / ($D$7 + ($D$3*H3*$D$5) ) ) -1</f>
         <v>0.83152966014703633</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="51">
         <f xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H3*$D$5) ) -1</f>
         <v>32.675771773521696</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="59">
         <f xml:space="preserve"> (( ($D$8 - (1-$D$3)*H3)*$D$6) / (I3*$D$5) ) -1</f>
-        <v>7.3743267439308227</v>
-      </c>
-      <c r="N3" s="35">
+        <v>6.8895264901906934</v>
+      </c>
+      <c r="N3" s="59">
         <f>1/(SQRT(      (((I3*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H3*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
-        <v>1.5818545111352653</v>
-      </c>
-      <c r="O3" s="45">
+        <v>1.5818240650619413</v>
+      </c>
+      <c r="O3" s="60">
         <f>1/(SQRT(      (((I3*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H3*$D$5))/($D$2*$B$5*1000000))^2)     )    )</f>
-        <v>1.8310180322014349</v>
+        <v>1.8309532532938202</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="71">
         <v>950</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="73">
         <v>1</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="39">
         <v>2</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="26">
+      <c r="G4" s="83"/>
+      <c r="H4" s="56">
         <f>ABS('Forces Input'!AG5)</f>
         <v>291.95209999999997</v>
       </c>
-      <c r="I4" s="26" cm="1">
-        <f t="array" ref="I4">MAX(ABS('Forces Input'!AH5:AI5))</f>
-        <v>221.09440000000001</v>
-      </c>
-      <c r="J4" s="27">
+      <c r="I4" s="56">
+        <f>SQRT( (('Forces Input'!AH5)^2) + (('Forces Input'!AI5)^2) )</f>
+        <v>234.68086062441671</v>
+      </c>
+      <c r="J4" s="61">
         <f t="shared" ref="J4:J38" si="0" xml:space="preserve"> (   ($D$2*$B$4*1000000) / ($D$7 + ($D$3*H4*$D$4) ) ) -1</f>
         <v>0.58209492740405855</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="61">
         <f t="shared" ref="K4:K38" si="1" xml:space="preserve"> (   ($D$2*$B$5*1000000) / ($D$7 + ($D$3*H4*$D$5) ) ) -1</f>
         <v>0.83152966502164549</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="52">
         <f xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H4*$D$5) ) -1</f>
         <v>32.675898655119568</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="61">
         <f t="shared" ref="M4:M38" si="2" xml:space="preserve"> (( ($D$8 - (1-$D$3)*H4)*$D$6) / (I4*$D$5) ) -1</f>
-        <v>7.3742781879595327</v>
-      </c>
-      <c r="N4" s="26">
+        <v>6.8894631904522905</v>
+      </c>
+      <c r="N4" s="61">
         <f t="shared" ref="N4:N38" si="3">1/(SQRT(      (((I4*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H4*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
-        <v>1.5818545113156082</v>
-      </c>
-      <c r="O4" s="47">
+        <v>1.5818240636791683</v>
+      </c>
+      <c r="O4" s="62">
         <f t="shared" ref="O4:O38" si="4">1/(SQRT(      (((I4*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H4*$D$5))/($D$2*$B$5*1000000))^2)     )    )</f>
-        <v>1.8310180310578457</v>
+        <v>1.8309532488246747</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="71">
         <v>1100</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="73">
         <v>1.4</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="39">
         <v>3</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="26">
+      <c r="G5" s="83"/>
+      <c r="H5" s="56">
         <f>ABS('Forces Input'!AG6)</f>
         <v>315.58600000000001</v>
       </c>
-      <c r="I5" s="26" cm="1">
-        <f t="array" ref="I5">MAX(ABS('Forces Input'!AH6:AI6))</f>
-        <v>503.98829999999998</v>
-      </c>
-      <c r="J5" s="27">
+      <c r="I5" s="56">
+        <f>SQRT( (('Forces Input'!AH6)^2) + (('Forces Input'!AI6)^2) )</f>
+        <v>507.80748700923078</v>
+      </c>
+      <c r="J5" s="61">
         <f t="shared" si="0"/>
         <v>0.58203029608936685</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="61">
         <f t="shared" si="1"/>
         <v>0.83142493825560471</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="52">
         <f t="shared" ref="L5:L38" si="5" xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H5*$D$5) ) -1</f>
         <v>30.153946410009734</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="61">
         <f t="shared" si="2"/>
-        <v>2.6672637803014769</v>
-      </c>
-      <c r="N5" s="26">
+        <v>2.639682528454169</v>
+      </c>
+      <c r="N5" s="61">
         <f t="shared" si="3"/>
-        <v>1.5807823936485845</v>
-      </c>
-      <c r="O5" s="47">
+        <v>1.5807634317562147</v>
+      </c>
+      <c r="O5" s="62">
         <f t="shared" si="4"/>
-        <v>1.8287715080507703</v>
+        <v>1.8287312296886904</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="71">
         <v>548</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="73">
         <v>0.2</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="39">
         <v>4</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="26">
+      <c r="G6" s="83"/>
+      <c r="H6" s="56">
         <f>ABS('Forces Input'!AG7)</f>
         <v>722.70270000000005</v>
       </c>
-      <c r="I6" s="26" cm="1">
-        <f t="array" ref="I6">MAX(ABS('Forces Input'!AH7:AI7))</f>
-        <v>60.244639999999997</v>
-      </c>
-      <c r="J6" s="27">
+      <c r="I6" s="52">
+        <f>SQRT( (('Forces Input'!AH7)^2) + (('Forces Input'!AI7)^2) )</f>
+        <v>60.259801970379961</v>
+      </c>
+      <c r="J6" s="61">
         <f t="shared" si="0"/>
         <v>0.58091778778355496</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="61">
         <f t="shared" si="1"/>
         <v>0.82962279702700648</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="52">
         <f xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H6*$D$5) ) -1</f>
         <v>12.604140861448743</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="52">
         <f t="shared" si="2"/>
-        <v>28.750506796953221</v>
-      </c>
-      <c r="N6" s="26">
+        <v>28.743021271145061</v>
+      </c>
+      <c r="N6" s="61">
         <f t="shared" si="3"/>
-        <v>1.5808999735650928</v>
-      </c>
-      <c r="O6" s="47">
+        <v>1.580899964597388</v>
+      </c>
+      <c r="O6" s="62">
         <f t="shared" si="4"/>
-        <v>1.8295849133569899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+        <v>1.8295848942865629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="71">
         <v>655</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="73">
         <v>21972.1</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="39">
         <v>5</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="26">
+      <c r="G7" s="83"/>
+      <c r="H7" s="56">
         <f>ABS('Forces Input'!AG8)</f>
         <v>315.58190000000002</v>
       </c>
-      <c r="I7" s="26" cm="1">
-        <f t="array" ref="I7">MAX(ABS('Forces Input'!AH8:AI8))</f>
-        <v>503.98599999999999</v>
-      </c>
-      <c r="J7" s="27">
+      <c r="I7" s="56">
+        <f>SQRT( (('Forces Input'!AH8)^2) + (('Forces Input'!AI8)^2) )</f>
+        <v>507.80498029119957</v>
+      </c>
+      <c r="J7" s="61">
         <f t="shared" si="0"/>
         <v>0.58203030730112482</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="61">
         <f t="shared" si="1"/>
         <v>0.83142495642252578</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="52">
         <f t="shared" si="5"/>
         <v>30.154351158128307</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="61">
         <f t="shared" si="2"/>
-        <v>2.6672816342970989</v>
-      </c>
-      <c r="N7" s="26">
+        <v>2.6397016049015076</v>
+      </c>
+      <c r="N7" s="61">
         <f t="shared" si="3"/>
-        <v>1.5807824162101833</v>
-      </c>
-      <c r="O7" s="47">
+        <v>1.580763455433394</v>
+      </c>
+      <c r="O7" s="62">
         <f t="shared" si="4"/>
-        <v>1.8287715503045594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+        <v>1.8287312743110629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="75">
         <v>33.5</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="77">
         <v>13241.4</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="39">
         <v>6</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="26">
+      <c r="G8" s="83"/>
+      <c r="H8" s="56">
         <f>ABS('Forces Input'!AG9)</f>
         <v>722.70249999999999</v>
       </c>
-      <c r="I8" s="26" cm="1">
-        <f t="array" ref="I8">MAX(ABS('Forces Input'!AH9:AI9))</f>
-        <v>60.245510000000003</v>
-      </c>
-      <c r="J8" s="27">
+      <c r="I8" s="52">
+        <f>SQRT( (('Forces Input'!AH9)^2) + (('Forces Input'!AI9)^2) )</f>
+        <v>60.260750653341518</v>
+      </c>
+      <c r="J8" s="61">
         <f t="shared" si="0"/>
         <v>0.58091778832970142</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="61">
         <f t="shared" si="1"/>
         <v>0.82962279791145455</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="52">
         <f t="shared" si="5"/>
         <v>12.6041446262457</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="52">
         <f t="shared" si="2"/>
-        <v>28.750077628784528</v>
-      </c>
-      <c r="N8" s="26">
+        <v>28.742553483879135</v>
+      </c>
+      <c r="N8" s="61">
         <f t="shared" si="3"/>
-        <v>1.5808999735967111</v>
-      </c>
-      <c r="O8" s="47">
+        <v>1.5808999645823325</v>
+      </c>
+      <c r="O8" s="62">
         <f t="shared" si="4"/>
-        <v>1.8295849131472444</v>
+        <v>1.8295848939775619</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="46">
+      <c r="F9" s="39">
         <v>7</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="26">
+      <c r="G9" s="83"/>
+      <c r="H9" s="56">
         <f>ABS('Forces Input'!AG10)</f>
         <v>722.6979</v>
       </c>
-      <c r="I9" s="26" cm="1">
-        <f t="array" ref="I9">MAX(ABS('Forces Input'!AH10:AI10))</f>
-        <v>60.24165</v>
-      </c>
-      <c r="J9" s="27">
+      <c r="I9" s="52">
+        <f>SQRT( (('Forces Input'!AH10)^2) + (('Forces Input'!AI10)^2) )</f>
+        <v>60.256987634972958</v>
+      </c>
+      <c r="J9" s="61">
         <f t="shared" si="0"/>
         <v>0.5809178008910616</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="61">
         <f t="shared" si="1"/>
         <v>0.82962281825376039</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="52">
         <f t="shared" si="5"/>
         <v>12.604231217150806</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="52">
         <f t="shared" si="2"/>
-        <v>28.751994366972735</v>
-      </c>
-      <c r="N9" s="26">
+        <v>28.744421382540079</v>
+      </c>
+      <c r="N9" s="61">
         <f t="shared" si="3"/>
-        <v>1.5808999884403563</v>
-      </c>
-      <c r="O9" s="47">
+        <v>1.5808999793691896</v>
+      </c>
+      <c r="O9" s="62">
         <f t="shared" si="4"/>
-        <v>1.8295849383426226</v>
+        <v>1.829584919052176</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -4409,1081 +5898,1081 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="46">
+      <c r="F10" s="39">
         <v>8</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="26">
+      <c r="G10" s="83"/>
+      <c r="H10" s="56">
         <f>ABS('Forces Input'!AG11)</f>
         <v>315.58210000000003</v>
       </c>
-      <c r="I10" s="26" cm="1">
-        <f t="array" ref="I10">MAX(ABS('Forces Input'!AH11:AI11))</f>
-        <v>503.988</v>
-      </c>
-      <c r="J10" s="27">
+      <c r="I10" s="56">
+        <f>SQRT( (('Forces Input'!AH11)^2) + (('Forces Input'!AI11)^2) )</f>
+        <v>507.80703012823295</v>
+      </c>
+      <c r="J10" s="61">
         <f t="shared" si="0"/>
         <v>0.58203030675420986</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="61">
         <f t="shared" si="1"/>
         <v>0.83142495553633444</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="52">
         <f t="shared" si="5"/>
         <v>30.154331414073646</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="61">
         <f t="shared" si="2"/>
-        <v>2.6672670267092529</v>
-      </c>
-      <c r="N10" s="26">
+        <v>2.6396868585896005</v>
+      </c>
+      <c r="N10" s="61">
         <f t="shared" si="3"/>
-        <v>1.5807824057720852</v>
-      </c>
-      <c r="O10" s="47">
+        <v>1.5807634446723478</v>
+      </c>
+      <c r="O10" s="62">
         <f t="shared" si="4"/>
-        <v>1.8287715284085539</v>
+        <v>1.8287312517297198</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F11" s="46">
+      <c r="F11" s="39">
         <v>9</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="26">
+      <c r="G11" s="83"/>
+      <c r="H11" s="56">
         <f>ABS('Forces Input'!AG12)</f>
         <v>722.69820000000004</v>
       </c>
-      <c r="I11" s="26" cm="1">
-        <f t="array" ref="I11">MAX(ABS('Forces Input'!AH12:AI12))</f>
-        <v>60.241540000000001</v>
-      </c>
-      <c r="J11" s="27">
+      <c r="I11" s="52">
+        <f>SQRT( (('Forces Input'!AH12)^2) + (('Forces Input'!AI12)^2) )</f>
+        <v>60.256865256779534</v>
+      </c>
+      <c r="J11" s="61">
         <f t="shared" si="0"/>
         <v>0.58091780007184246</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="61">
         <f t="shared" si="1"/>
         <v>0.82962281692708828</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="52">
         <f t="shared" si="5"/>
         <v>12.604225569884266</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="52">
         <f t="shared" si="2"/>
-        <v>28.752048009207126</v>
-      </c>
-      <c r="N11" s="26">
+        <v>28.744481107518581</v>
+      </c>
+      <c r="N11" s="61">
         <f t="shared" si="3"/>
-        <v>1.5808999876862142</v>
-      </c>
-      <c r="O11" s="47">
+        <v>1.5808999786223858</v>
+      </c>
+      <c r="O11" s="62">
         <f t="shared" si="4"/>
-        <v>1.8295849371543638</v>
+        <v>1.8295849178795232</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F12" s="46">
+      <c r="F12" s="39">
         <v>10</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="26">
+      <c r="G12" s="83"/>
+      <c r="H12" s="56">
         <f>ABS('Forces Input'!AG13)</f>
         <v>315.58629999999999</v>
       </c>
-      <c r="I12" s="26" cm="1">
-        <f t="array" ref="I12">MAX(ABS('Forces Input'!AH13:AI13))</f>
-        <v>503.98919999999998</v>
-      </c>
-      <c r="J12" s="27">
+      <c r="I12" s="56">
+        <f>SQRT( (('Forces Input'!AH13)^2) + (('Forces Input'!AI13)^2) )</f>
+        <v>507.808467155019</v>
+      </c>
+      <c r="J12" s="61">
         <f t="shared" si="0"/>
         <v>0.58203029526899441</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="61">
         <f t="shared" si="1"/>
         <v>0.8314249369263178</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="52">
         <f t="shared" si="5"/>
         <v>30.153916794706657</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="61">
         <f t="shared" si="2"/>
-        <v>2.6672571496713484</v>
-      </c>
-      <c r="N12" s="26">
+        <v>2.6396754221369139</v>
+      </c>
+      <c r="N12" s="61">
         <f t="shared" si="3"/>
-        <v>1.5807823883785219</v>
-      </c>
-      <c r="O12" s="47">
+        <v>1.5807634260531975</v>
+      </c>
+      <c r="O12" s="62">
         <f t="shared" si="4"/>
-        <v>1.8287714972710729</v>
+        <v>1.8287312179896449</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F13" s="46">
+      <c r="F13" s="39">
         <v>11</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="26">
+      <c r="G13" s="83"/>
+      <c r="H13" s="56">
         <f>ABS('Forces Input'!AG14)</f>
         <v>291.95339999999999</v>
       </c>
-      <c r="I13" s="26" cm="1">
-        <f t="array" ref="I13">MAX(ABS('Forces Input'!AH14:AI14))</f>
-        <v>221.0943</v>
-      </c>
-      <c r="J13" s="27">
+      <c r="I13" s="56">
+        <f>SQRT( (('Forces Input'!AH14)^2) + (('Forces Input'!AI14)^2) )</f>
+        <v>234.68023997621447</v>
+      </c>
+      <c r="J13" s="61">
         <f t="shared" si="0"/>
         <v>0.58209492384882044</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="61">
         <f t="shared" si="1"/>
         <v>0.83152965926074374</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="52">
         <f t="shared" si="5"/>
         <v>32.675748704242984</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="61">
         <f t="shared" si="2"/>
-        <v>7.3742811675509365</v>
-      </c>
-      <c r="N13" s="26">
+        <v>6.8894832940792661</v>
+      </c>
+      <c r="N13" s="61">
         <f t="shared" si="3"/>
-        <v>1.5818545079794193</v>
-      </c>
-      <c r="O13" s="47">
+        <v>1.5818240615580645</v>
+      </c>
+      <c r="O13" s="62">
         <f t="shared" si="4"/>
-        <v>1.8310180257643958</v>
+        <v>1.8309532461166025</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F14" s="48">
+      <c r="F14" s="41">
         <v>12</v>
       </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="33">
+      <c r="G14" s="92"/>
+      <c r="H14" s="57">
         <f>ABS('Forces Input'!AG15)</f>
         <v>291.95359999999999</v>
       </c>
-      <c r="I14" s="33" cm="1">
-        <f t="array" ref="I14">MAX(ABS('Forces Input'!AH15:AI15))</f>
-        <v>221.09399999999999</v>
-      </c>
-      <c r="J14" s="15">
+      <c r="I14" s="57">
+        <f>SQRT( (('Forces Input'!AH15)^2) + (('Forces Input'!AI15)^2) )</f>
+        <v>234.68138243664771</v>
+      </c>
+      <c r="J14" s="63">
         <f t="shared" si="0"/>
         <v>0.58209492330186063</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="63">
         <f t="shared" si="1"/>
         <v>0.83152965837445092</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="53">
         <f t="shared" si="5"/>
         <v>32.675725634995885</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="63">
         <f t="shared" si="2"/>
-        <v>7.3742924062034394</v>
-      </c>
-      <c r="N14" s="33">
+        <v>6.889444769897576</v>
+      </c>
+      <c r="N14" s="63">
         <f>1/(SQRT(      (((I14*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H14*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
-        <v>1.5818545080849944</v>
-      </c>
-      <c r="O14" s="49">
+        <v>1.581824058374856</v>
+      </c>
+      <c r="O14" s="64">
         <f t="shared" si="4"/>
-        <v>1.8310180262667208</v>
+        <v>1.8309532396216419</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F15" s="44">
+      <c r="F15" s="37">
         <v>1</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="55">
         <f>ABS('Forces Input'!R4)</f>
         <v>291.95310000000001</v>
       </c>
-      <c r="I15" s="37" cm="1">
-        <f t="array" ref="I15">MAX(ABS('Forces Input'!S4:T4))</f>
-        <v>221.09360000000001</v>
-      </c>
-      <c r="J15" s="36">
+      <c r="I15" s="55">
+        <f>SQRT( (('Forces Input'!S4)^2) + (('Forces Input'!T4)^2) )</f>
+        <v>234.67958385331457</v>
+      </c>
+      <c r="J15" s="59">
         <f t="shared" si="0"/>
         <v>0.58209492466925994</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="59">
         <f t="shared" si="1"/>
         <v>0.83152966059018252</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="51">
         <f t="shared" si="5"/>
         <v>32.675783308172896</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="59">
         <f t="shared" si="2"/>
-        <v>7.3743078676697493</v>
-      </c>
-      <c r="N15" s="35">
+        <v>6.8895055273691987</v>
+      </c>
+      <c r="N15" s="59">
         <f t="shared" si="3"/>
-        <v>1.5818545103214823</v>
-      </c>
-      <c r="O15" s="45">
+        <v>1.5818240638922541</v>
+      </c>
+      <c r="O15" s="60">
         <f t="shared" si="4"/>
-        <v>1.8310180303310928</v>
+        <v>1.8309532506663513</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="F16" s="46">
+      <c r="F16" s="39">
         <v>2</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="26">
+      <c r="G16" s="83"/>
+      <c r="H16" s="56">
         <f>ABS('Forces Input'!R5)</f>
         <v>291.95190000000002</v>
       </c>
-      <c r="I16" s="29" cm="1">
-        <f t="array" ref="I16">MAX(ABS('Forces Input'!S5:T5))</f>
-        <v>221.09460000000001</v>
-      </c>
-      <c r="J16" s="27">
+      <c r="I16" s="56">
+        <f>SQRT( (('Forces Input'!S5)^2) + (('Forces Input'!T5)^2) )</f>
+        <v>234.68096186447869</v>
+      </c>
+      <c r="J16" s="61">
         <f t="shared" si="0"/>
         <v>0.58209492795101836</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="61">
         <f t="shared" si="1"/>
         <v>0.83152966590793831</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="52">
         <f t="shared" si="5"/>
         <v>32.675921724603711</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="61">
         <f t="shared" si="2"/>
-        <v>7.3742707369864036</v>
-      </c>
-      <c r="N16" s="26">
+        <v>6.8894599041012308</v>
+      </c>
+      <c r="N16" s="61">
         <f t="shared" si="3"/>
-        <v>1.5818545114274614</v>
-      </c>
-      <c r="O16" s="47">
+        <v>1.581824063992209</v>
+      </c>
+      <c r="O16" s="62">
         <f t="shared" si="4"/>
-        <v>1.8310180310181443</v>
+        <v>1.8309532492130396</v>
       </c>
     </row>
     <row r="17" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F17" s="46">
+      <c r="F17" s="39">
         <v>3</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="26">
+      <c r="G17" s="83"/>
+      <c r="H17" s="56">
         <f>ABS('Forces Input'!R6)</f>
         <v>722.69770000000005</v>
       </c>
-      <c r="I17" s="29" cm="1">
-        <f t="array" ref="I17">MAX(ABS('Forces Input'!S6:T6))</f>
-        <v>60.24174</v>
-      </c>
-      <c r="J17" s="27">
+      <c r="I17" s="52">
+        <f>SQRT( (('Forces Input'!S6)^2) + (('Forces Input'!T6)^2) )</f>
+        <v>60.257063221394688</v>
+      </c>
+      <c r="J17" s="61">
         <f t="shared" si="0"/>
         <v>0.58091780143720761</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="61">
         <f t="shared" si="1"/>
         <v>0.82962281913820846</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="52">
         <f t="shared" si="5"/>
         <v>12.604234981997774</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="52">
         <f t="shared" si="2"/>
-        <v>28.751950374322806</v>
-      </c>
-      <c r="N17" s="26">
+        <v>28.744384527297797</v>
+      </c>
+      <c r="N17" s="61">
         <f t="shared" si="3"/>
-        <v>1.5808999889332618</v>
-      </c>
-      <c r="O17" s="47">
+        <v>1.5808999798706074</v>
+      </c>
+      <c r="O17" s="62">
         <f t="shared" si="4"/>
-        <v>1.829584939113835</v>
+        <v>1.8295849198414906</v>
       </c>
     </row>
     <row r="18" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F18" s="46">
+      <c r="F18" s="39">
         <v>4</v>
       </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="26">
+      <c r="G18" s="83"/>
+      <c r="H18" s="56">
         <f>ABS('Forces Input'!R7)</f>
         <v>315.58159999999998</v>
       </c>
-      <c r="I18" s="29" cm="1">
-        <f t="array" ref="I18">MAX(ABS('Forces Input'!S7:T7))</f>
-        <v>503.9889</v>
-      </c>
-      <c r="J18" s="27">
+      <c r="I18" s="56">
+        <f>SQRT( (('Forces Input'!S7)^2) + (('Forces Input'!T7)^2) )</f>
+        <v>507.80771893464799</v>
+      </c>
+      <c r="J18" s="61">
         <f t="shared" si="0"/>
         <v>0.58203030812149747</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="61">
         <f t="shared" si="1"/>
         <v>0.83142495775181247</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="52">
         <f t="shared" si="5"/>
         <v>30.154380774257223</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="61">
         <f t="shared" si="2"/>
-        <v>2.6672606142147752</v>
-      </c>
-      <c r="N18" s="26">
+        <v>2.6396820569190464</v>
+      </c>
+      <c r="N18" s="61">
         <f t="shared" si="3"/>
-        <v>1.5807824026845123</v>
-      </c>
-      <c r="O18" s="47">
+        <v>1.5807634426036503</v>
+      </c>
+      <c r="O18" s="62">
         <f t="shared" si="4"/>
-        <v>1.8287715211582423</v>
+        <v>1.8287312466438868</v>
       </c>
     </row>
     <row r="19" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F19" s="46">
+      <c r="F19" s="39">
         <v>5</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="26">
+      <c r="G19" s="83"/>
+      <c r="H19" s="56">
         <f>ABS('Forces Input'!R8)</f>
         <v>722.69830000000002</v>
       </c>
-      <c r="I19" s="29" cm="1">
-        <f t="array" ref="I19">MAX(ABS('Forces Input'!S8:T8))</f>
-        <v>60.24194</v>
-      </c>
-      <c r="J19" s="27">
+      <c r="I19" s="52">
+        <f>SQRT( (('Forces Input'!S8)^2) + (('Forces Input'!T8)^2) )</f>
+        <v>60.257278328245427</v>
+      </c>
+      <c r="J19" s="61">
         <f t="shared" si="0"/>
         <v>0.58091779979876912</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="61">
         <f t="shared" si="1"/>
         <v>0.82962281648486425</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="52">
         <f t="shared" si="5"/>
         <v>12.604223687463124</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="52">
         <f t="shared" si="2"/>
-        <v>28.751850230681725</v>
-      </c>
-      <c r="N19" s="26">
+        <v>28.744276977169324</v>
+      </c>
+      <c r="N19" s="61">
         <f t="shared" si="3"/>
-        <v>1.5808999871766072</v>
-      </c>
-      <c r="O19" s="47">
+        <v>1.5808999781049866</v>
+      </c>
+      <c r="O19" s="62">
         <f t="shared" si="4"/>
-        <v>1.829584936209143</v>
+        <v>1.8295849169177318</v>
       </c>
     </row>
     <row r="20" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F20" s="46">
+      <c r="F20" s="39">
         <v>6</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="26">
+      <c r="G20" s="83"/>
+      <c r="H20" s="56">
         <f>ABS('Forces Input'!R9)</f>
         <v>315.58530000000002</v>
       </c>
-      <c r="I20" s="29" cm="1">
-        <f t="array" ref="I20">MAX(ABS('Forces Input'!S9:T9))</f>
-        <v>503.98910000000001</v>
-      </c>
-      <c r="J20" s="27">
+      <c r="I20" s="56">
+        <f>SQRT( (('Forces Input'!S9)^2) + (('Forces Input'!T9)^2) )</f>
+        <v>507.80834587233835</v>
+      </c>
+      <c r="J20" s="61">
         <f t="shared" si="0"/>
         <v>0.58203029800356965</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="61">
         <f t="shared" si="1"/>
         <v>0.83142494135727407</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="52">
         <f t="shared" si="5"/>
         <v>30.154015512602559</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="61">
         <f t="shared" si="2"/>
-        <v>2.6672581499991059</v>
-      </c>
-      <c r="N20" s="26">
+        <v>2.6396765620515459</v>
+      </c>
+      <c r="N20" s="61">
         <f t="shared" si="3"/>
-        <v>1.5807823916012571</v>
-      </c>
-      <c r="O20" s="47">
+        <v>1.5807634293856285</v>
+      </c>
+      <c r="O20" s="62">
         <f t="shared" si="4"/>
-        <v>1.8287715027334857</v>
+        <v>1.8287312236849524</v>
       </c>
     </row>
     <row r="21" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F21" s="46">
+      <c r="F21" s="39">
         <v>7</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="26">
+      <c r="G21" s="83"/>
+      <c r="H21" s="56">
         <f>ABS('Forces Input'!R10)</f>
         <v>315.58589999999998</v>
       </c>
-      <c r="I21" s="29" cm="1">
-        <f t="array" ref="I21">MAX(ABS('Forces Input'!S10:T10))</f>
-        <v>503.98840000000001</v>
-      </c>
-      <c r="J21" s="27">
+      <c r="I21" s="56">
+        <f>SQRT( (('Forces Input'!S10)^2) + (('Forces Input'!T10)^2) )</f>
+        <v>507.80770744840061</v>
+      </c>
+      <c r="J21" s="61">
         <f t="shared" si="0"/>
         <v>0.58203029636282455</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="61">
         <f t="shared" si="1"/>
         <v>0.83142493869870027</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="52">
         <f t="shared" si="5"/>
         <v>30.153956281789945</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21" s="61">
         <f t="shared" si="2"/>
-        <v>2.6672630799212276</v>
-      </c>
-      <c r="N21" s="26">
+        <v>2.6396809755322135</v>
+      </c>
+      <c r="N21" s="61">
         <f t="shared" si="3"/>
-        <v>1.5807823934267704</v>
-      </c>
-      <c r="O21" s="47">
+        <v>1.5807634309304452</v>
+      </c>
+      <c r="O21" s="62">
         <f t="shared" si="4"/>
-        <v>1.8287715074412565</v>
+        <v>1.828731227796313</v>
       </c>
     </row>
     <row r="22" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F22" s="46">
+      <c r="F22" s="39">
         <v>8</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="26">
+      <c r="G22" s="83"/>
+      <c r="H22" s="56">
         <f>ABS('Forces Input'!R11)</f>
         <v>722.70309999999995</v>
       </c>
-      <c r="I22" s="29" cm="1">
-        <f t="array" ref="I22">MAX(ABS('Forces Input'!S11:T11))</f>
-        <v>60.242719999999998</v>
-      </c>
-      <c r="J22" s="27">
+      <c r="I22" s="52">
+        <f>SQRT( (('Forces Input'!S11)^2) + (('Forces Input'!T11)^2) )</f>
+        <v>60.257910438925244</v>
+      </c>
+      <c r="J22" s="61">
         <f t="shared" si="0"/>
         <v>0.58091778669126293</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="61">
         <f t="shared" si="1"/>
         <v>0.82962279525811033</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="52">
         <f t="shared" si="5"/>
         <v>12.604133331861084</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="52">
         <f t="shared" si="2"/>
-        <v>28.75145406496539</v>
-      </c>
-      <c r="N22" s="26">
+        <v>28.7439540099084</v>
+      </c>
+      <c r="N22" s="61">
         <f t="shared" si="3"/>
-        <v>1.5808999736082805</v>
-      </c>
-      <c r="O22" s="47">
+        <v>1.580899964624022</v>
+      </c>
+      <c r="O22" s="62">
         <f t="shared" si="4"/>
-        <v>1.8295849140027995</v>
+        <v>1.8295848948971694</v>
       </c>
     </row>
     <row r="23" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F23" s="46">
+      <c r="F23" s="39">
         <v>9</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="26">
+      <c r="G23" s="83"/>
+      <c r="H23" s="56">
         <f>ABS('Forces Input'!R12)</f>
         <v>315.58190000000002</v>
       </c>
-      <c r="I23" s="29" cm="1">
-        <f t="array" ref="I23">MAX(ABS('Forces Input'!S12:T12))</f>
-        <v>503.98750000000001</v>
-      </c>
-      <c r="J23" s="27">
+      <c r="I23" s="56">
+        <f>SQRT( (('Forces Input'!S12)^2) + (('Forces Input'!T12)^2) )</f>
+        <v>507.80648737207576</v>
+      </c>
+      <c r="J23" s="61">
         <f t="shared" si="0"/>
         <v>0.58203030730112482</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="61">
         <f t="shared" si="1"/>
         <v>0.83142495642252578</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="52">
         <f t="shared" si="5"/>
         <v>30.154351158128307</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="61">
         <f t="shared" si="2"/>
-        <v>2.6672707194977208</v>
-      </c>
-      <c r="N23" s="26">
+        <v>2.6396908029034627</v>
+      </c>
+      <c r="N23" s="61">
         <f t="shared" si="3"/>
-        <v>1.5807824087908295</v>
-      </c>
-      <c r="O23" s="47">
+        <v>1.5807634479228005</v>
+      </c>
+      <c r="O23" s="62">
         <f t="shared" si="4"/>
-        <v>1.8287715345443218</v>
+        <v>1.8287312583574946</v>
       </c>
     </row>
     <row r="24" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F24" s="46">
+      <c r="F24" s="39">
         <v>10</v>
       </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="26">
+      <c r="G24" s="83"/>
+      <c r="H24" s="56">
         <f>ABS('Forces Input'!R13)</f>
         <v>722.70320000000004</v>
       </c>
-      <c r="I24" s="29" cm="1">
-        <f t="array" ref="I24">MAX(ABS('Forces Input'!S13:T13))</f>
-        <v>60.24288</v>
-      </c>
-      <c r="J24" s="27">
+      <c r="I24" s="52">
+        <f>SQRT( (('Forces Input'!S13)^2) + (('Forces Input'!T13)^2) )</f>
+        <v>60.258085759977341</v>
+      </c>
+      <c r="J24" s="61">
         <f t="shared" si="0"/>
         <v>0.58091778641818981</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="61">
         <f t="shared" si="1"/>
         <v>0.8296227948158863</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="52">
         <f t="shared" si="5"/>
         <v>12.604131449465468</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24" s="61">
         <f t="shared" si="2"/>
-        <v>28.7513748194926</v>
-      </c>
-      <c r="N24" s="26">
+        <v>28.743867241732776</v>
+      </c>
+      <c r="N24" s="61">
         <f t="shared" si="3"/>
-        <v>1.5808999732405979</v>
-      </c>
-      <c r="O24" s="47">
+        <v>1.580899964247253</v>
+      </c>
+      <c r="O24" s="62">
         <f t="shared" si="4"/>
-        <v>1.82958491335939</v>
+        <v>1.8295848942344368</v>
       </c>
     </row>
     <row r="25" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F25" s="46">
+      <c r="F25" s="39">
         <v>11</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="26">
+      <c r="G25" s="83"/>
+      <c r="H25" s="56">
         <f>ABS('Forces Input'!R14)</f>
         <v>291.95269999999999</v>
       </c>
-      <c r="I25" s="29" cm="1">
-        <f t="array" ref="I25">MAX(ABS('Forces Input'!S14:T14))</f>
-        <v>221.09520000000001</v>
-      </c>
-      <c r="J25" s="27">
+      <c r="I25" s="56">
+        <f>SQRT( (('Forces Input'!S14)^2) + (('Forces Input'!T14)^2) )</f>
+        <v>234.68207704445626</v>
+      </c>
+      <c r="J25" s="61">
         <f t="shared" si="0"/>
         <v>0.58209492576317934</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="61">
         <f t="shared" si="1"/>
         <v>0.83152966236276771</v>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="52">
         <f t="shared" si="5"/>
         <v>32.675829446856746</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M25" s="61">
         <f t="shared" si="2"/>
-        <v>7.3742475139345274</v>
-      </c>
-      <c r="N25" s="26">
+        <v>6.889421945895438</v>
+      </c>
+      <c r="N25" s="61">
         <f t="shared" si="3"/>
-        <v>1.5818545079360449</v>
-      </c>
-      <c r="O25" s="47">
+        <v>1.5818240592319126</v>
+      </c>
+      <c r="O25" s="62">
         <f t="shared" si="4"/>
-        <v>1.8310180247001842</v>
+        <v>1.8309532401956414</v>
       </c>
     </row>
     <row r="26" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F26" s="48">
+      <c r="F26" s="41">
         <v>12</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="33">
+      <c r="G26" s="92"/>
+      <c r="H26" s="57">
         <f>ABS('Forces Input'!R15)</f>
         <v>291.95400000000001</v>
       </c>
-      <c r="I26" s="31" cm="1">
-        <f t="array" ref="I26">MAX(ABS('Forces Input'!S15:T15))</f>
-        <v>221.0941</v>
-      </c>
-      <c r="J26" s="15">
+      <c r="I26" s="57">
+        <f>SQRT( (('Forces Input'!S15)^2) + (('Forces Input'!T15)^2) )</f>
+        <v>234.68023597436172</v>
+      </c>
+      <c r="J26" s="63">
         <f t="shared" si="0"/>
         <v>0.58209492220794146</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="63">
         <f t="shared" si="1"/>
         <v>0.83152965660186573</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="53">
         <f t="shared" si="5"/>
         <v>32.675679496596487</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="63">
         <f t="shared" si="2"/>
-        <v>7.3742883699099817</v>
-      </c>
-      <c r="N26" s="33">
+        <v>6.8894830772540523</v>
+      </c>
+      <c r="N26" s="63">
         <f t="shared" si="3"/>
-        <v>1.581854506774145</v>
-      </c>
-      <c r="O26" s="49">
+        <v>1.581824059927263</v>
+      </c>
+      <c r="O26" s="64">
         <f t="shared" si="4"/>
-        <v>1.8310180240329959</v>
+        <v>1.8309532434798836</v>
       </c>
     </row>
     <row r="27" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F27" s="46">
+      <c r="F27" s="39">
         <v>1</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="29" cm="1">
+      <c r="H27" s="56" cm="1">
         <f t="array" ref="H27:H38">ABS('Forces Input'!C4:C15)</f>
         <v>355.31150000000002</v>
       </c>
-      <c r="I27" s="30" cm="1">
-        <f t="array" ref="I27">MAX(ABS('Forces Input'!D4:E4))</f>
-        <v>11.09775</v>
-      </c>
-      <c r="J27" s="27">
+      <c r="I27" s="52">
+        <f>SQRT( (('Forces Input'!D4)^2) + (('Forces Input'!E4)^2) )</f>
+        <v>15.694539064429385</v>
+      </c>
+      <c r="J27" s="61">
         <f t="shared" si="0"/>
         <v>0.58192167118522553</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="61">
         <f t="shared" si="1"/>
         <v>0.8312489332178612</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="52">
         <f t="shared" si="5"/>
         <v>26.670788397643566</v>
       </c>
-      <c r="M27" s="28">
+      <c r="M27" s="52">
         <f t="shared" si="2"/>
-        <v>165.0515527536148</v>
-      </c>
-      <c r="N27" s="26">
+        <v>116.41654928547776</v>
+      </c>
+      <c r="N27" s="61">
         <f t="shared" si="3"/>
-        <v>1.5819210655181279</v>
-      </c>
-      <c r="O27" s="47">
+        <v>1.5819204598593668</v>
+      </c>
+      <c r="O27" s="62">
         <f t="shared" si="4"/>
-        <v>1.831247644209935</v>
+        <v>1.8312463552209917</v>
       </c>
     </row>
     <row r="28" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F28" s="46">
+      <c r="F28" s="39">
         <v>2</v>
       </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="29">
+      <c r="G28" s="83"/>
+      <c r="H28" s="56">
         <v>355.31119999999999</v>
       </c>
-      <c r="I28" s="30" cm="1">
-        <f t="array" ref="I28">MAX(ABS('Forces Input'!D5:E5))</f>
-        <v>11.09807</v>
-      </c>
-      <c r="J28" s="27">
+      <c r="I28" s="52">
+        <f>SQRT( (('Forces Input'!D5)^2) + (('Forces Input'!E5)^2) )</f>
+        <v>15.69484312151606</v>
+      </c>
+      <c r="J28" s="61">
         <f t="shared" si="0"/>
         <v>0.58192167200548539</v>
       </c>
-      <c r="K28" s="27">
+      <c r="K28" s="61">
         <f t="shared" si="1"/>
         <v>0.83124893454689275</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="52">
         <f t="shared" si="5"/>
         <v>26.670811760927695</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="52">
         <f t="shared" si="2"/>
-        <v>165.04676856426391</v>
-      </c>
-      <c r="N28" s="26">
+        <v>116.41427719489006</v>
+      </c>
+      <c r="N28" s="61">
         <f t="shared" si="3"/>
-        <v>1.5819210663034582</v>
-      </c>
-      <c r="O28" s="47">
+        <v>1.5819204606326895</v>
+      </c>
+      <c r="O28" s="62">
         <f t="shared" si="4"/>
-        <v>1.8312476454646263</v>
+        <v>1.8312463564501271</v>
       </c>
     </row>
     <row r="29" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F29" s="46">
+      <c r="F29" s="39">
         <v>3</v>
       </c>
-      <c r="G29" s="63"/>
-      <c r="H29" s="29">
+      <c r="G29" s="83"/>
+      <c r="H29" s="56">
         <v>673.11210000000005</v>
       </c>
-      <c r="I29" s="30" cm="1">
-        <f t="array" ref="I29">MAX(ABS('Forces Input'!D6:E6))</f>
-        <v>109.3691</v>
-      </c>
-      <c r="J29" s="27">
+      <c r="I29" s="56">
+        <f>SQRT( (('Forces Input'!D6)^2) + (('Forces Input'!E6)^2) )</f>
+        <v>134.76142332333131</v>
+      </c>
+      <c r="J29" s="61">
         <f t="shared" si="0"/>
         <v>0.5810532179461112</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="61">
         <f t="shared" si="1"/>
         <v>0.8298421248689003</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="52">
         <f t="shared" si="5"/>
         <v>13.606407063176153</v>
       </c>
-      <c r="M29" s="28">
+      <c r="M29" s="61">
         <f t="shared" si="2"/>
-        <v>15.450018671766394</v>
-      </c>
-      <c r="N29" s="26">
+        <v>12.350435849862404</v>
+      </c>
+      <c r="N29" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809944941698837</v>
-      </c>
-      <c r="O29" s="47">
+        <v>1.5809640634319075</v>
+      </c>
+      <c r="O29" s="62">
         <f t="shared" si="4"/>
-        <v>1.8297172342854837</v>
+        <v>1.8296525204061402</v>
       </c>
     </row>
     <row r="30" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F30" s="46">
+      <c r="F30" s="39">
         <v>4</v>
       </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="29">
+      <c r="G30" s="83"/>
+      <c r="H30" s="56">
         <v>673.11339999999996</v>
       </c>
-      <c r="I30" s="30" cm="1">
-        <f t="array" ref="I30">MAX(ABS('Forces Input'!D7:E7))</f>
-        <v>109.3682</v>
-      </c>
-      <c r="J30" s="27">
+      <c r="I30" s="56">
+        <f>SQRT( (('Forces Input'!D7)^2) + (('Forces Input'!E7)^2) )</f>
+        <v>134.76181467599827</v>
+      </c>
+      <c r="J30" s="61">
         <f t="shared" si="0"/>
         <v>0.58105321439555357</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K30" s="61">
         <f t="shared" si="1"/>
         <v>0.82984211911860939</v>
       </c>
-      <c r="L30" s="28">
+      <c r="L30" s="52">
         <f t="shared" si="5"/>
         <v>13.60637885347303</v>
       </c>
-      <c r="M30" s="28">
+      <c r="M30" s="61">
         <f t="shared" si="2"/>
-        <v>15.450152406797802</v>
-      </c>
-      <c r="N30" s="26">
+        <v>12.350395754039782</v>
+      </c>
+      <c r="N30" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809944915861416</v>
-      </c>
-      <c r="O30" s="47">
+        <v>1.5809640593641765</v>
+      </c>
+      <c r="O30" s="62">
         <f t="shared" si="4"/>
-        <v>1.8297172305916041</v>
+        <v>1.8296525135565678</v>
       </c>
     </row>
     <row r="31" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F31" s="46">
+      <c r="F31" s="39">
         <v>5</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="29">
+      <c r="G31" s="83"/>
+      <c r="H31" s="56">
         <v>673.11279999999999</v>
       </c>
-      <c r="I31" s="30" cm="1">
-        <f t="array" ref="I31">MAX(ABS('Forces Input'!D8:E8))</f>
-        <v>109.36839999999999</v>
-      </c>
-      <c r="J31" s="27">
+      <c r="I31" s="56">
+        <f>SQRT( (('Forces Input'!D8)^2) + (('Forces Input'!E8)^2) )</f>
+        <v>134.75982694903144</v>
+      </c>
+      <c r="J31" s="61">
         <f t="shared" si="0"/>
         <v>0.58105321603427251</v>
       </c>
-      <c r="K31" s="27">
+      <c r="K31" s="61">
         <f t="shared" si="1"/>
         <v>0.82984212177258954</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L31" s="52">
         <f t="shared" si="5"/>
         <v>13.606391873322469</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M31" s="61">
         <f t="shared" si="2"/>
-        <v>15.450123078643244</v>
-      </c>
-      <c r="N31" s="26">
+        <v>12.350593286193121</v>
+      </c>
+      <c r="N31" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809944930099185</v>
-      </c>
-      <c r="O31" s="47">
+        <v>1.5809640636324369</v>
+      </c>
+      <c r="O31" s="62">
         <f t="shared" si="4"/>
-        <v>1.8297172327883238</v>
+        <v>1.8296525218021489</v>
       </c>
     </row>
     <row r="32" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F32" s="46">
+      <c r="F32" s="39">
         <v>6</v>
       </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="29">
+      <c r="G32" s="83"/>
+      <c r="H32" s="56">
         <v>673.11379999999997</v>
       </c>
-      <c r="I32" s="30" cm="1">
-        <f t="array" ref="I32">MAX(ABS('Forces Input'!D9:E9))</f>
-        <v>109.3676</v>
-      </c>
-      <c r="J32" s="27">
+      <c r="I32" s="56">
+        <f>SQRT( (('Forces Input'!D9)^2) + (('Forces Input'!E9)^2) )</f>
+        <v>134.75948733568853</v>
+      </c>
+      <c r="J32" s="61">
         <f t="shared" si="0"/>
         <v>0.58105321330307391</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K32" s="61">
         <f t="shared" si="1"/>
         <v>0.82984211734928914</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="52">
         <f t="shared" si="5"/>
         <v>13.606370173586297</v>
       </c>
-      <c r="M32" s="28">
+      <c r="M32" s="61">
         <f t="shared" si="2"/>
-        <v>15.450242151109787</v>
-      </c>
-      <c r="N32" s="26">
+        <v>12.350625911807326</v>
+      </c>
+      <c r="N32" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809944911380591</v>
-      </c>
-      <c r="O32" s="47">
+        <v>1.5809640613510145</v>
+      </c>
+      <c r="O32" s="62">
         <f t="shared" si="4"/>
-        <v>1.8297172301927929</v>
+        <v>1.8296525183357097</v>
       </c>
     </row>
     <row r="33" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="F33" s="46">
+      <c r="F33" s="39">
         <v>7</v>
       </c>
-      <c r="G33" s="63"/>
-      <c r="H33" s="29">
+      <c r="G33" s="83"/>
+      <c r="H33" s="56">
         <v>673.1123</v>
       </c>
-      <c r="I33" s="30" cm="1">
-        <f t="array" ref="I33">MAX(ABS('Forces Input'!D10:E10))</f>
-        <v>109.3695</v>
-      </c>
-      <c r="J33" s="27">
+      <c r="I33" s="56">
+        <f>SQRT( (('Forces Input'!D10)^2) + (('Forces Input'!E10)^2) )</f>
+        <v>134.76108775915102</v>
+      </c>
+      <c r="J33" s="61">
         <f t="shared" si="0"/>
         <v>0.58105321739987148</v>
       </c>
-      <c r="K33" s="27">
+      <c r="K33" s="61">
         <f t="shared" si="1"/>
         <v>0.82984212398424018</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L33" s="52">
         <f t="shared" si="5"/>
         <v>13.606402723214735</v>
       </c>
-      <c r="M33" s="28">
+      <c r="M33" s="61">
         <f t="shared" si="2"/>
-        <v>15.449958257362166</v>
-      </c>
-      <c r="N33" s="26">
+        <v>12.350468889387551</v>
+      </c>
+      <c r="N33" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809944931941826</v>
-      </c>
-      <c r="O33" s="47">
+        <v>1.5809640633297226</v>
+      </c>
+      <c r="O33" s="62">
         <f t="shared" si="4"/>
-        <v>1.8297172324875619</v>
+        <v>1.8296525204658605</v>
       </c>
     </row>
     <row r="34" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="F34" s="46">
+      <c r="F34" s="39">
         <v>8</v>
       </c>
-      <c r="G34" s="63"/>
-      <c r="H34" s="29">
+      <c r="G34" s="83"/>
+      <c r="H34" s="56">
         <v>673.11429999999996</v>
       </c>
-      <c r="I34" s="30" cm="1">
-        <f t="array" ref="I34">MAX(ABS('Forces Input'!D11:E11))</f>
-        <v>109.36960000000001</v>
-      </c>
-      <c r="J34" s="27">
+      <c r="I34" s="56">
+        <f>SQRT( (('Forces Input'!D11)^2) + (('Forces Input'!E11)^2) )</f>
+        <v>134.76219134465015</v>
+      </c>
+      <c r="J34" s="61">
         <f t="shared" si="0"/>
         <v>0.58105321193747494</v>
       </c>
-      <c r="K34" s="27">
+      <c r="K34" s="61">
         <f t="shared" si="1"/>
         <v>0.82984211513763873</v>
       </c>
-      <c r="L34" s="28">
+      <c r="L34" s="52">
         <f t="shared" si="5"/>
         <v>13.606359323742391</v>
       </c>
-      <c r="M34" s="28">
+      <c r="M34" s="61">
         <f t="shared" si="2"/>
-        <v>15.449940703554084</v>
-      </c>
-      <c r="N34" s="26">
+        <v>12.350357521051478</v>
+      </c>
+      <c r="N34" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809944876250135</v>
-      </c>
-      <c r="O34" s="47">
+        <v>1.5809640564081664</v>
+      </c>
+      <c r="O34" s="62">
         <f t="shared" si="4"/>
-        <v>1.8297172234144103</v>
+        <v>1.8296525085170763</v>
       </c>
     </row>
     <row r="35" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="F35" s="46">
+      <c r="F35" s="39">
         <v>9</v>
       </c>
-      <c r="G35" s="63"/>
-      <c r="H35" s="29">
+      <c r="G35" s="83"/>
+      <c r="H35" s="56">
         <v>673.11180000000002</v>
       </c>
-      <c r="I35" s="30" cm="1">
-        <f t="array" ref="I35">MAX(ABS('Forces Input'!D12:E12))</f>
-        <v>109.3693</v>
-      </c>
-      <c r="J35" s="27">
+      <c r="I35" s="56">
+        <f>SQRT( (('Forces Input'!D12)^2) + (('Forces Input'!E12)^2) )</f>
+        <v>134.76112992771357</v>
+      </c>
+      <c r="J35" s="61">
         <f t="shared" si="0"/>
         <v>0.58105321876547067</v>
       </c>
-      <c r="K35" s="27">
+      <c r="K35" s="61">
         <f t="shared" si="1"/>
         <v>0.82984212619589037</v>
       </c>
-      <c r="L35" s="28">
+      <c r="L35" s="52">
         <f t="shared" si="5"/>
         <v>13.606413573123115</v>
       </c>
-      <c r="M35" s="28">
+      <c r="M35" s="61">
         <f t="shared" si="2"/>
-        <v>15.449988967131155</v>
-      </c>
-      <c r="N35" s="26">
+        <v>12.350465221743947</v>
+      </c>
+      <c r="N35" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809944947743912</v>
-      </c>
-      <c r="O35" s="47">
+        <v>1.5809640646393004</v>
+      </c>
+      <c r="O35" s="62">
         <f t="shared" si="4"/>
-        <v>1.8297172351554809</v>
+        <v>1.8296525225581826</v>
       </c>
     </row>
     <row r="36" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="F36" s="46">
+      <c r="F36" s="39">
         <v>10</v>
       </c>
-      <c r="G36" s="63"/>
-      <c r="H36" s="29">
+      <c r="G36" s="83"/>
+      <c r="H36" s="56">
         <v>673.11429999999996</v>
       </c>
-      <c r="I36" s="30" cm="1">
-        <f t="array" ref="I36">MAX(ABS('Forces Input'!D13:E13))</f>
-        <v>109.3698</v>
-      </c>
-      <c r="J36" s="27">
+      <c r="I36" s="56">
+        <f>SQRT( (('Forces Input'!D13)^2) + (('Forces Input'!E13)^2) )</f>
+        <v>134.76206153636898</v>
+      </c>
+      <c r="J36" s="61">
         <f t="shared" si="0"/>
         <v>0.58105321193747494</v>
       </c>
-      <c r="K36" s="27">
+      <c r="K36" s="61">
         <f t="shared" si="1"/>
         <v>0.82984211513763873</v>
       </c>
-      <c r="L36" s="28">
+      <c r="L36" s="52">
         <f t="shared" si="5"/>
         <v>13.606359323742391</v>
       </c>
-      <c r="M36" s="28">
+      <c r="M36" s="61">
         <f t="shared" si="2"/>
-        <v>15.449910622232359</v>
-      </c>
-      <c r="N36" s="26">
+        <v>12.35037038065709</v>
+      </c>
+      <c r="N36" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809944874102515</v>
-      </c>
-      <c r="O36" s="47">
+        <v>1.5809640565799079</v>
+      </c>
+      <c r="O36" s="62">
         <f t="shared" si="4"/>
-        <v>1.8297172229576872</v>
+        <v>1.8296525088822928</v>
       </c>
     </row>
     <row r="37" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="F37" s="46">
+      <c r="F37" s="39">
         <v>11</v>
       </c>
-      <c r="G37" s="63"/>
-      <c r="H37" s="29">
+      <c r="G37" s="83"/>
+      <c r="H37" s="56">
         <v>355.31139999999999</v>
       </c>
-      <c r="I37" s="30" cm="1">
-        <f t="array" ref="I37">MAX(ABS('Forces Input'!D14:E14))</f>
-        <v>11.09788</v>
-      </c>
-      <c r="J37" s="27">
+      <c r="I37" s="52">
+        <f>SQRT( (('Forces Input'!D14)^2) + (('Forces Input'!E14)^2) )</f>
+        <v>15.694185521934548</v>
+      </c>
+      <c r="J37" s="61">
         <f t="shared" si="0"/>
         <v>0.58192167145864548</v>
       </c>
-      <c r="K37" s="27">
+      <c r="K37" s="61">
         <f t="shared" si="1"/>
         <v>0.83124893366087194</v>
       </c>
-      <c r="L37" s="28">
+      <c r="L37" s="52">
         <f t="shared" si="5"/>
         <v>26.670796185400562</v>
       </c>
-      <c r="M37" s="28">
+      <c r="M37" s="61">
         <f t="shared" si="2"/>
-        <v>165.04960887253117</v>
-      </c>
-      <c r="N37" s="26">
+        <v>116.4191952005887</v>
+      </c>
+      <c r="N37" s="61">
         <f t="shared" si="3"/>
-        <v>1.5819210657773579</v>
-      </c>
-      <c r="O37" s="47">
+        <v>1.5819204601873593</v>
+      </c>
+      <c r="O37" s="62">
         <f t="shared" si="4"/>
-        <v>1.8312476446227453</v>
+        <v>1.8312463557801448</v>
       </c>
     </row>
     <row r="38" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F38" s="50">
+      <c r="F38" s="43">
         <v>12</v>
       </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="51">
+      <c r="G38" s="84"/>
+      <c r="H38" s="58">
         <v>355.31240000000003</v>
       </c>
-      <c r="I38" s="52" cm="1">
-        <f t="array" ref="I38">MAX(ABS('Forces Input'!D15:E15))</f>
-        <v>11.09839</v>
-      </c>
-      <c r="J38" s="53">
+      <c r="I38" s="54">
+        <f>SQRT( (('Forces Input'!D15)^2) + (('Forces Input'!E15)^2) )</f>
+        <v>15.694030015725724</v>
+      </c>
+      <c r="J38" s="65">
         <f t="shared" si="0"/>
         <v>0.58192166872444595</v>
       </c>
-      <c r="K38" s="53">
+      <c r="K38" s="65">
         <f t="shared" si="1"/>
         <v>0.83124892923076721</v>
       </c>
@@ -5491,23 +6980,23 @@
         <f t="shared" si="5"/>
         <v>26.670718308027901</v>
       </c>
-      <c r="M38" s="54">
+      <c r="M38" s="65">
         <f t="shared" si="2"/>
-        <v>165.04196607667549</v>
-      </c>
-      <c r="N38" s="55">
+        <v>116.42034990625061</v>
+      </c>
+      <c r="N38" s="65">
         <f t="shared" si="3"/>
-        <v>1.5819210629874927</v>
-      </c>
-      <c r="O38" s="56">
+        <v>1.5819204574771699</v>
+      </c>
+      <c r="O38" s="66">
         <f t="shared" si="4"/>
-        <v>1.8312476400741728</v>
+        <v>1.831246351401145</v>
       </c>
     </row>
     <row r="39" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E39" s="8"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="39"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="32"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -5521,8 +7010,8 @@
     </row>
     <row r="40" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E40" s="8"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="39"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -5536,8 +7025,8 @@
     </row>
     <row r="41" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E41" s="8"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="39"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="32"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -5551,8 +7040,8 @@
     </row>
     <row r="42" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E42" s="8"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="39"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="32"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -5566,57 +7055,57 @@
     </row>
     <row r="43" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E43" s="8"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="68" t="s">
+      <c r="F43" s="33"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="K43" s="69"/>
-      <c r="L43" s="57" t="s">
+      <c r="K43" s="89"/>
+      <c r="L43" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="M43" s="57" t="s">
+      <c r="M43" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="N43" s="68" t="s">
+      <c r="N43" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="O43" s="70"/>
+      <c r="O43" s="90"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
     <row r="44" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E44" s="8"/>
-      <c r="F44" s="42" t="s">
+      <c r="F44" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="34" t="s">
+      <c r="H44" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="J44" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="34" t="s">
+      <c r="K44" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="34" t="s">
+      <c r="L44" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="M44" s="34" t="s">
+      <c r="M44" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="N44" s="34" t="s">
+      <c r="N44" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="O44" s="43" t="s">
+      <c r="O44" s="36" t="s">
         <v>62</v>
       </c>
       <c r="P44" s="8"/>
@@ -5624,529 +7113,529 @@
     </row>
     <row r="45" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E45" s="8"/>
-      <c r="F45" s="44">
+      <c r="F45" s="37">
         <v>1</v>
       </c>
-      <c r="G45" s="71" t="s">
+      <c r="G45" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="35">
+      <c r="H45" s="55">
         <f>ABS('Forces Input'!AG22)</f>
         <v>389.44279999999998</v>
       </c>
-      <c r="I45" s="35" cm="1">
-        <f t="array" ref="I45">MAX(ABS('Forces Input'!AH22:AI22))</f>
-        <v>398.78109999999998</v>
-      </c>
-      <c r="J45" s="36">
+      <c r="I45" s="55">
+        <f>SQRT( (('Forces Input'!AH22)^2) + (('Forces Input'!AI22)^2) )</f>
+        <v>563.96100364231745</v>
+      </c>
+      <c r="J45" s="93">
         <f xml:space="preserve"> (   ($D$2*$B$4*1000000) / ($D$7 + ($D$3*H45*$D$4) ) ) -1</f>
         <v>0.5818283549037726</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K45" s="93">
         <f xml:space="preserve"> (   ($D$2*$B$5*1000000) / ($D$7 + ($D$3*H45*$D$5) ) ) -1</f>
         <v>0.83109774047015472</v>
       </c>
-      <c r="L45" s="35">
+      <c r="L45" s="51">
         <f xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H45*$D$5) ) -1</f>
         <v>24.245682631054759</v>
       </c>
-      <c r="M45" s="35">
+      <c r="M45" s="51">
         <f xml:space="preserve"> (( ($D$8 - (1-$D$3)*H45)*$D$6) / (I45*$D$5) ) -1</f>
-        <v>3.6093157468381252</v>
-      </c>
-      <c r="N45" s="35">
+        <v>2.2592820991169402</v>
+      </c>
+      <c r="N45" s="59">
         <f>1/(SQRT(      (((I45*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H45*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
-        <v>1.5810470244260859</v>
-      </c>
-      <c r="O45" s="45">
+        <v>1.5802668541190723</v>
+      </c>
+      <c r="O45" s="60">
         <f>1/(SQRT(      (((I45*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H45*$D$5))/($D$2*$B$5*1000000))^2)     )    )</f>
-        <v>1.8294360266256342</v>
+        <v>1.827778836051525</v>
       </c>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
     <row r="46" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E46" s="8"/>
-      <c r="F46" s="46">
+      <c r="F46" s="39">
         <v>2</v>
       </c>
-      <c r="G46" s="63"/>
-      <c r="H46" s="26">
+      <c r="G46" s="83"/>
+      <c r="H46" s="56">
         <f>ABS('Forces Input'!AG23)</f>
         <v>389.43470000000002</v>
       </c>
-      <c r="I46" s="26" cm="1">
-        <f t="array" ref="I46">MAX(ABS('Forces Input'!AH23:AI23))</f>
-        <v>398.80880000000002</v>
-      </c>
-      <c r="J46" s="27">
+      <c r="I46" s="56">
+        <f>SQRT( (('Forces Input'!AH23)^2) + (('Forces Input'!AI23)^2) )</f>
+        <v>563.99961167349227</v>
+      </c>
+      <c r="J46" s="94">
         <f t="shared" ref="J46:J80" si="6" xml:space="preserve"> (   ($D$2*$B$4*1000000) / ($D$7 + ($D$3*H46*$D$4) ) ) -1</f>
         <v>0.58182837704817691</v>
       </c>
-      <c r="K46" s="27">
+      <c r="K46" s="94">
         <f t="shared" ref="K46:K80" si="7" xml:space="preserve"> (   ($D$2*$B$5*1000000) / ($D$7 + ($D$3*H46*$D$5) ) ) -1</f>
         <v>0.83109777634807802</v>
       </c>
-      <c r="L46" s="26">
+      <c r="L46" s="52">
         <f xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H46*$D$5) ) -1</f>
         <v>24.246207725581037</v>
       </c>
-      <c r="M46" s="28">
+      <c r="M46" s="52">
         <f t="shared" ref="M46:M80" si="8" xml:space="preserve"> (( ($D$8 - (1-$D$3)*H46)*$D$6) / (I46*$D$5) ) -1</f>
-        <v>3.6089983895612576</v>
-      </c>
-      <c r="N46" s="26">
+        <v>2.2590609619195381</v>
+      </c>
+      <c r="N46" s="61">
         <f t="shared" ref="N46:N55" si="9">1/(SQRT(      (((I46*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H46*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
-        <v>1.581046938069306</v>
-      </c>
-      <c r="O46" s="47">
+        <v>1.5802666627105637</v>
+      </c>
+      <c r="O46" s="62">
         <f t="shared" ref="O46:O80" si="10">1/(SQRT(      (((I46*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H46*$D$5))/($D$2*$B$5*1000000))^2)     )    )</f>
-        <v>1.829435831861314</v>
+        <v>1.8277784185383605</v>
       </c>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
     <row r="47" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E47" s="8"/>
-      <c r="F47" s="46">
+      <c r="F47" s="39">
         <v>3</v>
       </c>
-      <c r="G47" s="63"/>
-      <c r="H47" s="26">
+      <c r="G47" s="83"/>
+      <c r="H47" s="56">
         <f>ABS('Forces Input'!AG24)</f>
         <v>341.28429999999997</v>
       </c>
-      <c r="I47" s="26" cm="1">
-        <f t="array" ref="I47">MAX(ABS('Forces Input'!AH24:AI24))</f>
-        <v>341.84219999999999</v>
-      </c>
-      <c r="J47" s="27">
+      <c r="I47" s="56">
+        <f>SQRT( (('Forces Input'!AH24)^2) + (('Forces Input'!AI24)^2) )</f>
+        <v>465.32699202935777</v>
+      </c>
+      <c r="J47" s="94">
         <f t="shared" si="6"/>
         <v>0.58196002527958157</v>
       </c>
-      <c r="K47" s="27">
+      <c r="K47" s="94">
         <f t="shared" si="7"/>
         <v>0.83131107729093334</v>
       </c>
-      <c r="L47" s="28">
+      <c r="L47" s="52">
         <f t="shared" ref="L47" si="11" xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H47*$D$5) ) -1</f>
         <v>27.808091470218034</v>
       </c>
-      <c r="M47" s="28">
+      <c r="M47" s="52">
         <f t="shared" si="8"/>
-        <v>4.3964266484026009</v>
-      </c>
-      <c r="N47" s="26">
+        <v>2.9643656809665289</v>
+      </c>
+      <c r="N47" s="61">
         <f t="shared" si="9"/>
-        <v>1.5813856301988436</v>
-      </c>
-      <c r="O47" s="47">
+        <v>1.5808961905049199</v>
+      </c>
+      <c r="O47" s="62">
         <f t="shared" si="10"/>
-        <v>1.8300891456946202</v>
+        <v>1.8290488222938879</v>
       </c>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
     </row>
     <row r="48" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E48" s="8"/>
-      <c r="F48" s="46">
+      <c r="F48" s="39">
         <v>4</v>
       </c>
-      <c r="G48" s="63"/>
-      <c r="H48" s="26">
+      <c r="G48" s="83"/>
+      <c r="H48" s="56">
         <f>ABS('Forces Input'!AG25)</f>
         <v>341.26979999999998</v>
       </c>
-      <c r="I48" s="26" cm="1">
-        <f t="array" ref="I48">MAX(ABS('Forces Input'!AH25:AI25))</f>
-        <v>341.8023</v>
-      </c>
-      <c r="J48" s="27">
+      <c r="I48" s="56">
+        <f>SQRT( (('Forces Input'!AH25)^2) + (('Forces Input'!AI25)^2) )</f>
+        <v>465.29184599442533</v>
+      </c>
+      <c r="J48" s="94">
         <f t="shared" si="6"/>
         <v>0.58196006492739882</v>
       </c>
-      <c r="K48" s="27">
+      <c r="K48" s="94">
         <f t="shared" si="7"/>
         <v>0.83131114153181307</v>
       </c>
-      <c r="L48" s="28">
+      <c r="L48" s="52">
         <f xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H48*$D$5) ) -1</f>
         <v>27.809315479275732</v>
       </c>
-      <c r="M48" s="28">
+      <c r="M48" s="52">
         <f t="shared" si="8"/>
-        <v>4.3970624256854247</v>
-      </c>
-      <c r="N48" s="26">
+        <v>2.9646694138821403</v>
+      </c>
+      <c r="N48" s="61">
         <f t="shared" si="9"/>
-        <v>1.5813858038100626</v>
-      </c>
-      <c r="O48" s="47">
+        <v>1.5808963906070763</v>
+      </c>
+      <c r="O48" s="62">
         <f t="shared" si="10"/>
-        <v>1.8300894947540132</v>
+        <v>1.8290492273864127</v>
       </c>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
     </row>
     <row r="49" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E49" s="8"/>
-      <c r="F49" s="46">
+      <c r="F49" s="39">
         <v>5</v>
       </c>
-      <c r="G49" s="63"/>
-      <c r="H49" s="26">
+      <c r="G49" s="83"/>
+      <c r="H49" s="56">
         <f>ABS('Forces Input'!AG26)</f>
         <v>341.28129999999999</v>
       </c>
-      <c r="I49" s="26" cm="1">
-        <f t="array" ref="I49">MAX(ABS('Forces Input'!AH26:AI26))</f>
-        <v>341.82150000000001</v>
-      </c>
-      <c r="J49" s="27">
+      <c r="I49" s="56">
+        <f>SQRT( (('Forces Input'!AH26)^2) + (('Forces Input'!AI26)^2) )</f>
+        <v>465.31110695157491</v>
+      </c>
+      <c r="J49" s="94">
         <f t="shared" si="6"/>
         <v>0.58196003348257808</v>
       </c>
-      <c r="K49" s="27">
+      <c r="K49" s="94">
         <f t="shared" si="7"/>
         <v>0.83131109058214947</v>
       </c>
-      <c r="L49" s="28">
+      <c r="L49" s="52">
         <f t="shared" ref="L49:L80" si="12" xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H49*$D$5) ) -1</f>
         <v>27.80834470493793</v>
       </c>
-      <c r="M49" s="28">
+      <c r="M49" s="52">
         <f t="shared" si="8"/>
-        <v>4.3967546509341444</v>
-      </c>
-      <c r="N49" s="26">
+        <v>2.9645019049722943</v>
+      </c>
+      <c r="N49" s="61">
         <f t="shared" si="9"/>
-        <v>1.5813857079170592</v>
-      </c>
-      <c r="O49" s="47">
+        <v>1.5808962712501131</v>
+      </c>
+      <c r="O49" s="62">
         <f t="shared" si="10"/>
-        <v>1.8300893067930286</v>
+        <v>1.8290489897024569</v>
       </c>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E50" s="8"/>
-      <c r="F50" s="46">
+      <c r="F50" s="39">
         <v>6</v>
       </c>
-      <c r="G50" s="63"/>
-      <c r="H50" s="26">
+      <c r="G50" s="83"/>
+      <c r="H50" s="56">
         <f>ABS('Forces Input'!AG27)</f>
         <v>341.27289999999999</v>
       </c>
-      <c r="I50" s="26" cm="1">
-        <f t="array" ref="I50">MAX(ABS('Forces Input'!AH27:AI27))</f>
-        <v>341.8297</v>
-      </c>
-      <c r="J50" s="27">
+      <c r="I50" s="56">
+        <f>SQRT( (('Forces Input'!AH27)^2) + (('Forces Input'!AI27)^2) )</f>
+        <v>465.31258496835227</v>
+      </c>
+      <c r="J50" s="94">
         <f t="shared" si="6"/>
         <v>0.58196005645096882</v>
       </c>
-      <c r="K50" s="27">
+      <c r="K50" s="94">
         <f t="shared" si="7"/>
         <v>0.83131112779755578</v>
       </c>
-      <c r="L50" s="28">
+      <c r="L50" s="52">
         <f t="shared" si="12"/>
         <v>27.809053785839232</v>
       </c>
-      <c r="M50" s="28">
+      <c r="M50" s="52">
         <f t="shared" si="8"/>
-        <v>4.3966285677174506</v>
-      </c>
-      <c r="N50" s="26">
+        <v>2.9644917930593975</v>
+      </c>
+      <c r="N50" s="61">
         <f t="shared" si="9"/>
-        <v>1.5813857033199765</v>
-      </c>
-      <c r="O50" s="47">
+        <v>1.5808962874211243</v>
+      </c>
+      <c r="O50" s="62">
         <f t="shared" si="10"/>
-        <v>1.8300892853728874</v>
+        <v>1.8290490124360168</v>
       </c>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E51" s="8"/>
-      <c r="F51" s="46">
+      <c r="F51" s="39">
         <v>7</v>
       </c>
-      <c r="G51" s="63"/>
-      <c r="H51" s="26">
+      <c r="G51" s="83"/>
+      <c r="H51" s="56">
         <f>ABS('Forces Input'!AG28)</f>
         <v>341.2842</v>
       </c>
-      <c r="I51" s="26" cm="1">
-        <f t="array" ref="I51">MAX(ABS('Forces Input'!AH28:AI28))</f>
-        <v>341.84429999999998</v>
-      </c>
-      <c r="J51" s="27">
+      <c r="I51" s="56">
+        <f>SQRT( (('Forces Input'!AH28)^2) + (('Forces Input'!AI28)^2) )</f>
+        <v>465.32839905660177</v>
+      </c>
+      <c r="J51" s="94">
         <f t="shared" si="6"/>
         <v>0.58196002555301485</v>
       </c>
-      <c r="K51" s="27">
+      <c r="K51" s="94">
         <f t="shared" si="7"/>
         <v>0.83131107773397384</v>
       </c>
-      <c r="L51" s="28">
+      <c r="L51" s="52">
         <f t="shared" si="12"/>
         <v>27.808099911303636</v>
       </c>
-      <c r="M51" s="28">
+      <c r="M51" s="52">
         <f t="shared" si="8"/>
-        <v>4.3963935375591419</v>
-      </c>
-      <c r="N51" s="26">
+        <v>2.9643537233304325</v>
+      </c>
+      <c r="N51" s="61">
         <f t="shared" si="9"/>
-        <v>1.5813856234185697</v>
-      </c>
-      <c r="O51" s="47">
+        <v>1.5808961843507638</v>
+      </c>
+      <c r="O51" s="62">
         <f t="shared" si="10"/>
-        <v>1.8300891311386465</v>
+        <v>1.8290488090796717</v>
       </c>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
     <row r="52" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E52" s="8"/>
-      <c r="F52" s="46">
+      <c r="F52" s="39">
         <v>8</v>
       </c>
-      <c r="G52" s="63"/>
-      <c r="H52" s="26">
+      <c r="G52" s="83"/>
+      <c r="H52" s="56">
         <f>ABS('Forces Input'!AG29)</f>
         <v>341.2697</v>
       </c>
-      <c r="I52" s="26" cm="1">
-        <f t="array" ref="I52">MAX(ABS('Forces Input'!AH29:AI29))</f>
-        <v>341.80509999999998</v>
-      </c>
-      <c r="J52" s="27">
+      <c r="I52" s="56">
+        <f>SQRT( (('Forces Input'!AH29)^2) + (('Forces Input'!AI29)^2) )</f>
+        <v>465.2936993218047</v>
+      </c>
+      <c r="J52" s="94">
         <f t="shared" si="6"/>
         <v>0.58196006520083232</v>
       </c>
-      <c r="K52" s="27">
+      <c r="K52" s="94">
         <f t="shared" si="7"/>
         <v>0.83131114197485378</v>
       </c>
-      <c r="L52" s="28">
+      <c r="L52" s="52">
         <f t="shared" si="12"/>
         <v>27.809323921078647</v>
       </c>
-      <c r="M52" s="28">
+      <c r="M52" s="52">
         <f t="shared" si="8"/>
-        <v>4.39701825422065</v>
-      </c>
-      <c r="N52" s="26">
+        <v>2.9646536516065529</v>
+      </c>
+      <c r="N52" s="61">
         <f t="shared" si="9"/>
-        <v>1.5813857946797378</v>
-      </c>
-      <c r="O52" s="47">
+        <v>1.5808963824149367</v>
+      </c>
+      <c r="O52" s="62">
         <f t="shared" si="10"/>
-        <v>1.8300894752009664</v>
+        <v>1.8290492098420601</v>
       </c>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
     </row>
     <row r="53" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E53" s="8"/>
-      <c r="F53" s="46">
+      <c r="F53" s="39">
         <v>9</v>
       </c>
-      <c r="G53" s="63"/>
-      <c r="H53" s="26">
+      <c r="G53" s="83"/>
+      <c r="H53" s="56">
         <f>ABS('Forces Input'!AG30)</f>
         <v>341.28100000000001</v>
       </c>
-      <c r="I53" s="26" cm="1">
-        <f t="array" ref="I53">MAX(ABS('Forces Input'!AH30:AI30))</f>
-        <v>341.81970000000001</v>
-      </c>
-      <c r="J53" s="27">
+      <c r="I53" s="56">
+        <f>SQRT( (('Forces Input'!AH30)^2) + (('Forces Input'!AI30)^2) )</f>
+        <v>465.3097168085468</v>
+      </c>
+      <c r="J53" s="94">
         <f t="shared" si="6"/>
         <v>0.58196003430287768</v>
       </c>
-      <c r="K53" s="27">
+      <c r="K53" s="94">
         <f t="shared" si="7"/>
         <v>0.83131109191127117</v>
       </c>
-      <c r="L53" s="28">
+      <c r="L53" s="52">
         <f t="shared" si="12"/>
         <v>27.808370028654782</v>
       </c>
-      <c r="M53" s="28">
+      <c r="M53" s="52">
         <f t="shared" si="8"/>
-        <v>4.396783190503232</v>
-      </c>
-      <c r="N53" s="26">
+        <v>2.9645138377840419</v>
+      </c>
+      <c r="N53" s="61">
         <f t="shared" si="9"/>
-        <v>1.5813857147818458</v>
-      </c>
-      <c r="O53" s="47">
+        <v>1.5808962784184386</v>
+      </c>
+      <c r="O53" s="62">
         <f t="shared" si="10"/>
-        <v>1.8300893209741815</v>
+        <v>1.8290490045179124</v>
       </c>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E54" s="8"/>
-      <c r="F54" s="46">
+      <c r="F54" s="39">
         <v>10</v>
       </c>
-      <c r="G54" s="63"/>
-      <c r="H54" s="26">
+      <c r="G54" s="83"/>
+      <c r="H54" s="56">
         <f>ABS('Forces Input'!AG31)</f>
         <v>341.27260000000001</v>
       </c>
-      <c r="I54" s="26" cm="1">
-        <f t="array" ref="I54">MAX(ABS('Forces Input'!AH31:AI31))</f>
-        <v>341.82769999999999</v>
-      </c>
-      <c r="J54" s="27">
+      <c r="I54" s="56">
+        <f>SQRT( (('Forces Input'!AH31)^2) + (('Forces Input'!AI31)^2) )</f>
+        <v>465.31077648446956</v>
+      </c>
+      <c r="J54" s="94">
         <f t="shared" si="6"/>
         <v>0.58196005727126843</v>
       </c>
-      <c r="K54" s="27">
+      <c r="K54" s="94">
         <f t="shared" si="7"/>
         <v>0.83131112912667726</v>
       </c>
-      <c r="L54" s="28">
+      <c r="L54" s="52">
         <f t="shared" si="12"/>
         <v>27.80907911080272</v>
       </c>
-      <c r="M54" s="28">
+      <c r="M54" s="52">
         <f t="shared" si="8"/>
-        <v>4.3966602634685756</v>
-      </c>
-      <c r="N54" s="26">
+        <v>2.9645072901173779</v>
+      </c>
+      <c r="N54" s="61">
         <f t="shared" si="9"/>
-        <v>1.5813857108566307</v>
-      </c>
-      <c r="O54" s="47">
+        <v>1.5808962965003051</v>
+      </c>
+      <c r="O54" s="62">
         <f t="shared" si="10"/>
-        <v>1.8300893009826769</v>
+        <v>1.8290490313114933</v>
       </c>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E55" s="8"/>
-      <c r="F55" s="46">
+      <c r="F55" s="39">
         <v>11</v>
       </c>
-      <c r="G55" s="63"/>
-      <c r="H55" s="26">
+      <c r="G55" s="83"/>
+      <c r="H55" s="56">
         <f>ABS('Forces Input'!AG32)</f>
         <v>389.43860000000001</v>
       </c>
-      <c r="I55" s="26" cm="1">
-        <f t="array" ref="I55">MAX(ABS('Forces Input'!AH32:AI32))</f>
-        <v>398.79969999999997</v>
-      </c>
-      <c r="J55" s="27">
+      <c r="I55" s="56">
+        <f>SQRT( (('Forces Input'!AH32)^2) + (('Forces Input'!AI32)^2) )</f>
+        <v>563.98200474463727</v>
+      </c>
+      <c r="J55" s="94">
         <f t="shared" si="6"/>
         <v>0.58182836638605617</v>
       </c>
-      <c r="K55" s="27">
+      <c r="K55" s="94">
         <f t="shared" si="7"/>
         <v>0.83109775907352224</v>
       </c>
-      <c r="L55" s="28">
+      <c r="L55" s="52">
         <f t="shared" si="12"/>
         <v>24.245954899563969</v>
       </c>
-      <c r="M55" s="28">
+      <c r="M55" s="52">
         <f t="shared" si="8"/>
-        <v>3.6091022159029427</v>
-      </c>
-      <c r="N55" s="26">
+        <v>2.2591617560629387</v>
+      </c>
+      <c r="N55" s="61">
         <f t="shared" si="9"/>
-        <v>1.5810469630578257</v>
-      </c>
-      <c r="O55" s="47">
+        <v>1.5802667494412608</v>
+      </c>
+      <c r="O55" s="62">
         <f t="shared" si="10"/>
-        <v>1.8294358903740029</v>
+        <v>1.8277786080384797</v>
       </c>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
     </row>
     <row r="56" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E56" s="8"/>
-      <c r="F56" s="48">
+      <c r="F56" s="41">
         <v>12</v>
       </c>
-      <c r="G56" s="72"/>
-      <c r="H56" s="33">
+      <c r="G56" s="92"/>
+      <c r="H56" s="57">
         <f>ABS('Forces Input'!AG33)</f>
         <v>389.43860000000001</v>
       </c>
-      <c r="I56" s="33" cm="1">
-        <f t="array" ref="I56">MAX(ABS('Forces Input'!AH33:AI33))</f>
-        <v>398.79750000000001</v>
-      </c>
-      <c r="J56" s="15">
+      <c r="I56" s="57">
+        <f>SQRT( (('Forces Input'!AH33)^2) + (('Forces Input'!AI33)^2) )</f>
+        <v>563.98094406659698</v>
+      </c>
+      <c r="J56" s="95">
         <f t="shared" si="6"/>
         <v>0.58182836638605617</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K56" s="95">
         <f t="shared" si="7"/>
         <v>0.83109775907352224</v>
       </c>
-      <c r="L56" s="32">
+      <c r="L56" s="53">
         <f t="shared" si="12"/>
         <v>24.245954899563969</v>
       </c>
-      <c r="M56" s="32">
+      <c r="M56" s="53">
         <f t="shared" si="8"/>
-        <v>3.6091276424035472</v>
-      </c>
-      <c r="N56" s="33">
+        <v>2.2591678855631301</v>
+      </c>
+      <c r="N56" s="63">
         <f>1/(SQRT(      (((I56*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H56*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
-        <v>1.5810469716727218</v>
-      </c>
-      <c r="O56" s="49">
+        <v>1.5802667553064098</v>
+      </c>
+      <c r="O56" s="64">
         <f t="shared" si="10"/>
-        <v>1.8294359086845748</v>
+        <v>1.827778620489164</v>
       </c>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
     </row>
     <row r="57" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E57" s="8"/>
-      <c r="F57" s="44">
+      <c r="F57" s="37">
         <v>1</v>
       </c>
-      <c r="G57" s="71" t="s">
+      <c r="G57" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="H57" s="35"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="36">
+      <c r="H57" s="55"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="93">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K57" s="36">
+      <c r="K57" s="93">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L57" s="38" t="e">
+      <c r="L57" s="51" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M57" s="38" t="e">
+      <c r="M57" s="51" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N57" s="35">
+      <c r="N57" s="59">
         <f t="shared" ref="N57:N80" si="13">1/(SQRT(      (((I57*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H57*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O57" s="45">
+      <c r="O57" s="60">
         <f t="shared" si="10"/>
         <v>1.8328243545223257</v>
       </c>
@@ -6155,33 +7644,33 @@
     </row>
     <row r="58" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E58" s="8"/>
-      <c r="F58" s="46">
+      <c r="F58" s="39">
         <v>2</v>
       </c>
-      <c r="G58" s="63"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="27">
+      <c r="G58" s="83"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="98"/>
+      <c r="J58" s="94">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K58" s="27">
+      <c r="K58" s="94">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L58" s="28" t="e">
+      <c r="L58" s="52" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M58" s="28" t="e">
+      <c r="M58" s="52" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N58" s="26">
+      <c r="N58" s="61">
         <f t="shared" si="13"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O58" s="47">
+      <c r="O58" s="62">
         <f t="shared" si="10"/>
         <v>1.8328243545223257</v>
       </c>
@@ -6190,33 +7679,33 @@
     </row>
     <row r="59" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E59" s="8"/>
-      <c r="F59" s="46">
+      <c r="F59" s="39">
         <v>3</v>
       </c>
-      <c r="G59" s="63"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="27">
+      <c r="G59" s="83"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="94">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K59" s="27">
+      <c r="K59" s="94">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L59" s="28" t="e">
+      <c r="L59" s="52" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M59" s="28" t="e">
+      <c r="M59" s="52" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N59" s="26">
+      <c r="N59" s="61">
         <f t="shared" si="13"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O59" s="47">
+      <c r="O59" s="62">
         <f t="shared" si="10"/>
         <v>1.8328243545223257</v>
       </c>
@@ -6225,33 +7714,33 @@
     </row>
     <row r="60" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E60" s="8"/>
-      <c r="F60" s="46">
+      <c r="F60" s="39">
         <v>4</v>
       </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="27">
+      <c r="G60" s="83"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="98"/>
+      <c r="J60" s="94">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K60" s="27">
+      <c r="K60" s="94">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L60" s="28" t="e">
+      <c r="L60" s="52" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M60" s="28" t="e">
+      <c r="M60" s="52" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N60" s="26">
+      <c r="N60" s="61">
         <f t="shared" si="13"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O60" s="47">
+      <c r="O60" s="62">
         <f t="shared" si="10"/>
         <v>1.8328243545223257</v>
       </c>
@@ -6260,33 +7749,33 @@
     </row>
     <row r="61" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E61" s="8"/>
-      <c r="F61" s="46">
+      <c r="F61" s="39">
         <v>5</v>
       </c>
-      <c r="G61" s="63"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="27">
+      <c r="G61" s="83"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="98"/>
+      <c r="J61" s="94">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K61" s="27">
+      <c r="K61" s="94">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L61" s="28" t="e">
+      <c r="L61" s="52" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M61" s="28" t="e">
+      <c r="M61" s="52" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N61" s="26">
+      <c r="N61" s="61">
         <f t="shared" si="13"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O61" s="47">
+      <c r="O61" s="62">
         <f t="shared" si="10"/>
         <v>1.8328243545223257</v>
       </c>
@@ -6295,33 +7784,33 @@
     </row>
     <row r="62" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E62" s="8"/>
-      <c r="F62" s="46">
+      <c r="F62" s="39">
         <v>6</v>
       </c>
-      <c r="G62" s="63"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="27">
+      <c r="G62" s="83"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="98"/>
+      <c r="J62" s="94">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K62" s="27">
+      <c r="K62" s="94">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L62" s="28" t="e">
+      <c r="L62" s="52" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M62" s="28" t="e">
+      <c r="M62" s="52" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N62" s="26">
+      <c r="N62" s="61">
         <f t="shared" si="13"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O62" s="47">
+      <c r="O62" s="62">
         <f t="shared" si="10"/>
         <v>1.8328243545223257</v>
       </c>
@@ -6329,635 +7818,635 @@
       <c r="Q62" s="8"/>
     </row>
     <row r="63" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="F63" s="46">
+      <c r="F63" s="39">
         <v>7</v>
       </c>
-      <c r="G63" s="63"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="27">
+      <c r="G63" s="83"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="94">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K63" s="27">
+      <c r="K63" s="94">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L63" s="28" t="e">
+      <c r="L63" s="52" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M63" s="28" t="e">
+      <c r="M63" s="52" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N63" s="26">
+      <c r="N63" s="61">
         <f t="shared" si="13"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O63" s="47">
+      <c r="O63" s="62">
         <f t="shared" si="10"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="64" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="F64" s="46">
+      <c r="F64" s="39">
         <v>8</v>
       </c>
-      <c r="G64" s="63"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="27">
+      <c r="G64" s="83"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="98"/>
+      <c r="J64" s="94">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K64" s="27">
+      <c r="K64" s="94">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L64" s="28" t="e">
+      <c r="L64" s="52" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M64" s="28" t="e">
+      <c r="M64" s="52" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N64" s="26">
+      <c r="N64" s="61">
         <f t="shared" si="13"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O64" s="47">
+      <c r="O64" s="62">
         <f t="shared" si="10"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="65" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F65" s="46">
+      <c r="F65" s="39">
         <v>9</v>
       </c>
-      <c r="G65" s="63"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="27">
+      <c r="G65" s="83"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="98"/>
+      <c r="J65" s="94">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K65" s="27">
+      <c r="K65" s="94">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L65" s="28" t="e">
+      <c r="L65" s="52" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M65" s="28" t="e">
+      <c r="M65" s="52" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N65" s="26">
+      <c r="N65" s="61">
         <f t="shared" si="13"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O65" s="47">
+      <c r="O65" s="62">
         <f t="shared" si="10"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="66" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F66" s="46">
+      <c r="F66" s="39">
         <v>10</v>
       </c>
-      <c r="G66" s="63"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="27">
+      <c r="G66" s="83"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="98"/>
+      <c r="J66" s="94">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K66" s="27">
+      <c r="K66" s="94">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L66" s="28" t="e">
+      <c r="L66" s="52" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M66" s="28" t="e">
+      <c r="M66" s="52" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N66" s="26">
+      <c r="N66" s="61">
         <f t="shared" si="13"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O66" s="47">
+      <c r="O66" s="62">
         <f t="shared" si="10"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="67" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F67" s="46">
+      <c r="F67" s="39">
         <v>11</v>
       </c>
-      <c r="G67" s="63"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="27">
+      <c r="G67" s="83"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="98"/>
+      <c r="J67" s="94">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K67" s="27">
+      <c r="K67" s="94">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L67" s="28" t="e">
+      <c r="L67" s="52" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M67" s="28" t="e">
+      <c r="M67" s="52" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N67" s="26">
+      <c r="N67" s="61">
         <f t="shared" si="13"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O67" s="47">
+      <c r="O67" s="62">
         <f t="shared" si="10"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="68" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F68" s="48">
+      <c r="F68" s="41">
         <v>12</v>
       </c>
-      <c r="G68" s="72"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="15">
+      <c r="G68" s="92"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="95">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K68" s="15">
+      <c r="K68" s="95">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L68" s="32" t="e">
+      <c r="L68" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M68" s="32" t="e">
+      <c r="M68" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N68" s="33">
+      <c r="N68" s="63">
         <f t="shared" si="13"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O68" s="49">
+      <c r="O68" s="64">
         <f t="shared" si="10"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="69" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F69" s="46">
+      <c r="F69" s="39">
         <v>1</v>
       </c>
-      <c r="G69" s="63" t="s">
+      <c r="G69" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="H69" s="29">
+      <c r="H69" s="98">
         <f>ABS('Forces Input'!C22)</f>
         <v>195.53479999999999</v>
       </c>
-      <c r="I69" s="29" cm="1">
-        <f t="array" ref="I69">MAX(ABS('Forces Input'!D22:E22))</f>
-        <v>465.87520000000001</v>
-      </c>
-      <c r="J69" s="27">
+      <c r="I69" s="98">
+        <f>SQRT( (('Forces Input'!D22)^2) + (('Forces Input'!E22)^2) )</f>
+        <v>586.66395231945182</v>
+      </c>
+      <c r="J69" s="94">
         <f t="shared" si="6"/>
         <v>0.58235865324907188</v>
       </c>
-      <c r="K69" s="27">
+      <c r="K69" s="94">
         <f t="shared" si="7"/>
         <v>0.83195703442346391</v>
       </c>
-      <c r="L69" s="28">
+      <c r="L69" s="52">
         <f t="shared" si="12"/>
         <v>49.28132757825886</v>
       </c>
-      <c r="M69" s="28">
+      <c r="M69" s="61">
         <f t="shared" si="8"/>
-        <v>3.002695363908618</v>
-      </c>
-      <c r="N69" s="26">
+        <v>2.1785769277751674</v>
+      </c>
+      <c r="N69" s="61">
         <f t="shared" si="13"/>
-        <v>1.5812915071369567</v>
-      </c>
-      <c r="O69" s="47">
+        <v>1.5806674090776927</v>
+      </c>
+      <c r="O69" s="62">
         <f t="shared" si="10"/>
-        <v>1.8296870584053333</v>
+        <v>1.8283612920415218</v>
       </c>
     </row>
     <row r="70" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F70" s="46">
+      <c r="F70" s="39">
         <v>2</v>
       </c>
-      <c r="G70" s="63"/>
-      <c r="H70" s="29">
+      <c r="G70" s="83"/>
+      <c r="H70" s="98">
         <f>ABS('Forces Input'!C23)</f>
         <v>195.53550000000001</v>
       </c>
-      <c r="I70" s="29" cm="1">
-        <f t="array" ref="I70">MAX(ABS('Forces Input'!D23:E23))</f>
-        <v>465.87490000000003</v>
-      </c>
-      <c r="J70" s="27">
+      <c r="I70" s="98">
+        <f>SQRT( (('Forces Input'!D23)^2) + (('Forces Input'!E23)^2) )</f>
+        <v>586.66298475698125</v>
+      </c>
+      <c r="J70" s="94">
         <f t="shared" si="6"/>
         <v>0.58235865133407483</v>
       </c>
-      <c r="K70" s="27">
+      <c r="K70" s="94">
         <f t="shared" si="7"/>
         <v>0.83195703131999199</v>
       </c>
-      <c r="L70" s="28">
+      <c r="L70" s="52">
         <f t="shared" si="12"/>
         <v>49.281147575500775</v>
       </c>
-      <c r="M70" s="28">
+      <c r="M70" s="61">
         <f t="shared" si="8"/>
-        <v>3.0026977349498765</v>
-      </c>
-      <c r="N70" s="26">
+        <v>2.1785820061111498</v>
+      </c>
+      <c r="N70" s="61">
         <f t="shared" si="13"/>
-        <v>1.5812915065988167</v>
-      </c>
-      <c r="O70" s="47">
+        <v>1.5806674127384932</v>
+      </c>
+      <c r="O70" s="62">
         <f t="shared" si="10"/>
-        <v>1.8296870582314502</v>
+        <v>1.828361300782023</v>
       </c>
     </row>
     <row r="71" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F71" s="46">
+      <c r="F71" s="39">
         <v>3</v>
       </c>
-      <c r="G71" s="63"/>
-      <c r="H71" s="29">
+      <c r="G71" s="83"/>
+      <c r="H71" s="98">
         <f>ABS('Forces Input'!C24)</f>
         <v>146.33519999999999</v>
       </c>
-      <c r="I71" s="29" cm="1">
-        <f t="array" ref="I71">MAX(ABS('Forces Input'!D24:E24))</f>
-        <v>188.44720000000001</v>
-      </c>
-      <c r="J71" s="27">
+      <c r="I71" s="98">
+        <f>SQRT( (('Forces Input'!D24)^2) + (('Forces Input'!E24)^2) )</f>
+        <v>248.33147120638978</v>
+      </c>
+      <c r="J71" s="94">
         <f t="shared" si="6"/>
         <v>0.58249326055426165</v>
       </c>
-      <c r="K71" s="27">
+      <c r="K71" s="94">
         <f t="shared" si="7"/>
         <v>0.83217518836871962</v>
       </c>
-      <c r="L71" s="28">
+      <c r="L71" s="52">
         <f t="shared" si="12"/>
         <v>66.186496015649922</v>
       </c>
-      <c r="M71" s="28">
+      <c r="M71" s="61">
         <f t="shared" si="8"/>
-        <v>8.9312589093542218</v>
-      </c>
-      <c r="N71" s="26">
+        <v>6.5363703394139172</v>
+      </c>
+      <c r="N71" s="61">
         <f t="shared" si="13"/>
-        <v>1.5823184601419031</v>
-      </c>
-      <c r="O71" s="47">
+        <v>1.5821897501352375</v>
+      </c>
+      <c r="O71" s="62">
         <f t="shared" si="10"/>
-        <v>1.831803060615836</v>
+        <v>1.8315291195631216</v>
       </c>
     </row>
     <row r="72" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F72" s="46">
+      <c r="F72" s="39">
         <v>4</v>
       </c>
-      <c r="G72" s="63"/>
-      <c r="H72" s="29">
+      <c r="G72" s="83"/>
+      <c r="H72" s="98">
         <f>ABS('Forces Input'!C25)</f>
         <v>125.6237</v>
       </c>
-      <c r="I72" s="29" cm="1">
-        <f t="array" ref="I72">MAX(ABS('Forces Input'!D25:E25))</f>
-        <v>549.72230000000002</v>
-      </c>
-      <c r="J72" s="27">
+      <c r="I72" s="98">
+        <f>SQRT( (('Forces Input'!D25)^2) + (('Forces Input'!E25)^2) )</f>
+        <v>716.09880083637904</v>
+      </c>
+      <c r="J72" s="94">
         <f t="shared" si="6"/>
         <v>0.58254993288924783</v>
       </c>
-      <c r="K72" s="27">
+      <c r="K72" s="94">
         <f t="shared" si="7"/>
         <v>0.83226703992904549</v>
       </c>
-      <c r="L72" s="28">
+      <c r="L72" s="52">
         <f t="shared" si="12"/>
         <v>77.263491138609453</v>
       </c>
-      <c r="M72" s="28">
+      <c r="M72" s="61">
         <f t="shared" si="8"/>
-        <v>2.4096566317211439</v>
-      </c>
-      <c r="N72" s="26">
+        <v>1.6174660306801334</v>
+      </c>
+      <c r="N72" s="61">
         <f t="shared" si="13"/>
-        <v>1.5810641462124391</v>
-      </c>
-      <c r="O72" s="47">
+        <v>1.580031155457235</v>
+      </c>
+      <c r="O72" s="62">
         <f t="shared" si="10"/>
-        <v>1.8291071464711481</v>
+        <v>1.8269146224780757</v>
       </c>
     </row>
     <row r="73" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F73" s="46">
+      <c r="F73" s="39">
         <v>5</v>
       </c>
-      <c r="G73" s="63"/>
-      <c r="H73" s="29">
+      <c r="G73" s="83"/>
+      <c r="H73" s="98">
         <f>ABS('Forces Input'!C26)</f>
         <v>146.3365</v>
       </c>
-      <c r="I73" s="29" cm="1">
-        <f t="array" ref="I73">MAX(ABS('Forces Input'!D26:E26))</f>
-        <v>188.45089999999999</v>
-      </c>
-      <c r="J73" s="27">
+      <c r="I73" s="98">
+        <f>SQRT( (('Forces Input'!D26)^2) + (('Forces Input'!E26)^2) )</f>
+        <v>248.33473485432921</v>
+      </c>
+      <c r="J73" s="94">
         <f t="shared" si="6"/>
         <v>0.5824932569972332</v>
       </c>
-      <c r="K73" s="27">
+      <c r="K73" s="94">
         <f t="shared" si="7"/>
         <v>0.83217518260375622</v>
       </c>
-      <c r="L73" s="28">
+      <c r="L73" s="52">
         <f t="shared" si="12"/>
         <v>66.185899155366798</v>
       </c>
-      <c r="M73" s="28">
+      <c r="M73" s="61">
         <f t="shared" si="8"/>
-        <v>8.9310629733565321</v>
-      </c>
-      <c r="N73" s="26">
+        <v>6.5362705760172011</v>
+      </c>
+      <c r="N73" s="61">
         <f t="shared" si="13"/>
-        <v>1.5823184497230094</v>
-      </c>
-      <c r="O73" s="47">
+        <v>1.5821897386048447</v>
+      </c>
+      <c r="O73" s="62">
         <f t="shared" si="10"/>
-        <v>1.8318030402458712</v>
+        <v>1.8315290968314579</v>
       </c>
     </row>
     <row r="74" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F74" s="46">
+      <c r="F74" s="39">
         <v>6</v>
       </c>
-      <c r="G74" s="63"/>
-      <c r="H74" s="29">
+      <c r="G74" s="83"/>
+      <c r="H74" s="98">
         <f>ABS('Forces Input'!C27)</f>
         <v>125.6237</v>
       </c>
-      <c r="I74" s="29" cm="1">
-        <f t="array" ref="I74">MAX(ABS('Forces Input'!D27:E27))</f>
-        <v>549.70299999999997</v>
-      </c>
-      <c r="J74" s="27">
+      <c r="I74" s="98">
+        <f>SQRT( (('Forces Input'!D27)^2) + (('Forces Input'!E27)^2) )</f>
+        <v>716.08430548795025</v>
+      </c>
+      <c r="J74" s="94">
         <f t="shared" si="6"/>
         <v>0.58254993288924783</v>
       </c>
-      <c r="K74" s="27">
+      <c r="K74" s="94">
         <f t="shared" si="7"/>
         <v>0.83226703992904549</v>
       </c>
-      <c r="L74" s="28">
+      <c r="L74" s="52">
         <f t="shared" si="12"/>
         <v>77.263491138609453</v>
       </c>
-      <c r="M74" s="28">
+      <c r="M74" s="61">
         <f t="shared" si="8"/>
-        <v>2.4097763443168407</v>
-      </c>
-      <c r="N74" s="26">
+        <v>1.6175190147796652</v>
+      </c>
+      <c r="N74" s="61">
         <f t="shared" si="13"/>
-        <v>1.5810642503916297</v>
-      </c>
-      <c r="O74" s="47">
+        <v>1.5800312571836241</v>
+      </c>
+      <c r="O74" s="62">
         <f t="shared" si="10"/>
-        <v>1.8291073677727574</v>
+        <v>1.8269148382157818</v>
       </c>
     </row>
     <row r="75" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F75" s="46">
+      <c r="F75" s="39">
         <v>7</v>
       </c>
-      <c r="G75" s="63"/>
-      <c r="H75" s="29">
+      <c r="G75" s="83"/>
+      <c r="H75" s="98">
         <f>ABS('Forces Input'!C28)</f>
         <v>125.62390000000001</v>
       </c>
-      <c r="I75" s="29" cm="1">
-        <f t="array" ref="I75">MAX(ABS('Forces Input'!D28:E28))</f>
-        <v>549.68150000000003</v>
-      </c>
-      <c r="J75" s="27">
+      <c r="I75" s="98">
+        <f>SQRT( (('Forces Input'!D28)^2) + (('Forces Input'!E28)^2) )</f>
+        <v>716.06651935543675</v>
+      </c>
+      <c r="J75" s="94">
         <f t="shared" si="6"/>
         <v>0.58254993234197339</v>
       </c>
-      <c r="K75" s="27">
+      <c r="K75" s="94">
         <f t="shared" si="7"/>
         <v>0.83226703904203903</v>
       </c>
-      <c r="L75" s="28">
+      <c r="L75" s="52">
         <f t="shared" si="12"/>
         <v>77.263366538925567</v>
       </c>
-      <c r="M75" s="28">
+      <c r="M75" s="61">
         <f t="shared" si="8"/>
-        <v>2.4099096628034342</v>
-      </c>
-      <c r="N75" s="26">
+        <v>1.617583992059124</v>
+      </c>
+      <c r="N75" s="61">
         <f t="shared" si="13"/>
-        <v>1.5810643658961512</v>
-      </c>
-      <c r="O75" s="47">
+        <v>1.5800313814568374</v>
+      </c>
+      <c r="O75" s="62">
         <f t="shared" si="10"/>
-        <v>1.829107613408977</v>
+        <v>1.8269151020458883</v>
       </c>
     </row>
     <row r="76" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F76" s="46">
+      <c r="F76" s="39">
         <v>8</v>
       </c>
-      <c r="G76" s="63"/>
-      <c r="H76" s="29">
+      <c r="G76" s="83"/>
+      <c r="H76" s="98">
         <f>ABS('Forces Input'!C29)</f>
         <v>146.3365</v>
       </c>
-      <c r="I76" s="29" cm="1">
-        <f t="array" ref="I76">MAX(ABS('Forces Input'!D29:E29))</f>
-        <v>188.44929999999999</v>
-      </c>
-      <c r="J76" s="27">
+      <c r="I76" s="98">
+        <f>SQRT( (('Forces Input'!D29)^2) + (('Forces Input'!E29)^2) )</f>
+        <v>248.33332530552559</v>
+      </c>
+      <c r="J76" s="94">
         <f t="shared" si="6"/>
         <v>0.5824932569972332</v>
       </c>
-      <c r="K76" s="27">
+      <c r="K76" s="94">
         <f t="shared" si="7"/>
         <v>0.83217518260375622</v>
       </c>
-      <c r="L76" s="28">
+      <c r="L76" s="52">
         <f t="shared" si="12"/>
         <v>66.185899155366798</v>
       </c>
-      <c r="M76" s="28">
+      <c r="M76" s="61">
         <f t="shared" si="8"/>
-        <v>8.9311472915299479</v>
-      </c>
-      <c r="N76" s="26">
+        <v>6.5363133521575403</v>
+      </c>
+      <c r="N76" s="61">
         <f t="shared" si="13"/>
-        <v>1.5823184526908287</v>
-      </c>
-      <c r="O76" s="47">
+        <v>1.5821897420493869</v>
+      </c>
+      <c r="O76" s="62">
         <f t="shared" si="10"/>
-        <v>1.8318030465631017</v>
+        <v>1.8315291041619286</v>
       </c>
     </row>
     <row r="77" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F77" s="46">
+      <c r="F77" s="39">
         <v>9</v>
       </c>
-      <c r="G77" s="63"/>
-      <c r="H77" s="29">
+      <c r="G77" s="83"/>
+      <c r="H77" s="98">
         <f>ABS('Forces Input'!C30)</f>
         <v>125.62390000000001</v>
       </c>
-      <c r="I77" s="29" cm="1">
-        <f t="array" ref="I77">MAX(ABS('Forces Input'!D30:E30))</f>
-        <v>549.68529999999998</v>
-      </c>
-      <c r="J77" s="27">
+      <c r="I77" s="98">
+        <f>SQRT( (('Forces Input'!D30)^2) + (('Forces Input'!E30)^2) )</f>
+        <v>716.06943639262386</v>
+      </c>
+      <c r="J77" s="94">
         <f t="shared" si="6"/>
         <v>0.58254993234197339</v>
       </c>
-      <c r="K77" s="27">
+      <c r="K77" s="94">
         <f t="shared" si="7"/>
         <v>0.83226703904203903</v>
       </c>
-      <c r="L77" s="28">
+      <c r="L77" s="52">
         <f t="shared" si="12"/>
         <v>77.263366538925567</v>
       </c>
-      <c r="M77" s="28">
+      <c r="M77" s="61">
         <f t="shared" si="8"/>
-        <v>2.4098860899396182</v>
-      </c>
-      <c r="N77" s="26">
+        <v>1.6175733288615941</v>
+      </c>
+      <c r="N77" s="61">
         <f t="shared" si="13"/>
-        <v>1.5810643453852715</v>
-      </c>
-      <c r="O77" s="47">
+        <v>1.5800313609861336</v>
+      </c>
+      <c r="O77" s="62">
         <f t="shared" si="10"/>
-        <v>1.8291075698389339</v>
+        <v>1.8269150586323371</v>
       </c>
     </row>
     <row r="78" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F78" s="46">
+      <c r="F78" s="39">
         <v>10</v>
       </c>
-      <c r="G78" s="63"/>
-      <c r="H78" s="29">
+      <c r="G78" s="83"/>
+      <c r="H78" s="98">
         <f>ABS('Forces Input'!C31)</f>
         <v>146.33510000000001</v>
       </c>
-      <c r="I78" s="29" cm="1">
-        <f t="array" ref="I78">MAX(ABS('Forces Input'!D31:E31))</f>
-        <v>188.4452</v>
-      </c>
-      <c r="J78" s="27">
+      <c r="I78" s="98">
+        <f>SQRT( (('Forces Input'!D31)^2) + (('Forces Input'!E31)^2) )</f>
+        <v>248.33001862940372</v>
+      </c>
+      <c r="J78" s="94">
         <f t="shared" si="6"/>
         <v>0.58249326082787922</v>
       </c>
-      <c r="K78" s="27">
+      <c r="K78" s="94">
         <f t="shared" si="7"/>
         <v>0.83217518881217867</v>
       </c>
-      <c r="L78" s="28">
+      <c r="L78" s="52">
         <f t="shared" si="12"/>
         <v>66.18654192841862</v>
       </c>
-      <c r="M78" s="28">
+      <c r="M78" s="61">
         <f t="shared" si="8"/>
-        <v>8.9313643843712356</v>
-      </c>
-      <c r="N78" s="26">
+        <v>6.5364144778593261</v>
+      </c>
+      <c r="N78" s="61">
         <f t="shared" si="13"/>
-        <v>1.5823184641251276</v>
-      </c>
-      <c r="O78" s="47">
+        <v>1.5821897539583414</v>
+      </c>
+      <c r="O78" s="62">
         <f t="shared" si="10"/>
-        <v>1.8318030689553997</v>
+        <v>1.8315291275602539</v>
       </c>
     </row>
     <row r="79" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F79" s="46">
+      <c r="F79" s="39">
         <v>11</v>
       </c>
-      <c r="G79" s="63"/>
-      <c r="H79" s="29">
+      <c r="G79" s="83"/>
+      <c r="H79" s="98">
         <f>ABS('Forces Input'!C32)</f>
         <v>195.53460000000001</v>
       </c>
-      <c r="I79" s="29" cm="1">
-        <f t="array" ref="I79">MAX(ABS('Forces Input'!D32:E32))</f>
-        <v>465.87509999999997</v>
-      </c>
-      <c r="J79" s="27">
+      <c r="I79" s="98">
+        <f>SQRT( (('Forces Input'!D32)^2) + (('Forces Input'!E32)^2) )</f>
+        <v>586.66302202420252</v>
+      </c>
+      <c r="J79" s="94">
         <f t="shared" si="6"/>
         <v>0.58235865379621399</v>
       </c>
-      <c r="K79" s="27">
+      <c r="K79" s="94">
         <f t="shared" si="7"/>
         <v>0.83195703531017018</v>
       </c>
-      <c r="L79" s="28">
+      <c r="L79" s="52">
         <f t="shared" si="12"/>
         <v>49.281379007855037</v>
       </c>
-      <c r="M79" s="28">
+      <c r="M79" s="61">
         <f t="shared" si="8"/>
-        <v>3.0026962820844361</v>
-      </c>
-      <c r="N79" s="26">
+        <v>2.1785820150239243</v>
+      </c>
+      <c r="N79" s="61">
         <f t="shared" si="13"/>
-        <v>1.5812915081406544</v>
-      </c>
-      <c r="O79" s="47">
+        <v>1.5806674149782218</v>
+      </c>
+      <c r="O79" s="62">
         <f t="shared" si="10"/>
-        <v>1.8296870602614368</v>
+        <v>1.8283613042932654</v>
       </c>
     </row>
     <row r="80" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F80" s="50">
+      <c r="F80" s="43">
         <v>12</v>
       </c>
-      <c r="G80" s="64"/>
-      <c r="H80" s="51">
+      <c r="G80" s="84"/>
+      <c r="H80" s="99">
         <f>ABS('Forces Input'!C33)</f>
         <v>195.53479999999999</v>
       </c>
-      <c r="I80" s="51" cm="1">
-        <f t="array" ref="I80">MAX(ABS('Forces Input'!D33:E33))</f>
-        <v>465.87450000000001</v>
-      </c>
-      <c r="J80" s="53">
+      <c r="I80" s="99">
+        <f>SQRT( (('Forces Input'!D33)^2) + (('Forces Input'!E33)^2) )</f>
+        <v>586.66309255546321</v>
+      </c>
+      <c r="J80" s="96">
         <f t="shared" si="6"/>
         <v>0.58235865324907188</v>
       </c>
-      <c r="K80" s="53">
+      <c r="K80" s="96">
         <f t="shared" si="7"/>
         <v>0.83195703442346391</v>
       </c>
@@ -6965,433 +8454,438 @@
         <f t="shared" si="12"/>
         <v>49.28132757825886</v>
       </c>
-      <c r="M80" s="54">
+      <c r="M80" s="65">
         <f t="shared" si="8"/>
-        <v>3.0027013781608574</v>
-      </c>
-      <c r="N80" s="55">
+        <v>2.1785815860296442</v>
+      </c>
+      <c r="N80" s="65">
         <f t="shared" si="13"/>
-        <v>1.581291510340588</v>
-      </c>
-      <c r="O80" s="56">
+        <v>1.5806674140268273</v>
+      </c>
+      <c r="O80" s="66">
         <f t="shared" si="10"/>
-        <v>1.8296870652141519</v>
-      </c>
+        <v>1.8283613025497241</v>
+      </c>
+    </row>
+    <row r="81" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="M81" s="97"/>
+      <c r="N81" s="97"/>
+      <c r="O81" s="97"/>
     </row>
     <row r="84" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="85" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F85" s="40"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="68" t="s">
+      <c r="F85" s="33"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="K85" s="69"/>
-      <c r="L85" s="57" t="s">
+      <c r="K85" s="89"/>
+      <c r="L85" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="M85" s="57" t="s">
+      <c r="M85" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="N85" s="68" t="s">
+      <c r="N85" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="O85" s="70"/>
+      <c r="O85" s="90"/>
     </row>
     <row r="86" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F86" s="42" t="s">
+      <c r="F86" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G86" s="34" t="s">
+      <c r="G86" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H86" s="34" t="s">
+      <c r="H86" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I86" s="34" t="s">
+      <c r="I86" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="J86" s="34" t="s">
+      <c r="J86" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K86" s="34" t="s">
+      <c r="K86" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L86" s="34" t="s">
+      <c r="L86" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="M86" s="34" t="s">
+      <c r="M86" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="N86" s="34" t="s">
+      <c r="N86" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="O86" s="43" t="s">
+      <c r="O86" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="87" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F87" s="44">
+      <c r="F87" s="37">
         <v>1</v>
       </c>
-      <c r="G87" s="71" t="s">
+      <c r="G87" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="36">
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="29">
         <f xml:space="preserve"> (   ($D$2*$B$4*1000000) / ($D$7 + ($D$3*H87*$D$4) ) ) -1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K87" s="36">
+      <c r="K87" s="29">
         <f xml:space="preserve"> (   ($D$2*$B$5*1000000) / ($D$7 + ($D$3*H87*$D$5) ) ) -1</f>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L87" s="35" t="e">
+      <c r="L87" s="28" t="e">
         <f xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H87*$D$5) ) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M87" s="35" t="e">
+      <c r="M87" s="28" t="e">
         <f xml:space="preserve"> (( ($D$8 - (1-$D$3)*H87)*$D$6) / (I87*$D$5) ) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N87" s="35">
+      <c r="N87" s="28">
         <f>1/(SQRT(      (((I87*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H87*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O87" s="45">
+      <c r="O87" s="38">
         <f>1/(SQRT(      (((I87*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H87*$D$5))/($D$2*$B$5*1000000))^2)     )    )</f>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="88" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F88" s="46">
+      <c r="F88" s="39">
         <v>2</v>
       </c>
-      <c r="G88" s="63"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="27">
+      <c r="G88" s="83"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20">
         <f t="shared" ref="J88:J122" si="14" xml:space="preserve"> (   ($D$2*$B$4*1000000) / ($D$7 + ($D$3*H88*$D$4) ) ) -1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K88" s="27">
+      <c r="K88" s="20">
         <f t="shared" ref="K88:K122" si="15" xml:space="preserve"> (   ($D$2*$B$5*1000000) / ($D$7 + ($D$3*H88*$D$5) ) ) -1</f>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L88" s="26" t="e">
+      <c r="L88" s="19" t="e">
         <f xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H88*$D$5) ) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M88" s="28" t="e">
+      <c r="M88" s="21" t="e">
         <f t="shared" ref="M88:M122" si="16" xml:space="preserve"> (( ($D$8 - (1-$D$3)*H88)*$D$6) / (I88*$D$5) ) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N88" s="26">
+      <c r="N88" s="19">
         <f t="shared" ref="N88:N97" si="17">1/(SQRT(      (((I88*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H88*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O88" s="47">
+      <c r="O88" s="40">
         <f t="shared" ref="O88:O122" si="18">1/(SQRT(      (((I88*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H88*$D$5))/($D$2*$B$5*1000000))^2)     )    )</f>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="89" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F89" s="46">
+      <c r="F89" s="39">
         <v>3</v>
       </c>
-      <c r="G89" s="63"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="27">
+      <c r="G89" s="83"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K89" s="27">
+      <c r="K89" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L89" s="28" t="e">
+      <c r="L89" s="21" t="e">
         <f t="shared" ref="L89" si="19" xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H89*$D$5) ) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M89" s="28" t="e">
+      <c r="M89" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N89" s="26">
+      <c r="N89" s="19">
         <f t="shared" si="17"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O89" s="47">
+      <c r="O89" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="90" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F90" s="46">
+      <c r="F90" s="39">
         <v>4</v>
       </c>
-      <c r="G90" s="63"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="27">
+      <c r="G90" s="83"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K90" s="27">
+      <c r="K90" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L90" s="28" t="e">
+      <c r="L90" s="21" t="e">
         <f xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H90*$D$5) ) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M90" s="28" t="e">
+      <c r="M90" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N90" s="26">
+      <c r="N90" s="19">
         <f t="shared" si="17"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O90" s="47">
+      <c r="O90" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="91" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F91" s="46">
+      <c r="F91" s="39">
         <v>5</v>
       </c>
-      <c r="G91" s="63"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="27">
+      <c r="G91" s="83"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K91" s="27">
+      <c r="K91" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L91" s="28" t="e">
+      <c r="L91" s="21" t="e">
         <f t="shared" ref="L91:L122" si="20" xml:space="preserve"> ( ($D$8) / ( ( 1- $D$3)*H91*$D$5) ) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M91" s="28" t="e">
+      <c r="M91" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N91" s="26">
+      <c r="N91" s="19">
         <f t="shared" si="17"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O91" s="47">
+      <c r="O91" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="92" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F92" s="46">
+      <c r="F92" s="39">
         <v>6</v>
       </c>
-      <c r="G92" s="63"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="27">
+      <c r="G92" s="83"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K92" s="27">
+      <c r="K92" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L92" s="28" t="e">
+      <c r="L92" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M92" s="28" t="e">
+      <c r="M92" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N92" s="26">
+      <c r="N92" s="19">
         <f t="shared" si="17"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O92" s="47">
+      <c r="O92" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="93" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F93" s="46">
+      <c r="F93" s="39">
         <v>7</v>
       </c>
-      <c r="G93" s="63"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="27">
+      <c r="G93" s="83"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K93" s="27">
+      <c r="K93" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L93" s="28" t="e">
+      <c r="L93" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M93" s="28" t="e">
+      <c r="M93" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N93" s="26">
+      <c r="N93" s="19">
         <f t="shared" si="17"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O93" s="47">
+      <c r="O93" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="94" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F94" s="46">
+      <c r="F94" s="39">
         <v>8</v>
       </c>
-      <c r="G94" s="63"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="27">
+      <c r="G94" s="83"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K94" s="27">
+      <c r="K94" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L94" s="28" t="e">
+      <c r="L94" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M94" s="28" t="e">
+      <c r="M94" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N94" s="26">
+      <c r="N94" s="19">
         <f t="shared" si="17"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O94" s="47">
+      <c r="O94" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="95" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F95" s="46">
+      <c r="F95" s="39">
         <v>9</v>
       </c>
-      <c r="G95" s="63"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="27">
+      <c r="G95" s="83"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K95" s="27">
+      <c r="K95" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L95" s="28" t="e">
+      <c r="L95" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M95" s="28" t="e">
+      <c r="M95" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N95" s="26">
+      <c r="N95" s="19">
         <f t="shared" si="17"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O95" s="47">
+      <c r="O95" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="96" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F96" s="46">
+      <c r="F96" s="39">
         <v>10</v>
       </c>
-      <c r="G96" s="63"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="27">
+      <c r="G96" s="83"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K96" s="27">
+      <c r="K96" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L96" s="28" t="e">
+      <c r="L96" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M96" s="28" t="e">
+      <c r="M96" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N96" s="26">
+      <c r="N96" s="19">
         <f t="shared" si="17"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O96" s="47">
+      <c r="O96" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="97" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F97" s="46">
+      <c r="F97" s="39">
         <v>11</v>
       </c>
-      <c r="G97" s="63"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="27">
+      <c r="G97" s="83"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K97" s="27">
+      <c r="K97" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L97" s="28" t="e">
+      <c r="L97" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M97" s="28" t="e">
+      <c r="M97" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N97" s="26">
+      <c r="N97" s="19">
         <f t="shared" si="17"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O97" s="47">
+      <c r="O97" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="98" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F98" s="48">
+      <c r="F98" s="41">
         <v>12</v>
       </c>
-      <c r="G98" s="72"/>
-      <c r="H98" s="33"/>
-      <c r="I98" s="33"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
       <c r="J98" s="15">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
@@ -7400,384 +8894,384 @@
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L98" s="32" t="e">
+      <c r="L98" s="25" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M98" s="32" t="e">
+      <c r="M98" s="25" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N98" s="33">
+      <c r="N98" s="26">
         <f>1/(SQRT(      (((I98*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H98*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O98" s="49">
+      <c r="O98" s="42">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="99" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F99" s="44">
+      <c r="F99" s="37">
         <v>1</v>
       </c>
-      <c r="G99" s="71" t="s">
+      <c r="G99" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="H99" s="35"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="36">
+      <c r="H99" s="28"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="29">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K99" s="36">
+      <c r="K99" s="29">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L99" s="38" t="e">
+      <c r="L99" s="31" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M99" s="38" t="e">
+      <c r="M99" s="31" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N99" s="35">
+      <c r="N99" s="28">
         <f t="shared" ref="N99:N122" si="21">1/(SQRT(      (((I99*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H99*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O99" s="45">
+      <c r="O99" s="38">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="100" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F100" s="46">
+      <c r="F100" s="39">
         <v>2</v>
       </c>
-      <c r="G100" s="63"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="27">
+      <c r="G100" s="83"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K100" s="27">
+      <c r="K100" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L100" s="28" t="e">
+      <c r="L100" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M100" s="28" t="e">
+      <c r="M100" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N100" s="26">
+      <c r="N100" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O100" s="47">
+      <c r="O100" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="101" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F101" s="46">
+      <c r="F101" s="39">
         <v>3</v>
       </c>
-      <c r="G101" s="63"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="27">
+      <c r="G101" s="83"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K101" s="27">
+      <c r="K101" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L101" s="28" t="e">
+      <c r="L101" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M101" s="28" t="e">
+      <c r="M101" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N101" s="26">
+      <c r="N101" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O101" s="47">
+      <c r="O101" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="102" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F102" s="46">
+      <c r="F102" s="39">
         <v>4</v>
       </c>
-      <c r="G102" s="63"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="27">
+      <c r="G102" s="83"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K102" s="27">
+      <c r="K102" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L102" s="28" t="e">
+      <c r="L102" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M102" s="28" t="e">
+      <c r="M102" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N102" s="26">
+      <c r="N102" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O102" s="47">
+      <c r="O102" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="103" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F103" s="46">
+      <c r="F103" s="39">
         <v>5</v>
       </c>
-      <c r="G103" s="63"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="27">
+      <c r="G103" s="83"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K103" s="27">
+      <c r="K103" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L103" s="28" t="e">
+      <c r="L103" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M103" s="28" t="e">
+      <c r="M103" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N103" s="26">
+      <c r="N103" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O103" s="47">
+      <c r="O103" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="104" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F104" s="46">
+      <c r="F104" s="39">
         <v>6</v>
       </c>
-      <c r="G104" s="63"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="27">
+      <c r="G104" s="83"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K104" s="27">
+      <c r="K104" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L104" s="28" t="e">
+      <c r="L104" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M104" s="28" t="e">
+      <c r="M104" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N104" s="26">
+      <c r="N104" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O104" s="47">
+      <c r="O104" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="105" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F105" s="46">
+      <c r="F105" s="39">
         <v>7</v>
       </c>
-      <c r="G105" s="63"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="29"/>
-      <c r="J105" s="27">
+      <c r="G105" s="83"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K105" s="27">
+      <c r="K105" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L105" s="28" t="e">
+      <c r="L105" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M105" s="28" t="e">
+      <c r="M105" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N105" s="26">
+      <c r="N105" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O105" s="47">
+      <c r="O105" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="106" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F106" s="46">
+      <c r="F106" s="39">
         <v>8</v>
       </c>
-      <c r="G106" s="63"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="27">
+      <c r="G106" s="83"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="22"/>
+      <c r="J106" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K106" s="27">
+      <c r="K106" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L106" s="28" t="e">
+      <c r="L106" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M106" s="28" t="e">
+      <c r="M106" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N106" s="26">
+      <c r="N106" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O106" s="47">
+      <c r="O106" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="107" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F107" s="46">
+      <c r="F107" s="39">
         <v>9</v>
       </c>
-      <c r="G107" s="63"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="27">
+      <c r="G107" s="83"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K107" s="27">
+      <c r="K107" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L107" s="28" t="e">
+      <c r="L107" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M107" s="28" t="e">
+      <c r="M107" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N107" s="26">
+      <c r="N107" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O107" s="47">
+      <c r="O107" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="108" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F108" s="46">
+      <c r="F108" s="39">
         <v>10</v>
       </c>
-      <c r="G108" s="63"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="27">
+      <c r="G108" s="83"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K108" s="27">
+      <c r="K108" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L108" s="28" t="e">
+      <c r="L108" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M108" s="28" t="e">
+      <c r="M108" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N108" s="26">
+      <c r="N108" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O108" s="47">
+      <c r="O108" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="109" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F109" s="46">
+      <c r="F109" s="39">
         <v>11</v>
       </c>
-      <c r="G109" s="63"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="27">
+      <c r="G109" s="83"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K109" s="27">
+      <c r="K109" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L109" s="28" t="e">
+      <c r="L109" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M109" s="28" t="e">
+      <c r="M109" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N109" s="26">
+      <c r="N109" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O109" s="47">
+      <c r="O109" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="110" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F110" s="48">
+      <c r="F110" s="41">
         <v>12</v>
       </c>
-      <c r="G110" s="72"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="31"/>
+      <c r="G110" s="92"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="24"/>
       <c r="J110" s="15">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
@@ -7786,405 +9280,405 @@
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L110" s="32" t="e">
+      <c r="L110" s="25" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M110" s="32" t="e">
+      <c r="M110" s="25" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N110" s="33">
+      <c r="N110" s="26">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O110" s="49">
+      <c r="O110" s="42">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="111" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F111" s="46">
+      <c r="F111" s="39">
         <v>1</v>
       </c>
-      <c r="G111" s="63" t="s">
+      <c r="G111" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="H111" s="29"/>
-      <c r="I111" s="30"/>
-      <c r="J111" s="27">
+      <c r="H111" s="22"/>
+      <c r="I111" s="23"/>
+      <c r="J111" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K111" s="27">
+      <c r="K111" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L111" s="28" t="e">
+      <c r="L111" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M111" s="28" t="e">
+      <c r="M111" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N111" s="26">
+      <c r="N111" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O111" s="47">
+      <c r="O111" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="112" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F112" s="46">
+      <c r="F112" s="39">
         <v>2</v>
       </c>
-      <c r="G112" s="63"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="30"/>
-      <c r="J112" s="27">
+      <c r="G112" s="83"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K112" s="27">
+      <c r="K112" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L112" s="28" t="e">
+      <c r="L112" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M112" s="28" t="e">
+      <c r="M112" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N112" s="26">
+      <c r="N112" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O112" s="47">
+      <c r="O112" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="113" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F113" s="46">
+      <c r="F113" s="39">
         <v>3</v>
       </c>
-      <c r="G113" s="63"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="27">
+      <c r="G113" s="83"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K113" s="27">
+      <c r="K113" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L113" s="28" t="e">
+      <c r="L113" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M113" s="28" t="e">
+      <c r="M113" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N113" s="26">
+      <c r="N113" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O113" s="47">
+      <c r="O113" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="114" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F114" s="46">
+      <c r="F114" s="39">
         <v>4</v>
       </c>
-      <c r="G114" s="63"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="30"/>
-      <c r="J114" s="27">
+      <c r="G114" s="83"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K114" s="27">
+      <c r="K114" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L114" s="28" t="e">
+      <c r="L114" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M114" s="28" t="e">
+      <c r="M114" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N114" s="26">
+      <c r="N114" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O114" s="47">
+      <c r="O114" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="115" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F115" s="46">
+      <c r="F115" s="39">
         <v>5</v>
       </c>
-      <c r="G115" s="63"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="30"/>
-      <c r="J115" s="27">
+      <c r="G115" s="83"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K115" s="27">
+      <c r="K115" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L115" s="28" t="e">
+      <c r="L115" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M115" s="28" t="e">
+      <c r="M115" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N115" s="26">
+      <c r="N115" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O115" s="47">
+      <c r="O115" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="116" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F116" s="46">
+      <c r="F116" s="39">
         <v>6</v>
       </c>
-      <c r="G116" s="63"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="30"/>
-      <c r="J116" s="27">
+      <c r="G116" s="83"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="23"/>
+      <c r="J116" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K116" s="27">
+      <c r="K116" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L116" s="28" t="e">
+      <c r="L116" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M116" s="28" t="e">
+      <c r="M116" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N116" s="26">
+      <c r="N116" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O116" s="47">
+      <c r="O116" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="117" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F117" s="46">
+      <c r="F117" s="39">
         <v>7</v>
       </c>
-      <c r="G117" s="63"/>
-      <c r="H117" s="29"/>
-      <c r="I117" s="30"/>
-      <c r="J117" s="27">
+      <c r="G117" s="83"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="23"/>
+      <c r="J117" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K117" s="27">
+      <c r="K117" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L117" s="28" t="e">
+      <c r="L117" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M117" s="28" t="e">
+      <c r="M117" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N117" s="26">
+      <c r="N117" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O117" s="47">
+      <c r="O117" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="118" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F118" s="46">
+      <c r="F118" s="39">
         <v>8</v>
       </c>
-      <c r="G118" s="63"/>
-      <c r="H118" s="29"/>
-      <c r="I118" s="30"/>
-      <c r="J118" s="27">
+      <c r="G118" s="83"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K118" s="27">
+      <c r="K118" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L118" s="28" t="e">
+      <c r="L118" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M118" s="28" t="e">
+      <c r="M118" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N118" s="26">
+      <c r="N118" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O118" s="47">
+      <c r="O118" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="119" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F119" s="46">
+      <c r="F119" s="39">
         <v>9</v>
       </c>
-      <c r="G119" s="63"/>
-      <c r="H119" s="29"/>
-      <c r="I119" s="30"/>
-      <c r="J119" s="27">
+      <c r="G119" s="83"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K119" s="27">
+      <c r="K119" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L119" s="28" t="e">
+      <c r="L119" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M119" s="28" t="e">
+      <c r="M119" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N119" s="26">
+      <c r="N119" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O119" s="47">
+      <c r="O119" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="120" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F120" s="46">
+      <c r="F120" s="39">
         <v>10</v>
       </c>
-      <c r="G120" s="63"/>
-      <c r="H120" s="29"/>
-      <c r="I120" s="30"/>
-      <c r="J120" s="27">
+      <c r="G120" s="83"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K120" s="27">
+      <c r="K120" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L120" s="28" t="e">
+      <c r="L120" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M120" s="28" t="e">
+      <c r="M120" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N120" s="26">
+      <c r="N120" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O120" s="47">
+      <c r="O120" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="121" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F121" s="46">
+      <c r="F121" s="39">
         <v>11</v>
       </c>
-      <c r="G121" s="63"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="30"/>
-      <c r="J121" s="27">
+      <c r="G121" s="83"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="20">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K121" s="27">
+      <c r="K121" s="20">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L121" s="28" t="e">
+      <c r="L121" s="21" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M121" s="28" t="e">
+      <c r="M121" s="21" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N121" s="26">
+      <c r="N121" s="19">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O121" s="47">
+      <c r="O121" s="40">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>
     </row>
     <row r="122" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F122" s="50">
+      <c r="F122" s="43">
         <v>12</v>
       </c>
-      <c r="G122" s="64"/>
-      <c r="H122" s="51"/>
-      <c r="I122" s="52"/>
-      <c r="J122" s="53">
+      <c r="G122" s="84"/>
+      <c r="H122" s="44"/>
+      <c r="I122" s="45"/>
+      <c r="J122" s="46">
         <f t="shared" si="14"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K122" s="53">
+      <c r="K122" s="46">
         <f t="shared" si="15"/>
         <v>0.83282435452232573</v>
       </c>
-      <c r="L122" s="54" t="e">
+      <c r="L122" s="47" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M122" s="54" t="e">
+      <c r="M122" s="47" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N122" s="55">
+      <c r="N122" s="48">
         <f t="shared" si="21"/>
         <v>1.5828937607238271</v>
       </c>
-      <c r="O122" s="56">
+      <c r="O122" s="49">
         <f t="shared" si="18"/>
         <v>1.8328243545223257</v>
       </c>

--- a/Documentos/Tornillos.xlsx
+++ b/Documentos/Tornillos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. EUE\Micro-Satellite-Design-Analysis\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7314CC64-1E82-400E-92E6-B6C24416CE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C03EA9-AA56-4C27-B58F-04C58DBDFB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5BA9392F-C683-4373-9077-1D6BAC03E8AC}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5BA9392F-C683-4373-9077-1D6BAC03E8AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Especificaciones seno" sheetId="4" r:id="rId1"/>
@@ -356,7 +356,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -961,6 +961,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1006,23 +1023,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,9 +1051,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>211045</xdr:colOff>
+      <xdr:colOff>207235</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>60575</xdr:rowOff>
+      <xdr:rowOff>56765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1186,9 +1186,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>132557</xdr:colOff>
+      <xdr:colOff>136367</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>17081</xdr:rowOff>
+      <xdr:rowOff>20891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1530,16 +1530,16 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="F1" s="78" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="F1" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -1585,7 +1585,7 @@
   <dimension ref="A1:AK46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3759,49 +3759,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6416B13E-8A02-4DD4-A2E9-C9FE51FBF3E8}">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="79" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="P1" s="82" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="P1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="79" t="s">
+      <c r="Q1" s="89"/>
+      <c r="R1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="81"/>
-      <c r="AE1" s="82" t="s">
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="90"/>
+      <c r="AE1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="79" t="s">
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="81"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="90"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4787,42 +4787,42 @@
     </row>
     <row r="18" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="79" t="s">
+      <c r="B19" s="89"/>
+      <c r="C19" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="81"/>
-      <c r="P19" s="82" t="s">
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
+      <c r="P19" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="79" t="s">
+      <c r="Q19" s="89"/>
+      <c r="R19" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="81"/>
-      <c r="AE19" s="82" t="s">
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="90"/>
+      <c r="AE19" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="AF19" s="80"/>
-      <c r="AG19" s="79" t="s">
+      <c r="AF19" s="89"/>
+      <c r="AG19" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="AH19" s="80"/>
-      <c r="AI19" s="80"/>
-      <c r="AJ19" s="80"/>
-      <c r="AK19" s="80"/>
-      <c r="AL19" s="81"/>
+      <c r="AH19" s="89"/>
+      <c r="AI19" s="89"/>
+      <c r="AJ19" s="89"/>
+      <c r="AK19" s="89"/>
+      <c r="AL19" s="90"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -5470,8 +5470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9C43A2-57CD-49BE-9D02-459CD6B79BFF}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5480,30 +5480,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
       <c r="F1" s="33"/>
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="89"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="50" t="s">
         <v>59</v>
       </c>
       <c r="M1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="88" t="s">
+      <c r="N1" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="90"/>
+      <c r="O1" s="99"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="67" t="s">
@@ -5565,7 +5565,7 @@
       <c r="F3" s="37">
         <v>1</v>
       </c>
-      <c r="G3" s="91" t="s">
+      <c r="G3" s="100" t="s">
         <v>67</v>
       </c>
       <c r="H3" s="55">
@@ -5593,12 +5593,12 @@
         <v>6.8895264901906934</v>
       </c>
       <c r="N3" s="59">
-        <f>1/(SQRT(      (((I3*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H3*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
-        <v>1.5818240650619413</v>
+        <f>1/(SQRT(      (((I3*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H3*$D$4))/($D$2*$B$4*1000000))^2)     )    ) -1</f>
+        <v>0.58182406506194129</v>
       </c>
       <c r="O3" s="60">
-        <f>1/(SQRT(      (((I3*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H3*$D$5))/($D$2*$B$5*1000000))^2)     )    )</f>
-        <v>1.8309532532938202</v>
+        <f>1/(SQRT(      (((I3*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H3*$D$5))/($D$2*$B$5*1000000))^2)     )    ) -1</f>
+        <v>0.83095325329382019</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -5617,7 +5617,7 @@
       <c r="F4" s="39">
         <v>2</v>
       </c>
-      <c r="G4" s="83"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="56">
         <f>ABS('Forces Input'!AG5)</f>
         <v>291.95209999999997</v>
@@ -5643,12 +5643,12 @@
         <v>6.8894631904522905</v>
       </c>
       <c r="N4" s="61">
-        <f t="shared" ref="N4:N38" si="3">1/(SQRT(      (((I4*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H4*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
-        <v>1.5818240636791683</v>
+        <f t="shared" ref="N4:N38" si="3">1/(SQRT(      (((I4*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H4*$D$4))/($D$2*$B$4*1000000))^2)     )    ) -1</f>
+        <v>0.58182406367916828</v>
       </c>
       <c r="O4" s="62">
-        <f t="shared" ref="O4:O38" si="4">1/(SQRT(      (((I4*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H4*$D$5))/($D$2*$B$5*1000000))^2)     )    )</f>
-        <v>1.8309532488246747</v>
+        <f t="shared" ref="O4:O38" si="4">1/(SQRT(      (((I4*$D$5)/($B$7*1000000*$D$2))^2)+((($D$7+($D$3*H4*$D$5))/($D$2*$B$5*1000000))^2)     )    ) -1</f>
+        <v>0.8309532488246747</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -5667,7 +5667,7 @@
       <c r="F5" s="39">
         <v>3</v>
       </c>
-      <c r="G5" s="83"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="56">
         <f>ABS('Forces Input'!AG6)</f>
         <v>315.58600000000001</v>
@@ -5694,11 +5694,11 @@
       </c>
       <c r="N5" s="61">
         <f t="shared" si="3"/>
-        <v>1.5807634317562147</v>
+        <v>0.5807634317562147</v>
       </c>
       <c r="O5" s="62">
         <f t="shared" si="4"/>
-        <v>1.8287312296886904</v>
+        <v>0.8287312296886904</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -5717,7 +5717,7 @@
       <c r="F6" s="39">
         <v>4</v>
       </c>
-      <c r="G6" s="83"/>
+      <c r="G6" s="92"/>
       <c r="H6" s="56">
         <f>ABS('Forces Input'!AG7)</f>
         <v>722.70270000000005</v>
@@ -5744,11 +5744,11 @@
       </c>
       <c r="N6" s="61">
         <f t="shared" si="3"/>
-        <v>1.580899964597388</v>
+        <v>0.58089996459738802</v>
       </c>
       <c r="O6" s="62">
         <f t="shared" si="4"/>
-        <v>1.8295848942865629</v>
+        <v>0.8295848942865629</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -5767,7 +5767,7 @@
       <c r="F7" s="39">
         <v>5</v>
       </c>
-      <c r="G7" s="83"/>
+      <c r="G7" s="92"/>
       <c r="H7" s="56">
         <f>ABS('Forces Input'!AG8)</f>
         <v>315.58190000000002</v>
@@ -5794,11 +5794,11 @@
       </c>
       <c r="N7" s="61">
         <f t="shared" si="3"/>
-        <v>1.580763455433394</v>
+        <v>0.58076345543339403</v>
       </c>
       <c r="O7" s="62">
         <f t="shared" si="4"/>
-        <v>1.8287312743110629</v>
+        <v>0.82873127431106286</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -5817,7 +5817,7 @@
       <c r="F8" s="39">
         <v>6</v>
       </c>
-      <c r="G8" s="83"/>
+      <c r="G8" s="92"/>
       <c r="H8" s="56">
         <f>ABS('Forces Input'!AG9)</f>
         <v>722.70249999999999</v>
@@ -5844,11 +5844,11 @@
       </c>
       <c r="N8" s="61">
         <f t="shared" si="3"/>
-        <v>1.5808999645823325</v>
+        <v>0.58089996458233251</v>
       </c>
       <c r="O8" s="62">
         <f t="shared" si="4"/>
-        <v>1.8295848939775619</v>
+        <v>0.82958489397756185</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -5858,7 +5858,7 @@
       <c r="F9" s="39">
         <v>7</v>
       </c>
-      <c r="G9" s="83"/>
+      <c r="G9" s="92"/>
       <c r="H9" s="56">
         <f>ABS('Forces Input'!AG10)</f>
         <v>722.6979</v>
@@ -5885,11 +5885,11 @@
       </c>
       <c r="N9" s="61">
         <f t="shared" si="3"/>
-        <v>1.5808999793691896</v>
+        <v>0.58089997936918958</v>
       </c>
       <c r="O9" s="62">
         <f t="shared" si="4"/>
-        <v>1.829584919052176</v>
+        <v>0.82958491905217602</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -5901,7 +5901,7 @@
       <c r="F10" s="39">
         <v>8</v>
       </c>
-      <c r="G10" s="83"/>
+      <c r="G10" s="92"/>
       <c r="H10" s="56">
         <f>ABS('Forces Input'!AG11)</f>
         <v>315.58210000000003</v>
@@ -5928,18 +5928,18 @@
       </c>
       <c r="N10" s="61">
         <f t="shared" si="3"/>
-        <v>1.5807634446723478</v>
+        <v>0.58076344467234775</v>
       </c>
       <c r="O10" s="62">
         <f t="shared" si="4"/>
-        <v>1.8287312517297198</v>
+        <v>0.82873125172971984</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F11" s="39">
         <v>9</v>
       </c>
-      <c r="G11" s="83"/>
+      <c r="G11" s="92"/>
       <c r="H11" s="56">
         <f>ABS('Forces Input'!AG12)</f>
         <v>722.69820000000004</v>
@@ -5966,18 +5966,18 @@
       </c>
       <c r="N11" s="61">
         <f t="shared" si="3"/>
-        <v>1.5808999786223858</v>
+        <v>0.58089997862238585</v>
       </c>
       <c r="O11" s="62">
         <f t="shared" si="4"/>
-        <v>1.8295849178795232</v>
+        <v>0.82958491787952315</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F12" s="39">
         <v>10</v>
       </c>
-      <c r="G12" s="83"/>
+      <c r="G12" s="92"/>
       <c r="H12" s="56">
         <f>ABS('Forces Input'!AG13)</f>
         <v>315.58629999999999</v>
@@ -6004,18 +6004,18 @@
       </c>
       <c r="N12" s="61">
         <f t="shared" si="3"/>
-        <v>1.5807634260531975</v>
+        <v>0.58076342605319753</v>
       </c>
       <c r="O12" s="62">
         <f t="shared" si="4"/>
-        <v>1.8287312179896449</v>
+        <v>0.82873121798964489</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F13" s="39">
         <v>11</v>
       </c>
-      <c r="G13" s="83"/>
+      <c r="G13" s="92"/>
       <c r="H13" s="56">
         <f>ABS('Forces Input'!AG14)</f>
         <v>291.95339999999999</v>
@@ -6042,18 +6042,18 @@
       </c>
       <c r="N13" s="61">
         <f t="shared" si="3"/>
-        <v>1.5818240615580645</v>
+        <v>0.58182406155806454</v>
       </c>
       <c r="O13" s="62">
         <f t="shared" si="4"/>
-        <v>1.8309532461166025</v>
+        <v>0.83095324611660248</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F14" s="41">
         <v>12</v>
       </c>
-      <c r="G14" s="92"/>
+      <c r="G14" s="101"/>
       <c r="H14" s="57">
         <f>ABS('Forces Input'!AG15)</f>
         <v>291.95359999999999</v>
@@ -6079,19 +6079,19 @@
         <v>6.889444769897576</v>
       </c>
       <c r="N14" s="63">
-        <f>1/(SQRT(      (((I14*$D$4)/($B$6*1000000*$D$2))^2)+((($D$7+($D$3*H14*$D$4))/($D$2*$B$4*1000000))^2)     )    )</f>
-        <v>1.581824058374856</v>
+        <f t="shared" si="3"/>
+        <v>0.58182405837485596</v>
       </c>
       <c r="O14" s="64">
         <f t="shared" si="4"/>
-        <v>1.8309532396216419</v>
+        <v>0.83095323962164191</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F15" s="37">
         <v>1</v>
       </c>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="100" t="s">
         <v>68</v>
       </c>
       <c r="H15" s="55">
@@ -6120,11 +6120,11 @@
       </c>
       <c r="N15" s="59">
         <f t="shared" si="3"/>
-        <v>1.5818240638922541</v>
+        <v>0.58182406389225405</v>
       </c>
       <c r="O15" s="60">
         <f t="shared" si="4"/>
-        <v>1.8309532506663513</v>
+        <v>0.83095325066635128</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -6132,7 +6132,7 @@
       <c r="F16" s="39">
         <v>2</v>
       </c>
-      <c r="G16" s="83"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="56">
         <f>ABS('Forces Input'!R5)</f>
         <v>291.95190000000002</v>
@@ -6159,18 +6159,18 @@
       </c>
       <c r="N16" s="61">
         <f t="shared" si="3"/>
-        <v>1.581824063992209</v>
+        <v>0.58182406399220898</v>
       </c>
       <c r="O16" s="62">
         <f t="shared" si="4"/>
-        <v>1.8309532492130396</v>
+        <v>0.83095324921303959</v>
       </c>
     </row>
     <row r="17" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F17" s="39">
         <v>3</v>
       </c>
-      <c r="G17" s="83"/>
+      <c r="G17" s="92"/>
       <c r="H17" s="56">
         <f>ABS('Forces Input'!R6)</f>
         <v>722.69770000000005</v>
@@ -6197,18 +6197,18 @@
       </c>
       <c r="N17" s="61">
         <f t="shared" si="3"/>
-        <v>1.5808999798706074</v>
+        <v>0.58089997987060737</v>
       </c>
       <c r="O17" s="62">
         <f t="shared" si="4"/>
-        <v>1.8295849198414906</v>
+        <v>0.82958491984149063</v>
       </c>
     </row>
     <row r="18" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F18" s="39">
         <v>4</v>
       </c>
-      <c r="G18" s="83"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="56">
         <f>ABS('Forces Input'!R7)</f>
         <v>315.58159999999998</v>
@@ -6235,18 +6235,18 @@
       </c>
       <c r="N18" s="61">
         <f t="shared" si="3"/>
-        <v>1.5807634426036503</v>
+        <v>0.58076344260365032</v>
       </c>
       <c r="O18" s="62">
         <f t="shared" si="4"/>
-        <v>1.8287312466438868</v>
+        <v>0.82873124664388675</v>
       </c>
     </row>
     <row r="19" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F19" s="39">
         <v>5</v>
       </c>
-      <c r="G19" s="83"/>
+      <c r="G19" s="92"/>
       <c r="H19" s="56">
         <f>ABS('Forces Input'!R8)</f>
         <v>722.69830000000002</v>
@@ -6273,18 +6273,18 @@
       </c>
       <c r="N19" s="61">
         <f t="shared" si="3"/>
-        <v>1.5808999781049866</v>
+        <v>0.58089997810498661</v>
       </c>
       <c r="O19" s="62">
         <f t="shared" si="4"/>
-        <v>1.8295849169177318</v>
+        <v>0.82958491691773184</v>
       </c>
     </row>
     <row r="20" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F20" s="39">
         <v>6</v>
       </c>
-      <c r="G20" s="83"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="56">
         <f>ABS('Forces Input'!R9)</f>
         <v>315.58530000000002</v>
@@ -6311,18 +6311,18 @@
       </c>
       <c r="N20" s="61">
         <f t="shared" si="3"/>
-        <v>1.5807634293856285</v>
+        <v>0.58076342938562853</v>
       </c>
       <c r="O20" s="62">
         <f t="shared" si="4"/>
-        <v>1.8287312236849524</v>
+        <v>0.82873122368495244</v>
       </c>
     </row>
     <row r="21" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F21" s="39">
         <v>7</v>
       </c>
-      <c r="G21" s="83"/>
+      <c r="G21" s="92"/>
       <c r="H21" s="56">
         <f>ABS('Forces Input'!R10)</f>
         <v>315.58589999999998</v>
@@ -6349,18 +6349,18 @@
       </c>
       <c r="N21" s="61">
         <f t="shared" si="3"/>
-        <v>1.5807634309304452</v>
+        <v>0.58076343093044525</v>
       </c>
       <c r="O21" s="62">
         <f t="shared" si="4"/>
-        <v>1.828731227796313</v>
+        <v>0.82873122779631303</v>
       </c>
     </row>
     <row r="22" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F22" s="39">
         <v>8</v>
       </c>
-      <c r="G22" s="83"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="56">
         <f>ABS('Forces Input'!R11)</f>
         <v>722.70309999999995</v>
@@ -6387,18 +6387,18 @@
       </c>
       <c r="N22" s="61">
         <f t="shared" si="3"/>
-        <v>1.580899964624022</v>
+        <v>0.58089996462402205</v>
       </c>
       <c r="O22" s="62">
         <f t="shared" si="4"/>
-        <v>1.8295848948971694</v>
+        <v>0.82958489489716936</v>
       </c>
     </row>
     <row r="23" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F23" s="39">
         <v>9</v>
       </c>
-      <c r="G23" s="83"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="56">
         <f>ABS('Forces Input'!R12)</f>
         <v>315.58190000000002</v>
@@ -6425,18 +6425,18 @@
       </c>
       <c r="N23" s="61">
         <f t="shared" si="3"/>
-        <v>1.5807634479228005</v>
+        <v>0.58076344792280055</v>
       </c>
       <c r="O23" s="62">
         <f t="shared" si="4"/>
-        <v>1.8287312583574946</v>
+        <v>0.82873125835749462</v>
       </c>
     </row>
     <row r="24" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F24" s="39">
         <v>10</v>
       </c>
-      <c r="G24" s="83"/>
+      <c r="G24" s="92"/>
       <c r="H24" s="56">
         <f>ABS('Forces Input'!R13)</f>
         <v>722.70320000000004</v>
@@ -6463,18 +6463,18 @@
       </c>
       <c r="N24" s="61">
         <f t="shared" si="3"/>
-        <v>1.580899964247253</v>
+        <v>0.58089996424725299</v>
       </c>
       <c r="O24" s="62">
         <f t="shared" si="4"/>
-        <v>1.8295848942344368</v>
+        <v>0.82958489423443682</v>
       </c>
     </row>
     <row r="25" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F25" s="39">
         <v>11</v>
       </c>
-      <c r="G25" s="83"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="56">
         <f>ABS('Forces Input'!R14)</f>
         <v>291.95269999999999</v>
@@ -6501,18 +6501,18 @@
       </c>
       <c r="N25" s="61">
         <f t="shared" si="3"/>
-        <v>1.5818240592319126</v>
+        <v>0.5818240592319126</v>
       </c>
       <c r="O25" s="62">
         <f t="shared" si="4"/>
-        <v>1.8309532401956414</v>
+        <v>0.83095324019564143</v>
       </c>
     </row>
     <row r="26" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F26" s="41">
         <v>12</v>
       </c>
-      <c r="G26" s="92"/>
+      <c r="G26" s="101"/>
       <c r="H26" s="57">
         <f>ABS('Forces Input'!R15)</f>
         <v>291.95400000000001</v>
@@ -6539,18 +6539,18 @@
       </c>
       <c r="N26" s="63">
         <f t="shared" si="3"/>
-        <v>1.581824059927263</v>
+        <v>0.58182405992726305</v>
       </c>
       <c r="O26" s="64">
         <f t="shared" si="4"/>
-        <v>1.8309532434798836</v>
+        <v>0.83095324347988364</v>
       </c>
     </row>
     <row r="27" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F27" s="39">
         <v>1</v>
       </c>
-      <c r="G27" s="83" t="s">
+      <c r="G27" s="92" t="s">
         <v>69</v>
       </c>
       <c r="H27" s="56" cm="1">
@@ -6579,18 +6579,18 @@
       </c>
       <c r="N27" s="61">
         <f t="shared" si="3"/>
-        <v>1.5819204598593668</v>
+        <v>0.5819204598593668</v>
       </c>
       <c r="O27" s="62">
         <f t="shared" si="4"/>
-        <v>1.8312463552209917</v>
+        <v>0.83124635522099166</v>
       </c>
     </row>
     <row r="28" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F28" s="39">
         <v>2</v>
       </c>
-      <c r="G28" s="83"/>
+      <c r="G28" s="92"/>
       <c r="H28" s="56">
         <v>355.31119999999999</v>
       </c>
@@ -6616,18 +6616,18 @@
       </c>
       <c r="N28" s="61">
         <f t="shared" si="3"/>
-        <v>1.5819204606326895</v>
+        <v>0.58192046063268954</v>
       </c>
       <c r="O28" s="62">
         <f t="shared" si="4"/>
-        <v>1.8312463564501271</v>
+        <v>0.83124635645012712</v>
       </c>
     </row>
     <row r="29" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F29" s="39">
         <v>3</v>
       </c>
-      <c r="G29" s="83"/>
+      <c r="G29" s="92"/>
       <c r="H29" s="56">
         <v>673.11210000000005</v>
       </c>
@@ -6653,18 +6653,18 @@
       </c>
       <c r="N29" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809640634319075</v>
+        <v>0.58096406343190754</v>
       </c>
       <c r="O29" s="62">
         <f t="shared" si="4"/>
-        <v>1.8296525204061402</v>
+        <v>0.82965252040614024</v>
       </c>
     </row>
     <row r="30" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F30" s="39">
         <v>4</v>
       </c>
-      <c r="G30" s="83"/>
+      <c r="G30" s="92"/>
       <c r="H30" s="56">
         <v>673.11339999999996</v>
       </c>
@@ -6690,18 +6690,18 @@
       </c>
       <c r="N30" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809640593641765</v>
+        <v>0.5809640593641765</v>
       </c>
       <c r="O30" s="62">
         <f t="shared" si="4"/>
-        <v>1.8296525135565678</v>
+        <v>0.82965251355656777</v>
       </c>
     </row>
     <row r="31" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F31" s="39">
         <v>5</v>
       </c>
-      <c r="G31" s="83"/>
+      <c r="G31" s="92"/>
       <c r="H31" s="56">
         <v>673.11279999999999</v>
       </c>
@@ -6727,18 +6727,18 @@
       </c>
       <c r="N31" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809640636324369</v>
+        <v>0.58096406363243691</v>
       </c>
       <c r="O31" s="62">
         <f t="shared" si="4"/>
-        <v>1.8296525218021489</v>
+        <v>0.82965252180214888</v>
       </c>
     </row>
     <row r="32" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F32" s="39">
         <v>6</v>
       </c>
-      <c r="G32" s="83"/>
+      <c r="G32" s="92"/>
       <c r="H32" s="56">
         <v>673.11379999999997</v>
       </c>
@@ -6764,18 +6764,18 @@
       </c>
       <c r="N32" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809640613510145</v>
+        <v>0.58096406135101453</v>
       </c>
       <c r="O32" s="62">
         <f t="shared" si="4"/>
-        <v>1.8296525183357097</v>
+        <v>0.82965251833570974</v>
       </c>
     </row>
     <row r="33" spans="5:17" x14ac:dyDescent="0.3">
       <c r="F33" s="39">
         <v>7</v>
       </c>
-      <c r="G33" s="83"/>
+      <c r="G33" s="92"/>
       <c r="H33" s="56">
         <v>673.1123</v>
       </c>
@@ -6801,18 +6801,18 @@
       </c>
       <c r="N33" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809640633297226</v>
+        <v>0.58096406332972261</v>
       </c>
       <c r="O33" s="62">
         <f t="shared" si="4"/>
-        <v>1.8296525204658605</v>
+        <v>0.82965252046586047</v>
       </c>
     </row>
     <row r="34" spans="5:17" x14ac:dyDescent="0.3">
       <c r="F34" s="39">
         <v>8</v>
       </c>
-      <c r="G34" s="83"/>
+      <c r="G34" s="92"/>
       <c r="H34" s="56">
         <v>673.11429999999996</v>
       </c>
@@ -6838,18 +6838,18 @@
       </c>
       <c r="N34" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809640564081664</v>
+        <v>0.5809640564081664</v>
       </c>
       <c r="O34" s="62">
         <f t="shared" si="4"/>
-        <v>1.8296525085170763</v>
+        <v>0.82965250851707628</v>
       </c>
     </row>
     <row r="35" spans="5:17" x14ac:dyDescent="0.3">
       <c r="F35" s="39">
         <v>9</v>
       </c>
-      <c r="G35" s="83"/>
+      <c r="G35" s="92"/>
       <c r="H35" s="56">
         <v>673.11180000000002</v>
       </c>
@@ -6875,18 +6875,18 @@
       </c>
       <c r="N35" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809640646393004</v>
+        <v>0.58096406463930039</v>
       </c>
       <c r="O35" s="62">
         <f t="shared" si="4"/>
-        <v>1.8296525225581826</v>
+        <v>0.82965252255818256</v>
       </c>
     </row>
     <row r="36" spans="5:17" x14ac:dyDescent="0.3">
       <c r="F36" s="39">
         <v>10</v>
       </c>
-      <c r="G36" s="83"/>
+      <c r="G36" s="92"/>
       <c r="H36" s="56">
         <v>673.11429999999996</v>
       </c>
@@ -6912,18 +6912,18 @@
       </c>
       <c r="N36" s="61">
         <f t="shared" si="3"/>
-        <v>1.5809640565799079</v>
+        <v>0.58096405657990791</v>
       </c>
       <c r="O36" s="62">
         <f t="shared" si="4"/>
-        <v>1.8296525088822928</v>
+        <v>0.82965250888229281</v>
       </c>
     </row>
     <row r="37" spans="5:17" x14ac:dyDescent="0.3">
       <c r="F37" s="39">
         <v>11</v>
       </c>
-      <c r="G37" s="83"/>
+      <c r="G37" s="92"/>
       <c r="H37" s="56">
         <v>355.31139999999999</v>
       </c>
@@ -6949,18 +6949,18 @@
       </c>
       <c r="N37" s="61">
         <f t="shared" si="3"/>
-        <v>1.5819204601873593</v>
+        <v>0.58192046018735932</v>
       </c>
       <c r="O37" s="62">
         <f t="shared" si="4"/>
-        <v>1.8312463557801448</v>
+        <v>0.83124635578014483</v>
       </c>
     </row>
     <row r="38" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F38" s="43">
         <v>12</v>
       </c>
-      <c r="G38" s="84"/>
+      <c r="G38" s="93"/>
       <c r="H38" s="58">
         <v>355.31240000000003</v>
       </c>
@@ -6986,11 +6986,11 @@
       </c>
       <c r="N38" s="65">
         <f t="shared" si="3"/>
-        <v>1.5819204574771699</v>
+        <v>0.58192045747716992</v>
       </c>
       <c r="O38" s="66">
         <f t="shared" si="4"/>
-        <v>1.831246351401145</v>
+        <v>0.831246351401145</v>
       </c>
     </row>
     <row r="39" spans="5:17" x14ac:dyDescent="0.3">
@@ -7059,20 +7059,20 @@
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
-      <c r="J43" s="88" t="s">
+      <c r="J43" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="K43" s="89"/>
+      <c r="K43" s="98"/>
       <c r="L43" s="50" t="s">
         <v>59</v>
       </c>
       <c r="M43" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="N43" s="88" t="s">
+      <c r="N43" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="O43" s="90"/>
+      <c r="O43" s="99"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
@@ -7116,7 +7116,7 @@
       <c r="F45" s="37">
         <v>1</v>
       </c>
-      <c r="G45" s="91" t="s">
+      <c r="G45" s="100" t="s">
         <v>70</v>
       </c>
       <c r="H45" s="55">
@@ -7127,11 +7127,11 @@
         <f>SQRT( (('Forces Input'!AH22)^2) + (('Forces Input'!AI22)^2) )</f>
         <v>563.96100364231745</v>
       </c>
-      <c r="J45" s="93">
+      <c r="J45" s="78">
         <f xml:space="preserve"> (   ($D$2*$B$4*1000000) / ($D$7 + ($D$3*H45*$D$4) ) ) -1</f>
         <v>0.5818283549037726</v>
       </c>
-      <c r="K45" s="93">
+      <c r="K45" s="78">
         <f xml:space="preserve"> (   ($D$2*$B$5*1000000) / ($D$7 + ($D$3*H45*$D$5) ) ) -1</f>
         <v>0.83109774047015472</v>
       </c>
@@ -7159,7 +7159,7 @@
       <c r="F46" s="39">
         <v>2</v>
       </c>
-      <c r="G46" s="83"/>
+      <c r="G46" s="92"/>
       <c r="H46" s="56">
         <f>ABS('Forces Input'!AG23)</f>
         <v>389.43470000000002</v>
@@ -7168,11 +7168,11 @@
         <f>SQRT( (('Forces Input'!AH23)^2) + (('Forces Input'!AI23)^2) )</f>
         <v>563.99961167349227</v>
       </c>
-      <c r="J46" s="94">
+      <c r="J46" s="79">
         <f t="shared" ref="J46:J80" si="6" xml:space="preserve"> (   ($D$2*$B$4*1000000) / ($D$7 + ($D$3*H46*$D$4) ) ) -1</f>
         <v>0.58182837704817691</v>
       </c>
-      <c r="K46" s="94">
+      <c r="K46" s="79">
         <f t="shared" ref="K46:K80" si="7" xml:space="preserve"> (   ($D$2*$B$5*1000000) / ($D$7 + ($D$3*H46*$D$5) ) ) -1</f>
         <v>0.83109777634807802</v>
       </c>
@@ -7200,7 +7200,7 @@
       <c r="F47" s="39">
         <v>3</v>
       </c>
-      <c r="G47" s="83"/>
+      <c r="G47" s="92"/>
       <c r="H47" s="56">
         <f>ABS('Forces Input'!AG24)</f>
         <v>341.28429999999997</v>
@@ -7209,11 +7209,11 @@
         <f>SQRT( (('Forces Input'!AH24)^2) + (('Forces Input'!AI24)^2) )</f>
         <v>465.32699202935777</v>
       </c>
-      <c r="J47" s="94">
+      <c r="J47" s="79">
         <f t="shared" si="6"/>
         <v>0.58196002527958157</v>
       </c>
-      <c r="K47" s="94">
+      <c r="K47" s="79">
         <f t="shared" si="7"/>
         <v>0.83131107729093334</v>
       </c>
@@ -7241,7 +7241,7 @@
       <c r="F48" s="39">
         <v>4</v>
       </c>
-      <c r="G48" s="83"/>
+      <c r="G48" s="92"/>
       <c r="H48" s="56">
         <f>ABS('Forces Input'!AG25)</f>
         <v>341.26979999999998</v>
@@ -7250,11 +7250,11 @@
         <f>SQRT( (('Forces Input'!AH25)^2) + (('Forces Input'!AI25)^2) )</f>
         <v>465.29184599442533</v>
       </c>
-      <c r="J48" s="94">
+      <c r="J48" s="79">
         <f t="shared" si="6"/>
         <v>0.58196006492739882</v>
       </c>
-      <c r="K48" s="94">
+      <c r="K48" s="79">
         <f t="shared" si="7"/>
         <v>0.83131114153181307</v>
       </c>
@@ -7282,7 +7282,7 @@
       <c r="F49" s="39">
         <v>5</v>
       </c>
-      <c r="G49" s="83"/>
+      <c r="G49" s="92"/>
       <c r="H49" s="56">
         <f>ABS('Forces Input'!AG26)</f>
         <v>341.28129999999999</v>
@@ -7291,11 +7291,11 @@
         <f>SQRT( (('Forces Input'!AH26)^2) + (('Forces Input'!AI26)^2) )</f>
         <v>465.31110695157491</v>
       </c>
-      <c r="J49" s="94">
+      <c r="J49" s="79">
         <f t="shared" si="6"/>
         <v>0.58196003348257808</v>
       </c>
-      <c r="K49" s="94">
+      <c r="K49" s="79">
         <f t="shared" si="7"/>
         <v>0.83131109058214947</v>
       </c>
@@ -7323,7 +7323,7 @@
       <c r="F50" s="39">
         <v>6</v>
       </c>
-      <c r="G50" s="83"/>
+      <c r="G50" s="92"/>
       <c r="H50" s="56">
         <f>ABS('Forces Input'!AG27)</f>
         <v>341.27289999999999</v>
@@ -7332,11 +7332,11 @@
         <f>SQRT( (('Forces Input'!AH27)^2) + (('Forces Input'!AI27)^2) )</f>
         <v>465.31258496835227</v>
       </c>
-      <c r="J50" s="94">
+      <c r="J50" s="79">
         <f t="shared" si="6"/>
         <v>0.58196005645096882</v>
       </c>
-      <c r="K50" s="94">
+      <c r="K50" s="79">
         <f t="shared" si="7"/>
         <v>0.83131112779755578</v>
       </c>
@@ -7364,7 +7364,7 @@
       <c r="F51" s="39">
         <v>7</v>
       </c>
-      <c r="G51" s="83"/>
+      <c r="G51" s="92"/>
       <c r="H51" s="56">
         <f>ABS('Forces Input'!AG28)</f>
         <v>341.2842</v>
@@ -7373,11 +7373,11 @@
         <f>SQRT( (('Forces Input'!AH28)^2) + (('Forces Input'!AI28)^2) )</f>
         <v>465.32839905660177</v>
       </c>
-      <c r="J51" s="94">
+      <c r="J51" s="79">
         <f t="shared" si="6"/>
         <v>0.58196002555301485</v>
       </c>
-      <c r="K51" s="94">
+      <c r="K51" s="79">
         <f t="shared" si="7"/>
         <v>0.83131107773397384</v>
       </c>
@@ -7405,7 +7405,7 @@
       <c r="F52" s="39">
         <v>8</v>
       </c>
-      <c r="G52" s="83"/>
+      <c r="G52" s="92"/>
       <c r="H52" s="56">
         <f>ABS('Forces Input'!AG29)</f>
         <v>341.2697</v>
@@ -7414,11 +7414,11 @@
         <f>SQRT( (('Forces Input'!AH29)^2) + (('Forces Input'!AI29)^2) )</f>
         <v>465.2936993218047</v>
       </c>
-      <c r="J52" s="94">
+      <c r="J52" s="79">
         <f t="shared" si="6"/>
         <v>0.58196006520083232</v>
       </c>
-      <c r="K52" s="94">
+      <c r="K52" s="79">
         <f t="shared" si="7"/>
         <v>0.83131114197485378</v>
       </c>
@@ -7446,7 +7446,7 @@
       <c r="F53" s="39">
         <v>9</v>
       </c>
-      <c r="G53" s="83"/>
+      <c r="G53" s="92"/>
       <c r="H53" s="56">
         <f>ABS('Forces Input'!AG30)</f>
         <v>341.28100000000001</v>
@@ -7455,11 +7455,11 @@
         <f>SQRT( (('Forces Input'!AH30)^2) + (('Forces Input'!AI30)^2) )</f>
         <v>465.3097168085468</v>
       </c>
-      <c r="J53" s="94">
+      <c r="J53" s="79">
         <f t="shared" si="6"/>
         <v>0.58196003430287768</v>
       </c>
-      <c r="K53" s="94">
+      <c r="K53" s="79">
         <f t="shared" si="7"/>
         <v>0.83131109191127117</v>
       </c>
@@ -7487,7 +7487,7 @@
       <c r="F54" s="39">
         <v>10</v>
       </c>
-      <c r="G54" s="83"/>
+      <c r="G54" s="92"/>
       <c r="H54" s="56">
         <f>ABS('Forces Input'!AG31)</f>
         <v>341.27260000000001</v>
@@ -7496,11 +7496,11 @@
         <f>SQRT( (('Forces Input'!AH31)^2) + (('Forces Input'!AI31)^2) )</f>
         <v>465.31077648446956</v>
       </c>
-      <c r="J54" s="94">
+      <c r="J54" s="79">
         <f t="shared" si="6"/>
         <v>0.58196005727126843</v>
       </c>
-      <c r="K54" s="94">
+      <c r="K54" s="79">
         <f t="shared" si="7"/>
         <v>0.83131112912667726</v>
       </c>
@@ -7528,7 +7528,7 @@
       <c r="F55" s="39">
         <v>11</v>
       </c>
-      <c r="G55" s="83"/>
+      <c r="G55" s="92"/>
       <c r="H55" s="56">
         <f>ABS('Forces Input'!AG32)</f>
         <v>389.43860000000001</v>
@@ -7537,11 +7537,11 @@
         <f>SQRT( (('Forces Input'!AH32)^2) + (('Forces Input'!AI32)^2) )</f>
         <v>563.98200474463727</v>
       </c>
-      <c r="J55" s="94">
+      <c r="J55" s="79">
         <f t="shared" si="6"/>
         <v>0.58182836638605617</v>
       </c>
-      <c r="K55" s="94">
+      <c r="K55" s="79">
         <f t="shared" si="7"/>
         <v>0.83109775907352224</v>
       </c>
@@ -7569,7 +7569,7 @@
       <c r="F56" s="41">
         <v>12</v>
       </c>
-      <c r="G56" s="92"/>
+      <c r="G56" s="101"/>
       <c r="H56" s="57">
         <f>ABS('Forces Input'!AG33)</f>
         <v>389.43860000000001</v>
@@ -7578,11 +7578,11 @@
         <f>SQRT( (('Forces Input'!AH33)^2) + (('Forces Input'!AI33)^2) )</f>
         <v>563.98094406659698</v>
       </c>
-      <c r="J56" s="95">
+      <c r="J56" s="80">
         <f t="shared" si="6"/>
         <v>0.58182836638605617</v>
       </c>
-      <c r="K56" s="95">
+      <c r="K56" s="80">
         <f t="shared" si="7"/>
         <v>0.83109775907352224</v>
       </c>
@@ -7610,16 +7610,16 @@
       <c r="F57" s="37">
         <v>1</v>
       </c>
-      <c r="G57" s="91" t="s">
+      <c r="G57" s="100" t="s">
         <v>71</v>
       </c>
       <c r="H57" s="55"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="93">
+      <c r="I57" s="85"/>
+      <c r="J57" s="78">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K57" s="93">
+      <c r="K57" s="78">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
@@ -7647,14 +7647,14 @@
       <c r="F58" s="39">
         <v>2</v>
       </c>
-      <c r="G58" s="83"/>
+      <c r="G58" s="92"/>
       <c r="H58" s="56"/>
-      <c r="I58" s="98"/>
-      <c r="J58" s="94">
+      <c r="I58" s="83"/>
+      <c r="J58" s="79">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K58" s="94">
+      <c r="K58" s="79">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
@@ -7682,14 +7682,14 @@
       <c r="F59" s="39">
         <v>3</v>
       </c>
-      <c r="G59" s="83"/>
+      <c r="G59" s="92"/>
       <c r="H59" s="56"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="94">
+      <c r="I59" s="83"/>
+      <c r="J59" s="79">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K59" s="94">
+      <c r="K59" s="79">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
@@ -7717,14 +7717,14 @@
       <c r="F60" s="39">
         <v>4</v>
       </c>
-      <c r="G60" s="83"/>
+      <c r="G60" s="92"/>
       <c r="H60" s="56"/>
-      <c r="I60" s="98"/>
-      <c r="J60" s="94">
+      <c r="I60" s="83"/>
+      <c r="J60" s="79">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K60" s="94">
+      <c r="K60" s="79">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
@@ -7752,14 +7752,14 @@
       <c r="F61" s="39">
         <v>5</v>
       </c>
-      <c r="G61" s="83"/>
+      <c r="G61" s="92"/>
       <c r="H61" s="56"/>
-      <c r="I61" s="98"/>
-      <c r="J61" s="94">
+      <c r="I61" s="83"/>
+      <c r="J61" s="79">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K61" s="94">
+      <c r="K61" s="79">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
@@ -7787,14 +7787,14 @@
       <c r="F62" s="39">
         <v>6</v>
       </c>
-      <c r="G62" s="83"/>
+      <c r="G62" s="92"/>
       <c r="H62" s="56"/>
-      <c r="I62" s="98"/>
-      <c r="J62" s="94">
+      <c r="I62" s="83"/>
+      <c r="J62" s="79">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K62" s="94">
+      <c r="K62" s="79">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
@@ -7821,14 +7821,14 @@
       <c r="F63" s="39">
         <v>7</v>
       </c>
-      <c r="G63" s="83"/>
+      <c r="G63" s="92"/>
       <c r="H63" s="56"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="94">
+      <c r="I63" s="83"/>
+      <c r="J63" s="79">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K63" s="94">
+      <c r="K63" s="79">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
@@ -7853,14 +7853,14 @@
       <c r="F64" s="39">
         <v>8</v>
       </c>
-      <c r="G64" s="83"/>
+      <c r="G64" s="92"/>
       <c r="H64" s="56"/>
-      <c r="I64" s="98"/>
-      <c r="J64" s="94">
+      <c r="I64" s="83"/>
+      <c r="J64" s="79">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K64" s="94">
+      <c r="K64" s="79">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
@@ -7885,14 +7885,14 @@
       <c r="F65" s="39">
         <v>9</v>
       </c>
-      <c r="G65" s="83"/>
+      <c r="G65" s="92"/>
       <c r="H65" s="56"/>
-      <c r="I65" s="98"/>
-      <c r="J65" s="94">
+      <c r="I65" s="83"/>
+      <c r="J65" s="79">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K65" s="94">
+      <c r="K65" s="79">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
@@ -7917,14 +7917,14 @@
       <c r="F66" s="39">
         <v>10</v>
       </c>
-      <c r="G66" s="83"/>
+      <c r="G66" s="92"/>
       <c r="H66" s="56"/>
-      <c r="I66" s="98"/>
-      <c r="J66" s="94">
+      <c r="I66" s="83"/>
+      <c r="J66" s="79">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K66" s="94">
+      <c r="K66" s="79">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
@@ -7949,14 +7949,14 @@
       <c r="F67" s="39">
         <v>11</v>
       </c>
-      <c r="G67" s="83"/>
+      <c r="G67" s="92"/>
       <c r="H67" s="56"/>
-      <c r="I67" s="98"/>
-      <c r="J67" s="94">
+      <c r="I67" s="83"/>
+      <c r="J67" s="79">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K67" s="94">
+      <c r="K67" s="79">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
@@ -7981,14 +7981,14 @@
       <c r="F68" s="41">
         <v>12</v>
       </c>
-      <c r="G68" s="92"/>
+      <c r="G68" s="101"/>
       <c r="H68" s="57"/>
-      <c r="I68" s="101"/>
-      <c r="J68" s="95">
+      <c r="I68" s="86"/>
+      <c r="J68" s="80">
         <f t="shared" si="6"/>
         <v>0.58289376072382715</v>
       </c>
-      <c r="K68" s="95">
+      <c r="K68" s="80">
         <f t="shared" si="7"/>
         <v>0.83282435452232573</v>
       </c>
@@ -8013,22 +8013,22 @@
       <c r="F69" s="39">
         <v>1</v>
       </c>
-      <c r="G69" s="83" t="s">
+      <c r="G69" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="H69" s="98">
+      <c r="H69" s="83">
         <f>ABS('Forces Input'!C22)</f>
         <v>195.53479999999999</v>
       </c>
-      <c r="I69" s="98">
+      <c r="I69" s="83">
         <f>SQRT( (('Forces Input'!D22)^2) + (('Forces Input'!E22)^2) )</f>
         <v>586.66395231945182</v>
       </c>
-      <c r="J69" s="94">
+      <c r="J69" s="79">
         <f t="shared" si="6"/>
         <v>0.58235865324907188</v>
       </c>
-      <c r="K69" s="94">
+      <c r="K69" s="79">
         <f t="shared" si="7"/>
         <v>0.83195703442346391</v>
       </c>
@@ -8053,20 +8053,20 @@
       <c r="F70" s="39">
         <v>2</v>
       </c>
-      <c r="G70" s="83"/>
-      <c r="H70" s="98">
+      <c r="G70" s="92"/>
+      <c r="H70" s="83">
         <f>ABS('Forces Input'!C23)</f>
         <v>195.53550000000001</v>
       </c>
-      <c r="I70" s="98">
+      <c r="I70" s="83">
         <f>SQRT( (('Forces Input'!D23)^2) + (('Forces Input'!E23)^2) )</f>
         <v>586.66298475698125</v>
       </c>
-      <c r="J70" s="94">
+      <c r="J70" s="79">
         <f t="shared" si="6"/>
         <v>0.58235865133407483</v>
       </c>
-      <c r="K70" s="94">
+      <c r="K70" s="79">
         <f t="shared" si="7"/>
         <v>0.83195703131999199</v>
       </c>
@@ -8091,20 +8091,20 @@
       <c r="F71" s="39">
         <v>3</v>
       </c>
-      <c r="G71" s="83"/>
-      <c r="H71" s="98">
+      <c r="G71" s="92"/>
+      <c r="H71" s="83">
         <f>ABS('Forces Input'!C24)</f>
         <v>146.33519999999999</v>
       </c>
-      <c r="I71" s="98">
+      <c r="I71" s="83">
         <f>SQRT( (('Forces Input'!D24)^2) + (('Forces Input'!E24)^2) )</f>
         <v>248.33147120638978</v>
       </c>
-      <c r="J71" s="94">
+      <c r="J71" s="79">
         <f t="shared" si="6"/>
         <v>0.58249326055426165</v>
       </c>
-      <c r="K71" s="94">
+      <c r="K71" s="79">
         <f t="shared" si="7"/>
         <v>0.83217518836871962</v>
       </c>
@@ -8129,20 +8129,20 @@
       <c r="F72" s="39">
         <v>4</v>
       </c>
-      <c r="G72" s="83"/>
-      <c r="H72" s="98">
+      <c r="G72" s="92"/>
+      <c r="H72" s="83">
         <f>ABS('Forces Input'!C25)</f>
         <v>125.6237</v>
       </c>
-      <c r="I72" s="98">
+      <c r="I72" s="83">
         <f>SQRT( (('Forces Input'!D25)^2) + (('Forces Input'!E25)^2) )</f>
         <v>716.09880083637904</v>
       </c>
-      <c r="J72" s="94">
+      <c r="J72" s="79">
         <f t="shared" si="6"/>
         <v>0.58254993288924783</v>
       </c>
-      <c r="K72" s="94">
+      <c r="K72" s="79">
         <f t="shared" si="7"/>
         <v>0.83226703992904549</v>
       </c>
@@ -8167,20 +8167,20 @@
       <c r="F73" s="39">
         <v>5</v>
       </c>
-      <c r="G73" s="83"/>
-      <c r="H73" s="98">
+      <c r="G73" s="92"/>
+      <c r="H73" s="83">
         <f>ABS('Forces Input'!C26)</f>
         <v>146.3365</v>
       </c>
-      <c r="I73" s="98">
+      <c r="I73" s="83">
         <f>SQRT( (('Forces Input'!D26)^2) + (('Forces Input'!E26)^2) )</f>
         <v>248.33473485432921</v>
       </c>
-      <c r="J73" s="94">
+      <c r="J73" s="79">
         <f t="shared" si="6"/>
         <v>0.5824932569972332</v>
       </c>
-      <c r="K73" s="94">
+      <c r="K73" s="79">
         <f t="shared" si="7"/>
         <v>0.83217518260375622</v>
       </c>
@@ -8205,20 +8205,20 @@
       <c r="F74" s="39">
         <v>6</v>
       </c>
-      <c r="G74" s="83"/>
-      <c r="H74" s="98">
+      <c r="G74" s="92"/>
+      <c r="H74" s="83">
         <f>ABS('Forces Input'!C27)</f>
         <v>125.6237</v>
       </c>
-      <c r="I74" s="98">
+      <c r="I74" s="83">
         <f>SQRT( (('Forces Input'!D27)^2) + (('Forces Input'!E27)^2) )</f>
         <v>716.08430548795025</v>
       </c>
-      <c r="J74" s="94">
+      <c r="J74" s="79">
         <f t="shared" si="6"/>
         <v>0.58254993288924783</v>
       </c>
-      <c r="K74" s="94">
+      <c r="K74" s="79">
         <f t="shared" si="7"/>
         <v>0.83226703992904549</v>
       </c>
@@ -8243,20 +8243,20 @@
       <c r="F75" s="39">
         <v>7</v>
       </c>
-      <c r="G75" s="83"/>
-      <c r="H75" s="98">
+      <c r="G75" s="92"/>
+      <c r="H75" s="83">
         <f>ABS('Forces Input'!C28)</f>
         <v>125.62390000000001</v>
       </c>
-      <c r="I75" s="98">
+      <c r="I75" s="83">
         <f>SQRT( (('Forces Input'!D28)^2) + (('Forces Input'!E28)^2) )</f>
         <v>716.06651935543675</v>
       </c>
-      <c r="J75" s="94">
+      <c r="J75" s="79">
         <f t="shared" si="6"/>
         <v>0.58254993234197339</v>
       </c>
-      <c r="K75" s="94">
+      <c r="K75" s="79">
         <f t="shared" si="7"/>
         <v>0.83226703904203903</v>
       </c>
@@ -8281,20 +8281,20 @@
       <c r="F76" s="39">
         <v>8</v>
       </c>
-      <c r="G76" s="83"/>
-      <c r="H76" s="98">
+      <c r="G76" s="92"/>
+      <c r="H76" s="83">
         <f>ABS('Forces Input'!C29)</f>
         <v>146.3365</v>
       </c>
-      <c r="I76" s="98">
+      <c r="I76" s="83">
         <f>SQRT( (('Forces Input'!D29)^2) + (('Forces Input'!E29)^2) )</f>
         <v>248.33332530552559</v>
       </c>
-      <c r="J76" s="94">
+      <c r="J76" s="79">
         <f t="shared" si="6"/>
         <v>0.5824932569972332</v>
       </c>
-      <c r="K76" s="94">
+      <c r="K76" s="79">
         <f t="shared" si="7"/>
         <v>0.83217518260375622</v>
       </c>
@@ -8319,20 +8319,20 @@
       <c r="F77" s="39">
         <v>9</v>
       </c>
-      <c r="G77" s="83"/>
-      <c r="H77" s="98">
+      <c r="G77" s="92"/>
+      <c r="H77" s="83">
         <f>ABS('Forces Input'!C30)</f>
         <v>125.62390000000001</v>
       </c>
-      <c r="I77" s="98">
+      <c r="I77" s="83">
         <f>SQRT( (('Forces Input'!D30)^2) + (('Forces Input'!E30)^2) )</f>
         <v>716.06943639262386</v>
       </c>
-      <c r="J77" s="94">
+      <c r="J77" s="79">
         <f t="shared" si="6"/>
         <v>0.58254993234197339</v>
       </c>
-      <c r="K77" s="94">
+      <c r="K77" s="79">
         <f t="shared" si="7"/>
         <v>0.83226703904203903</v>
       </c>
@@ -8357,20 +8357,20 @@
       <c r="F78" s="39">
         <v>10</v>
       </c>
-      <c r="G78" s="83"/>
-      <c r="H78" s="98">
+      <c r="G78" s="92"/>
+      <c r="H78" s="83">
         <f>ABS('Forces Input'!C31)</f>
         <v>146.33510000000001</v>
       </c>
-      <c r="I78" s="98">
+      <c r="I78" s="83">
         <f>SQRT( (('Forces Input'!D31)^2) + (('Forces Input'!E31)^2) )</f>
         <v>248.33001862940372</v>
       </c>
-      <c r="J78" s="94">
+      <c r="J78" s="79">
         <f t="shared" si="6"/>
         <v>0.58249326082787922</v>
       </c>
-      <c r="K78" s="94">
+      <c r="K78" s="79">
         <f t="shared" si="7"/>
         <v>0.83217518881217867</v>
       </c>
@@ -8395,20 +8395,20 @@
       <c r="F79" s="39">
         <v>11</v>
       </c>
-      <c r="G79" s="83"/>
-      <c r="H79" s="98">
+      <c r="G79" s="92"/>
+      <c r="H79" s="83">
         <f>ABS('Forces Input'!C32)</f>
         <v>195.53460000000001</v>
       </c>
-      <c r="I79" s="98">
+      <c r="I79" s="83">
         <f>SQRT( (('Forces Input'!D32)^2) + (('Forces Input'!E32)^2) )</f>
         <v>586.66302202420252</v>
       </c>
-      <c r="J79" s="94">
+      <c r="J79" s="79">
         <f t="shared" si="6"/>
         <v>0.58235865379621399</v>
       </c>
-      <c r="K79" s="94">
+      <c r="K79" s="79">
         <f t="shared" si="7"/>
         <v>0.83195703531017018</v>
       </c>
@@ -8433,20 +8433,20 @@
       <c r="F80" s="43">
         <v>12</v>
       </c>
-      <c r="G80" s="84"/>
-      <c r="H80" s="99">
+      <c r="G80" s="93"/>
+      <c r="H80" s="84">
         <f>ABS('Forces Input'!C33)</f>
         <v>195.53479999999999</v>
       </c>
-      <c r="I80" s="99">
+      <c r="I80" s="84">
         <f>SQRT( (('Forces Input'!D33)^2) + (('Forces Input'!E33)^2) )</f>
         <v>586.66309255546321</v>
       </c>
-      <c r="J80" s="96">
+      <c r="J80" s="81">
         <f t="shared" si="6"/>
         <v>0.58235865324907188</v>
       </c>
-      <c r="K80" s="96">
+      <c r="K80" s="81">
         <f t="shared" si="7"/>
         <v>0.83195703442346391</v>
       </c>
@@ -8468,9 +8468,9 @@
       </c>
     </row>
     <row r="81" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="M81" s="97"/>
-      <c r="N81" s="97"/>
-      <c r="O81" s="97"/>
+      <c r="M81" s="82"/>
+      <c r="N81" s="82"/>
+      <c r="O81" s="82"/>
     </row>
     <row r="84" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="85" spans="6:15" x14ac:dyDescent="0.3">
@@ -8478,20 +8478,20 @@
       <c r="G85" s="34"/>
       <c r="H85" s="34"/>
       <c r="I85" s="34"/>
-      <c r="J85" s="88" t="s">
+      <c r="J85" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="K85" s="89"/>
+      <c r="K85" s="98"/>
       <c r="L85" s="50" t="s">
         <v>59</v>
       </c>
       <c r="M85" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="N85" s="88" t="s">
+      <c r="N85" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="O85" s="90"/>
+      <c r="O85" s="99"/>
     </row>
     <row r="86" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F86" s="35" t="s">
@@ -8529,7 +8529,7 @@
       <c r="F87" s="37">
         <v>1</v>
       </c>
-      <c r="G87" s="91" t="s">
+      <c r="G87" s="100" t="s">
         <v>73</v>
       </c>
       <c r="H87" s="28"/>
@@ -8563,7 +8563,7 @@
       <c r="F88" s="39">
         <v>2</v>
       </c>
-      <c r="G88" s="83"/>
+      <c r="G88" s="92"/>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
       <c r="J88" s="20">
@@ -8595,7 +8595,7 @@
       <c r="F89" s="39">
         <v>3</v>
       </c>
-      <c r="G89" s="83"/>
+      <c r="G89" s="92"/>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="20">
@@ -8627,7 +8627,7 @@
       <c r="F90" s="39">
         <v>4</v>
       </c>
-      <c r="G90" s="83"/>
+      <c r="G90" s="92"/>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
       <c r="J90" s="20">
@@ -8659,7 +8659,7 @@
       <c r="F91" s="39">
         <v>5</v>
       </c>
-      <c r="G91" s="83"/>
+      <c r="G91" s="92"/>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="20">
@@ -8691,7 +8691,7 @@
       <c r="F92" s="39">
         <v>6</v>
       </c>
-      <c r="G92" s="83"/>
+      <c r="G92" s="92"/>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="20">
@@ -8723,7 +8723,7 @@
       <c r="F93" s="39">
         <v>7</v>
       </c>
-      <c r="G93" s="83"/>
+      <c r="G93" s="92"/>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
       <c r="J93" s="20">
@@ -8755,7 +8755,7 @@
       <c r="F94" s="39">
         <v>8</v>
       </c>
-      <c r="G94" s="83"/>
+      <c r="G94" s="92"/>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="20">
@@ -8787,7 +8787,7 @@
       <c r="F95" s="39">
         <v>9</v>
       </c>
-      <c r="G95" s="83"/>
+      <c r="G95" s="92"/>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
       <c r="J95" s="20">
@@ -8819,7 +8819,7 @@
       <c r="F96" s="39">
         <v>10</v>
       </c>
-      <c r="G96" s="83"/>
+      <c r="G96" s="92"/>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="20">
@@ -8851,7 +8851,7 @@
       <c r="F97" s="39">
         <v>11</v>
       </c>
-      <c r="G97" s="83"/>
+      <c r="G97" s="92"/>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="20">
@@ -8883,7 +8883,7 @@
       <c r="F98" s="41">
         <v>12</v>
       </c>
-      <c r="G98" s="92"/>
+      <c r="G98" s="101"/>
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
       <c r="J98" s="15">
@@ -8915,7 +8915,7 @@
       <c r="F99" s="37">
         <v>1</v>
       </c>
-      <c r="G99" s="91" t="s">
+      <c r="G99" s="100" t="s">
         <v>74</v>
       </c>
       <c r="H99" s="28"/>
@@ -8949,7 +8949,7 @@
       <c r="F100" s="39">
         <v>2</v>
       </c>
-      <c r="G100" s="83"/>
+      <c r="G100" s="92"/>
       <c r="H100" s="19"/>
       <c r="I100" s="22"/>
       <c r="J100" s="20">
@@ -8981,7 +8981,7 @@
       <c r="F101" s="39">
         <v>3</v>
       </c>
-      <c r="G101" s="83"/>
+      <c r="G101" s="92"/>
       <c r="H101" s="19"/>
       <c r="I101" s="22"/>
       <c r="J101" s="20">
@@ -9013,7 +9013,7 @@
       <c r="F102" s="39">
         <v>4</v>
       </c>
-      <c r="G102" s="83"/>
+      <c r="G102" s="92"/>
       <c r="H102" s="19"/>
       <c r="I102" s="22"/>
       <c r="J102" s="20">
@@ -9045,7 +9045,7 @@
       <c r="F103" s="39">
         <v>5</v>
       </c>
-      <c r="G103" s="83"/>
+      <c r="G103" s="92"/>
       <c r="H103" s="19"/>
       <c r="I103" s="22"/>
       <c r="J103" s="20">
@@ -9077,7 +9077,7 @@
       <c r="F104" s="39">
         <v>6</v>
       </c>
-      <c r="G104" s="83"/>
+      <c r="G104" s="92"/>
       <c r="H104" s="19"/>
       <c r="I104" s="22"/>
       <c r="J104" s="20">
@@ -9109,7 +9109,7 @@
       <c r="F105" s="39">
         <v>7</v>
       </c>
-      <c r="G105" s="83"/>
+      <c r="G105" s="92"/>
       <c r="H105" s="19"/>
       <c r="I105" s="22"/>
       <c r="J105" s="20">
@@ -9141,7 +9141,7 @@
       <c r="F106" s="39">
         <v>8</v>
       </c>
-      <c r="G106" s="83"/>
+      <c r="G106" s="92"/>
       <c r="H106" s="19"/>
       <c r="I106" s="22"/>
       <c r="J106" s="20">
@@ -9173,7 +9173,7 @@
       <c r="F107" s="39">
         <v>9</v>
       </c>
-      <c r="G107" s="83"/>
+      <c r="G107" s="92"/>
       <c r="H107" s="19"/>
       <c r="I107" s="22"/>
       <c r="J107" s="20">
@@ -9205,7 +9205,7 @@
       <c r="F108" s="39">
         <v>10</v>
       </c>
-      <c r="G108" s="83"/>
+      <c r="G108" s="92"/>
       <c r="H108" s="19"/>
       <c r="I108" s="22"/>
       <c r="J108" s="20">
@@ -9237,7 +9237,7 @@
       <c r="F109" s="39">
         <v>11</v>
       </c>
-      <c r="G109" s="83"/>
+      <c r="G109" s="92"/>
       <c r="H109" s="19"/>
       <c r="I109" s="22"/>
       <c r="J109" s="20">
@@ -9269,7 +9269,7 @@
       <c r="F110" s="41">
         <v>12</v>
       </c>
-      <c r="G110" s="92"/>
+      <c r="G110" s="101"/>
       <c r="H110" s="26"/>
       <c r="I110" s="24"/>
       <c r="J110" s="15">
@@ -9301,7 +9301,7 @@
       <c r="F111" s="39">
         <v>1</v>
       </c>
-      <c r="G111" s="83" t="s">
+      <c r="G111" s="92" t="s">
         <v>75</v>
       </c>
       <c r="H111" s="22"/>
@@ -9335,7 +9335,7 @@
       <c r="F112" s="39">
         <v>2</v>
       </c>
-      <c r="G112" s="83"/>
+      <c r="G112" s="92"/>
       <c r="H112" s="22"/>
       <c r="I112" s="23"/>
       <c r="J112" s="20">
@@ -9367,7 +9367,7 @@
       <c r="F113" s="39">
         <v>3</v>
       </c>
-      <c r="G113" s="83"/>
+      <c r="G113" s="92"/>
       <c r="H113" s="22"/>
       <c r="I113" s="23"/>
       <c r="J113" s="20">
@@ -9399,7 +9399,7 @@
       <c r="F114" s="39">
         <v>4</v>
       </c>
-      <c r="G114" s="83"/>
+      <c r="G114" s="92"/>
       <c r="H114" s="22"/>
       <c r="I114" s="23"/>
       <c r="J114" s="20">
@@ -9431,7 +9431,7 @@
       <c r="F115" s="39">
         <v>5</v>
       </c>
-      <c r="G115" s="83"/>
+      <c r="G115" s="92"/>
       <c r="H115" s="22"/>
       <c r="I115" s="23"/>
       <c r="J115" s="20">
@@ -9463,7 +9463,7 @@
       <c r="F116" s="39">
         <v>6</v>
       </c>
-      <c r="G116" s="83"/>
+      <c r="G116" s="92"/>
       <c r="H116" s="22"/>
       <c r="I116" s="23"/>
       <c r="J116" s="20">
@@ -9495,7 +9495,7 @@
       <c r="F117" s="39">
         <v>7</v>
       </c>
-      <c r="G117" s="83"/>
+      <c r="G117" s="92"/>
       <c r="H117" s="22"/>
       <c r="I117" s="23"/>
       <c r="J117" s="20">
@@ -9527,7 +9527,7 @@
       <c r="F118" s="39">
         <v>8</v>
       </c>
-      <c r="G118" s="83"/>
+      <c r="G118" s="92"/>
       <c r="H118" s="22"/>
       <c r="I118" s="23"/>
       <c r="J118" s="20">
@@ -9559,7 +9559,7 @@
       <c r="F119" s="39">
         <v>9</v>
       </c>
-      <c r="G119" s="83"/>
+      <c r="G119" s="92"/>
       <c r="H119" s="22"/>
       <c r="I119" s="23"/>
       <c r="J119" s="20">
@@ -9591,7 +9591,7 @@
       <c r="F120" s="39">
         <v>10</v>
       </c>
-      <c r="G120" s="83"/>
+      <c r="G120" s="92"/>
       <c r="H120" s="22"/>
       <c r="I120" s="23"/>
       <c r="J120" s="20">
@@ -9623,7 +9623,7 @@
       <c r="F121" s="39">
         <v>11</v>
       </c>
-      <c r="G121" s="83"/>
+      <c r="G121" s="92"/>
       <c r="H121" s="22"/>
       <c r="I121" s="23"/>
       <c r="J121" s="20">
@@ -9655,7 +9655,7 @@
       <c r="F122" s="43">
         <v>12</v>
       </c>
-      <c r="G122" s="84"/>
+      <c r="G122" s="93"/>
       <c r="H122" s="44"/>
       <c r="I122" s="45"/>
       <c r="J122" s="46">
